--- a/corpus_metadata.xlsx
+++ b/corpus_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5437" uniqueCount="2147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5424" uniqueCount="2147">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -6627,16 +6627,16 @@
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
-      <protection locked="true" hidden="false"/>
-    </xf>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -6681,50 +6681,7 @@
     <cellStyle name="Percent" xfId="19" builtinId="5"/>
     <cellStyle name="*unknown*" xfId="20" builtinId="8"/>
   </cellStyles>
-  <dxfs count="7">
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="00FFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF000000"/>
-          <bgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF0000FF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF1155CC"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FFFFFFFF"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill patternType="solid">
-          <fgColor rgb="FF222222"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="1">
     <dxf>
       <fill>
         <patternFill>
@@ -6804,12 +6761,12 @@
   <dimension ref="A1:AF854"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O296" activeCellId="0" sqref="O296"/>
+      <selection pane="bottomLeft" activeCell="M303" activeCellId="0" sqref="M303"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="12.58984375" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="25.29"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="22.01"/>
@@ -6915,7 +6872,7 @@
       <c r="M2" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N2" s="3" t="b">
+      <c r="N2" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -6974,7 +6931,7 @@
       <c r="M3" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N3" s="3" t="b">
+      <c r="N3" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7033,7 +6990,7 @@
       <c r="M4" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N4" s="3" t="b">
+      <c r="N4" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7092,7 +7049,7 @@
       <c r="M5" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N5" s="3" t="b">
+      <c r="N5" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7151,7 +7108,7 @@
       <c r="M6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N6" s="3" t="b">
+      <c r="N6" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7210,7 +7167,7 @@
       <c r="M7" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N7" s="3" t="b">
+      <c r="N7" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7252,7 +7209,7 @@
       <c r="F8" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G8" s="6" t="s">
+      <c r="G8" s="7" t="s">
         <v>43</v>
       </c>
       <c r="H8" s="3" t="n">
@@ -7269,7 +7226,7 @@
       <c r="M8" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N8" s="3" t="b">
+      <c r="N8" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7311,7 +7268,7 @@
       <c r="F9" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="7" t="s">
         <v>48</v>
       </c>
       <c r="H9" s="3" t="n">
@@ -7328,7 +7285,7 @@
       <c r="M9" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N9" s="3" t="b">
+      <c r="N9" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7370,7 +7327,7 @@
       <c r="F10" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G10" s="6" t="s">
+      <c r="G10" s="7" t="s">
         <v>51</v>
       </c>
       <c r="H10" s="3" t="n">
@@ -7387,7 +7344,7 @@
       <c r="M10" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N10" s="3" t="b">
+      <c r="N10" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7429,7 +7386,7 @@
       <c r="F11" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="7" t="s">
         <v>54</v>
       </c>
       <c r="H11" s="3" t="n">
@@ -7446,7 +7403,7 @@
       <c r="M11" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N11" s="3" t="b">
+      <c r="N11" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7488,7 +7445,7 @@
       <c r="F12" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G12" s="7" t="s">
+      <c r="G12" s="8" t="s">
         <v>58</v>
       </c>
       <c r="H12" s="3" t="n">
@@ -7505,7 +7462,7 @@
       <c r="M12" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N12" s="3" t="b">
+      <c r="N12" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7564,7 +7521,7 @@
       <c r="M13" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N13" s="3" t="b">
+      <c r="N13" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7606,7 +7563,7 @@
       <c r="F14" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G14" s="6" t="s">
+      <c r="G14" s="7" t="s">
         <v>68</v>
       </c>
       <c r="H14" s="3" t="n">
@@ -7623,7 +7580,7 @@
       <c r="M14" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N14" s="3" t="b">
+      <c r="N14" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7665,7 +7622,7 @@
       <c r="F15" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="7" t="s">
         <v>71</v>
       </c>
       <c r="H15" s="3" t="n">
@@ -7682,7 +7639,7 @@
       <c r="M15" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N15" s="3" t="b">
+      <c r="N15" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7724,7 +7681,7 @@
       <c r="F16" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G16" s="6" t="s">
+      <c r="G16" s="7" t="s">
         <v>76</v>
       </c>
       <c r="H16" s="3" t="n">
@@ -7741,7 +7698,7 @@
       <c r="M16" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N16" s="3" t="b">
+      <c r="N16" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7783,7 +7740,7 @@
       <c r="F17" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G17" s="6" t="s">
+      <c r="G17" s="7" t="s">
         <v>80</v>
       </c>
       <c r="H17" s="3" t="n">
@@ -7800,7 +7757,7 @@
       <c r="M17" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N17" s="3" t="b">
+      <c r="N17" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7842,7 +7799,7 @@
       <c r="F18" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="7" t="s">
         <v>84</v>
       </c>
       <c r="H18" s="3" t="n">
@@ -7859,7 +7816,7 @@
       <c r="M18" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N18" s="3" t="b">
+      <c r="N18" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7901,7 +7858,7 @@
       <c r="F19" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G19" s="6" t="s">
+      <c r="G19" s="7" t="s">
         <v>87</v>
       </c>
       <c r="H19" s="3" t="n">
@@ -7918,7 +7875,7 @@
       <c r="M19" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N19" s="3" t="b">
+      <c r="N19" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -7960,7 +7917,7 @@
       <c r="F20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="7" t="s">
         <v>90</v>
       </c>
       <c r="H20" s="3" t="n">
@@ -7977,7 +7934,7 @@
       <c r="M20" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N20" s="3" t="b">
+      <c r="N20" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8019,7 +7976,7 @@
       <c r="F21" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G21" s="6" t="s">
+      <c r="G21" s="7" t="s">
         <v>93</v>
       </c>
       <c r="H21" s="3" t="n">
@@ -8036,7 +7993,7 @@
       <c r="M21" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N21" s="3" t="b">
+      <c r="N21" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8078,7 +8035,7 @@
       <c r="F22" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="7" t="s">
         <v>96</v>
       </c>
       <c r="H22" s="3" t="n">
@@ -8095,7 +8052,7 @@
       <c r="M22" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N22" s="3" t="b">
+      <c r="N22" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8137,7 +8094,7 @@
       <c r="F23" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G23" s="7" t="s">
+      <c r="G23" s="8" t="s">
         <v>100</v>
       </c>
       <c r="H23" s="3" t="n">
@@ -8154,7 +8111,7 @@
       <c r="M23" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N23" s="3" t="b">
+      <c r="N23" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8196,7 +8153,7 @@
       <c r="F24" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G24" s="7" t="s">
+      <c r="G24" s="8" t="s">
         <v>103</v>
       </c>
       <c r="H24" s="3" t="n">
@@ -8213,7 +8170,7 @@
       <c r="M24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N24" s="3" t="b">
+      <c r="N24" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8255,7 +8212,7 @@
       <c r="F25" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G25" s="6" t="s">
+      <c r="G25" s="7" t="s">
         <v>106</v>
       </c>
       <c r="H25" s="3" t="n">
@@ -8272,7 +8229,7 @@
       <c r="M25" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N25" s="3" t="b">
+      <c r="N25" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8314,7 +8271,7 @@
       <c r="F26" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G26" s="6" t="s">
+      <c r="G26" s="7" t="s">
         <v>109</v>
       </c>
       <c r="H26" s="3" t="n">
@@ -8331,7 +8288,7 @@
       <c r="M26" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N26" s="3" t="b">
+      <c r="N26" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8373,7 +8330,7 @@
       <c r="F27" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="7" t="s">
         <v>112</v>
       </c>
       <c r="H27" s="3" t="n">
@@ -8390,7 +8347,7 @@
       <c r="M27" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N27" s="3" t="b">
+      <c r="N27" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8432,7 +8389,7 @@
       <c r="F28" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G28" s="6" t="s">
+      <c r="G28" s="7" t="s">
         <v>116</v>
       </c>
       <c r="H28" s="3" t="n">
@@ -8449,7 +8406,7 @@
       <c r="M28" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N28" s="3" t="b">
+      <c r="N28" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8491,7 +8448,7 @@
       <c r="F29" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="7" t="s">
         <v>119</v>
       </c>
       <c r="H29" s="3" t="n">
@@ -8508,7 +8465,7 @@
       <c r="M29" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N29" s="3" t="b">
+      <c r="N29" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8550,7 +8507,7 @@
       <c r="F30" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G30" s="6" t="s">
+      <c r="G30" s="7" t="s">
         <v>122</v>
       </c>
       <c r="H30" s="3" t="n">
@@ -8567,7 +8524,7 @@
       <c r="M30" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N30" s="8" t="b">
+      <c r="N30" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8609,7 +8566,7 @@
       <c r="F31" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="7" t="s">
         <v>125</v>
       </c>
       <c r="H31" s="3" t="n">
@@ -8626,7 +8583,7 @@
       <c r="M31" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N31" s="8" t="b">
+      <c r="N31" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8668,7 +8625,7 @@
       <c r="F32" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G32" s="6" t="s">
+      <c r="G32" s="7" t="s">
         <v>128</v>
       </c>
       <c r="H32" s="3" t="n">
@@ -8685,7 +8642,7 @@
       <c r="M32" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N32" s="8" t="b">
+      <c r="N32" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8727,7 +8684,7 @@
       <c r="F33" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="7" t="s">
         <v>132</v>
       </c>
       <c r="H33" s="3" t="n">
@@ -8744,7 +8701,7 @@
       <c r="M33" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N33" s="8" t="b">
+      <c r="N33" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8786,7 +8743,7 @@
       <c r="F34" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G34" s="6" t="s">
+      <c r="G34" s="7" t="s">
         <v>135</v>
       </c>
       <c r="H34" s="3" t="n">
@@ -8803,7 +8760,7 @@
       <c r="M34" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N34" s="8" t="b">
+      <c r="N34" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8845,7 +8802,7 @@
       <c r="F35" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G35" s="6" t="s">
+      <c r="G35" s="7" t="s">
         <v>138</v>
       </c>
       <c r="H35" s="3" t="n">
@@ -8862,7 +8819,7 @@
       <c r="M35" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N35" s="8" t="b">
+      <c r="N35" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8904,7 +8861,7 @@
       <c r="F36" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="7" t="s">
         <v>141</v>
       </c>
       <c r="H36" s="3" t="n">
@@ -8921,7 +8878,7 @@
       <c r="M36" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N36" s="8" t="b">
+      <c r="N36" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -8963,7 +8920,7 @@
       <c r="F37" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G37" s="7" t="s">
+      <c r="G37" s="8" t="s">
         <v>144</v>
       </c>
       <c r="H37" s="3" t="n">
@@ -8980,7 +8937,7 @@
       <c r="M37" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N37" s="8" t="b">
+      <c r="N37" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9022,7 +8979,7 @@
       <c r="F38" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G38" s="7" t="s">
+      <c r="G38" s="8" t="s">
         <v>147</v>
       </c>
       <c r="H38" s="3" t="n">
@@ -9039,7 +8996,7 @@
       <c r="M38" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N38" s="8" t="b">
+      <c r="N38" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9081,7 +9038,7 @@
       <c r="F39" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G39" s="7" t="s">
+      <c r="G39" s="8" t="s">
         <v>150</v>
       </c>
       <c r="H39" s="3" t="n">
@@ -9098,7 +9055,7 @@
       <c r="M39" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N39" s="8" t="b">
+      <c r="N39" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9140,7 +9097,7 @@
       <c r="F40" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="7" t="s">
         <v>153</v>
       </c>
       <c r="H40" s="3" t="n">
@@ -9157,7 +9114,7 @@
       <c r="M40" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N40" s="8" t="b">
+      <c r="N40" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9199,7 +9156,7 @@
       <c r="F41" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G41" s="6" t="s">
+      <c r="G41" s="7" t="s">
         <v>156</v>
       </c>
       <c r="H41" s="3" t="n">
@@ -9216,7 +9173,7 @@
       <c r="M41" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N41" s="8" t="b">
+      <c r="N41" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9258,7 +9215,7 @@
       <c r="F42" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="7" t="s">
         <v>159</v>
       </c>
       <c r="H42" s="3" t="n">
@@ -9275,7 +9232,7 @@
       <c r="M42" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N42" s="8" t="b">
+      <c r="N42" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9317,7 +9274,7 @@
       <c r="F43" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G43" s="6" t="s">
+      <c r="G43" s="7" t="s">
         <v>162</v>
       </c>
       <c r="H43" s="3" t="n">
@@ -9334,7 +9291,7 @@
       <c r="M43" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N43" s="8" t="b">
+      <c r="N43" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9376,7 +9333,7 @@
       <c r="F44" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G44" s="6" t="s">
+      <c r="G44" s="7" t="s">
         <v>166</v>
       </c>
       <c r="H44" s="3" t="n">
@@ -9435,7 +9392,7 @@
       <c r="F45" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G45" s="6" t="s">
+      <c r="G45" s="7" t="s">
         <v>169</v>
       </c>
       <c r="H45" s="3" t="n">
@@ -9494,7 +9451,7 @@
       <c r="F46" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G46" s="6" t="s">
+      <c r="G46" s="7" t="s">
         <v>173</v>
       </c>
       <c r="H46" s="3" t="n">
@@ -9553,7 +9510,7 @@
       <c r="F47" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G47" s="6" t="s">
+      <c r="G47" s="7" t="s">
         <v>176</v>
       </c>
       <c r="H47" s="3" t="n">
@@ -9612,7 +9569,7 @@
       <c r="F48" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G48" s="6" t="s">
+      <c r="G48" s="7" t="s">
         <v>179</v>
       </c>
       <c r="H48" s="3" t="n">
@@ -9671,7 +9628,7 @@
       <c r="F49" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G49" s="6" t="s">
+      <c r="G49" s="7" t="s">
         <v>182</v>
       </c>
       <c r="H49" s="3" t="n">
@@ -9730,7 +9687,7 @@
       <c r="F50" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G50" s="7" t="s">
+      <c r="G50" s="8" t="s">
         <v>185</v>
       </c>
       <c r="H50" s="3" t="n">
@@ -9789,7 +9746,7 @@
       <c r="F51" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G51" s="7" t="s">
+      <c r="G51" s="8" t="s">
         <v>188</v>
       </c>
       <c r="H51" s="3" t="n">
@@ -9848,7 +9805,7 @@
       <c r="F52" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G52" s="7" t="s">
+      <c r="G52" s="8" t="s">
         <v>191</v>
       </c>
       <c r="H52" s="3" t="n">
@@ -9907,7 +9864,7 @@
       <c r="F53" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G53" s="6" t="s">
+      <c r="G53" s="7" t="s">
         <v>194</v>
       </c>
       <c r="H53" s="3" t="n">
@@ -9966,7 +9923,7 @@
       <c r="F54" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G54" s="6" t="s">
+      <c r="G54" s="7" t="s">
         <v>197</v>
       </c>
       <c r="H54" s="3" t="n">
@@ -10025,7 +9982,7 @@
       <c r="F55" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G55" s="6" t="s">
+      <c r="G55" s="7" t="s">
         <v>200</v>
       </c>
       <c r="H55" s="3" t="n">
@@ -10084,7 +10041,7 @@
       <c r="F56" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G56" s="6" t="s">
+      <c r="G56" s="7" t="s">
         <v>203</v>
       </c>
       <c r="H56" s="3" t="n">
@@ -10143,7 +10100,7 @@
       <c r="F57" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G57" s="6" t="s">
+      <c r="G57" s="7" t="s">
         <v>206</v>
       </c>
       <c r="H57" s="3" t="n">
@@ -10202,7 +10159,7 @@
       <c r="F58" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G58" s="6" t="s">
+      <c r="G58" s="7" t="s">
         <v>209</v>
       </c>
       <c r="H58" s="3" t="n">
@@ -10261,7 +10218,7 @@
       <c r="F59" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G59" s="7" t="s">
+      <c r="G59" s="8" t="s">
         <v>213</v>
       </c>
       <c r="H59" s="3" t="n">
@@ -10278,7 +10235,7 @@
       <c r="M59" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N59" s="8" t="b">
+      <c r="N59" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10320,7 +10277,7 @@
       <c r="F60" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G60" s="6" t="s">
+      <c r="G60" s="7" t="s">
         <v>216</v>
       </c>
       <c r="H60" s="3" t="n">
@@ -10337,7 +10294,7 @@
       <c r="M60" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N60" s="8" t="b">
+      <c r="N60" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10379,7 +10336,7 @@
       <c r="F61" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G61" s="6" t="s">
+      <c r="G61" s="7" t="s">
         <v>219</v>
       </c>
       <c r="H61" s="3" t="n">
@@ -10396,7 +10353,7 @@
       <c r="M61" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N61" s="8" t="b">
+      <c r="N61" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10438,7 +10395,7 @@
       <c r="F62" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G62" s="6" t="s">
+      <c r="G62" s="7" t="s">
         <v>222</v>
       </c>
       <c r="H62" s="3" t="n">
@@ -10455,7 +10412,7 @@
       <c r="M62" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N62" s="8" t="b">
+      <c r="N62" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10497,7 +10454,7 @@
       <c r="F63" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G63" s="6" t="s">
+      <c r="G63" s="7" t="s">
         <v>225</v>
       </c>
       <c r="H63" s="3" t="n">
@@ -10514,7 +10471,7 @@
       <c r="M63" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N63" s="8" t="b">
+      <c r="N63" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10556,7 +10513,7 @@
       <c r="F64" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G64" s="6" t="s">
+      <c r="G64" s="7" t="s">
         <v>228</v>
       </c>
       <c r="H64" s="3" t="n">
@@ -10573,7 +10530,7 @@
       <c r="M64" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N64" s="8" t="b">
+      <c r="N64" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10615,7 +10572,7 @@
       <c r="F65" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G65" s="6" t="s">
+      <c r="G65" s="7" t="s">
         <v>231</v>
       </c>
       <c r="H65" s="3" t="n">
@@ -10632,7 +10589,7 @@
       <c r="M65" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N65" s="8" t="b">
+      <c r="N65" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10674,7 +10631,7 @@
       <c r="F66" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G66" s="7" t="s">
+      <c r="G66" s="8" t="s">
         <v>234</v>
       </c>
       <c r="H66" s="3" t="n">
@@ -10691,7 +10648,7 @@
       <c r="M66" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N66" s="8" t="b">
+      <c r="N66" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10733,7 +10690,7 @@
       <c r="F67" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G67" s="6" t="s">
+      <c r="G67" s="7" t="s">
         <v>237</v>
       </c>
       <c r="H67" s="3" t="n">
@@ -10750,7 +10707,7 @@
       <c r="M67" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N67" s="8" t="b">
+      <c r="N67" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10792,7 +10749,7 @@
       <c r="F68" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G68" s="6" t="s">
+      <c r="G68" s="7" t="s">
         <v>240</v>
       </c>
       <c r="H68" s="3" t="n">
@@ -10809,7 +10766,7 @@
       <c r="M68" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N68" s="8" t="b">
+      <c r="N68" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10851,7 +10808,7 @@
       <c r="F69" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G69" s="6" t="s">
+      <c r="G69" s="7" t="s">
         <v>243</v>
       </c>
       <c r="H69" s="3" t="n">
@@ -10868,7 +10825,7 @@
       <c r="M69" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N69" s="8" t="b">
+      <c r="N69" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10910,7 +10867,7 @@
       <c r="F70" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G70" s="6" t="s">
+      <c r="G70" s="7" t="s">
         <v>246</v>
       </c>
       <c r="H70" s="3" t="n">
@@ -10927,7 +10884,7 @@
       <c r="M70" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N70" s="8" t="b">
+      <c r="N70" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10969,7 +10926,7 @@
       <c r="F71" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G71" s="6" t="s">
+      <c r="G71" s="7" t="s">
         <v>250</v>
       </c>
       <c r="H71" s="3" t="n">
@@ -10986,7 +10943,7 @@
       <c r="M71" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N71" s="8" t="b">
+      <c r="N71" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11028,7 +10985,7 @@
       <c r="F72" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G72" s="6" t="s">
+      <c r="G72" s="7" t="s">
         <v>253</v>
       </c>
       <c r="H72" s="3" t="n">
@@ -11045,7 +11002,7 @@
       <c r="M72" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N72" s="8" t="b">
+      <c r="N72" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11087,7 +11044,7 @@
       <c r="F73" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G73" s="6" t="s">
+      <c r="G73" s="7" t="s">
         <v>256</v>
       </c>
       <c r="H73" s="3" t="n">
@@ -11104,7 +11061,7 @@
       <c r="M73" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N73" s="8" t="b">
+      <c r="N73" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11146,7 +11103,7 @@
       <c r="F74" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G74" s="6" t="s">
+      <c r="G74" s="7" t="s">
         <v>259</v>
       </c>
       <c r="H74" s="3" t="n">
@@ -11163,7 +11120,7 @@
       <c r="M74" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N74" s="8" t="b">
+      <c r="N74" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11205,7 +11162,7 @@
       <c r="F75" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G75" s="6" t="s">
+      <c r="G75" s="7" t="s">
         <v>262</v>
       </c>
       <c r="H75" s="3" t="n">
@@ -11222,7 +11179,7 @@
       <c r="M75" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N75" s="8" t="b">
+      <c r="N75" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11264,7 +11221,7 @@
       <c r="F76" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G76" s="6" t="s">
+      <c r="G76" s="7" t="s">
         <v>265</v>
       </c>
       <c r="H76" s="3" t="n">
@@ -11281,7 +11238,7 @@
       <c r="M76" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N76" s="8" t="b">
+      <c r="N76" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11323,7 +11280,7 @@
       <c r="F77" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G77" s="6" t="s">
+      <c r="G77" s="7" t="s">
         <v>268</v>
       </c>
       <c r="H77" s="3" t="n">
@@ -11340,7 +11297,7 @@
       <c r="M77" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N77" s="8" t="b">
+      <c r="N77" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11382,7 +11339,7 @@
       <c r="F78" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G78" s="7" t="s">
+      <c r="G78" s="8" t="s">
         <v>271</v>
       </c>
       <c r="H78" s="3" t="n">
@@ -11399,7 +11356,7 @@
       <c r="M78" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N78" s="8" t="b">
+      <c r="N78" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11441,7 +11398,7 @@
       <c r="F79" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G79" s="7" t="s">
+      <c r="G79" s="8" t="s">
         <v>274</v>
       </c>
       <c r="H79" s="3" t="n">
@@ -11458,7 +11415,7 @@
       <c r="M79" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N79" s="8" t="b">
+      <c r="N79" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11500,7 +11457,7 @@
       <c r="F80" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G80" s="7" t="s">
+      <c r="G80" s="8" t="s">
         <v>277</v>
       </c>
       <c r="H80" s="3" t="n">
@@ -11517,7 +11474,7 @@
       <c r="M80" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N80" s="8" t="b">
+      <c r="N80" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11559,7 +11516,7 @@
       <c r="F81" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G81" s="6" t="s">
+      <c r="G81" s="7" t="s">
         <v>280</v>
       </c>
       <c r="H81" s="3" t="n">
@@ -11576,7 +11533,7 @@
       <c r="M81" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N81" s="8" t="b">
+      <c r="N81" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11618,7 +11575,7 @@
       <c r="F82" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G82" s="6" t="s">
+      <c r="G82" s="7" t="s">
         <v>283</v>
       </c>
       <c r="H82" s="3" t="n">
@@ -11635,7 +11592,7 @@
       <c r="M82" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N82" s="8" t="b">
+      <c r="N82" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11677,7 +11634,7 @@
       <c r="F83" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G83" s="6" t="s">
+      <c r="G83" s="7" t="s">
         <v>286</v>
       </c>
       <c r="H83" s="3" t="n">
@@ -11694,7 +11651,7 @@
       <c r="M83" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N83" s="8" t="b">
+      <c r="N83" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11736,7 +11693,7 @@
       <c r="F84" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G84" s="6" t="s">
+      <c r="G84" s="7" t="s">
         <v>291</v>
       </c>
       <c r="H84" s="3" t="n">
@@ -11753,7 +11710,7 @@
       <c r="M84" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N84" s="8" t="b">
+      <c r="N84" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11795,7 +11752,7 @@
       <c r="F85" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G85" s="6" t="s">
+      <c r="G85" s="7" t="s">
         <v>295</v>
       </c>
       <c r="H85" s="3" t="n">
@@ -11812,7 +11769,7 @@
       <c r="M85" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N85" s="8" t="b">
+      <c r="N85" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11854,7 +11811,7 @@
       <c r="F86" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G86" s="6" t="s">
+      <c r="G86" s="7" t="s">
         <v>298</v>
       </c>
       <c r="H86" s="3" t="n">
@@ -11871,7 +11828,7 @@
       <c r="M86" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N86" s="8" t="b">
+      <c r="N86" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11913,7 +11870,7 @@
       <c r="F87" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G87" s="6" t="s">
+      <c r="G87" s="7" t="s">
         <v>301</v>
       </c>
       <c r="H87" s="3" t="n">
@@ -11930,7 +11887,7 @@
       <c r="M87" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N87" s="8" t="b">
+      <c r="N87" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -11972,7 +11929,7 @@
       <c r="F88" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G88" s="6" t="s">
+      <c r="G88" s="7" t="s">
         <v>304</v>
       </c>
       <c r="H88" s="3" t="n">
@@ -11989,7 +11946,7 @@
       <c r="M88" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N88" s="8" t="b">
+      <c r="N88" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12031,7 +11988,7 @@
       <c r="F89" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G89" s="6" t="s">
+      <c r="G89" s="7" t="s">
         <v>307</v>
       </c>
       <c r="H89" s="3" t="n">
@@ -12048,7 +12005,7 @@
       <c r="M89" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N89" s="8" t="b">
+      <c r="N89" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12090,7 +12047,7 @@
       <c r="F90" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G90" s="6" t="s">
+      <c r="G90" s="7" t="s">
         <v>310</v>
       </c>
       <c r="H90" s="3" t="n">
@@ -12107,7 +12064,7 @@
       <c r="M90" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N90" s="8" t="b">
+      <c r="N90" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12149,7 +12106,7 @@
       <c r="F91" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G91" s="7" t="s">
+      <c r="G91" s="8" t="s">
         <v>313</v>
       </c>
       <c r="H91" s="3" t="n">
@@ -12166,7 +12123,7 @@
       <c r="M91" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N91" s="8" t="b">
+      <c r="N91" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12208,7 +12165,7 @@
       <c r="F92" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G92" s="7" t="s">
+      <c r="G92" s="8" t="s">
         <v>316</v>
       </c>
       <c r="H92" s="3" t="n">
@@ -12225,7 +12182,7 @@
       <c r="M92" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N92" s="8" t="b">
+      <c r="N92" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12267,7 +12224,7 @@
       <c r="F93" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G93" s="7" t="s">
+      <c r="G93" s="8" t="s">
         <v>319</v>
       </c>
       <c r="H93" s="3" t="n">
@@ -12284,7 +12241,7 @@
       <c r="M93" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N93" s="8" t="b">
+      <c r="N93" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12326,7 +12283,7 @@
       <c r="F94" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G94" s="6" t="s">
+      <c r="G94" s="7" t="s">
         <v>322</v>
       </c>
       <c r="H94" s="3" t="n">
@@ -12343,7 +12300,7 @@
       <c r="M94" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N94" s="8" t="b">
+      <c r="N94" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12385,7 +12342,7 @@
       <c r="F95" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G95" s="6" t="s">
+      <c r="G95" s="7" t="s">
         <v>325</v>
       </c>
       <c r="H95" s="3" t="n">
@@ -12402,7 +12359,7 @@
       <c r="M95" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N95" s="8" t="b">
+      <c r="N95" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12444,7 +12401,7 @@
       <c r="F96" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G96" s="6" t="s">
+      <c r="G96" s="7" t="s">
         <v>328</v>
       </c>
       <c r="H96" s="3" t="n">
@@ -12461,7 +12418,7 @@
       <c r="M96" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N96" s="8" t="b">
+      <c r="N96" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12503,7 +12460,7 @@
       <c r="F97" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G97" s="6" t="s">
+      <c r="G97" s="7" t="s">
         <v>331</v>
       </c>
       <c r="H97" s="3" t="n">
@@ -12520,7 +12477,7 @@
       <c r="M97" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N97" s="8" t="b">
+      <c r="N97" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12562,7 +12519,7 @@
       <c r="F98" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G98" s="6" t="s">
+      <c r="G98" s="7" t="s">
         <v>334</v>
       </c>
       <c r="H98" s="3" t="n">
@@ -12579,7 +12536,7 @@
       <c r="M98" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N98" s="8" t="b">
+      <c r="N98" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12621,7 +12578,7 @@
       <c r="F99" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G99" s="6" t="s">
+      <c r="G99" s="7" t="s">
         <v>337</v>
       </c>
       <c r="H99" s="3" t="n">
@@ -12638,7 +12595,7 @@
       <c r="M99" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N99" s="8" t="b">
+      <c r="N99" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12680,7 +12637,7 @@
       <c r="F100" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G100" s="6" t="s">
+      <c r="G100" s="7" t="s">
         <v>340</v>
       </c>
       <c r="H100" s="3" t="n">
@@ -12697,7 +12654,7 @@
       <c r="M100" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N100" s="8" t="b">
+      <c r="N100" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12739,7 +12696,7 @@
       <c r="F101" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G101" s="6" t="s">
+      <c r="G101" s="7" t="s">
         <v>343</v>
       </c>
       <c r="H101" s="3" t="n">
@@ -12756,7 +12713,7 @@
       <c r="M101" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N101" s="8" t="b">
+      <c r="N101" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12798,7 +12755,7 @@
       <c r="F102" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G102" s="6" t="s">
+      <c r="G102" s="7" t="s">
         <v>346</v>
       </c>
       <c r="H102" s="3" t="n">
@@ -12815,7 +12772,7 @@
       <c r="M102" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N102" s="8" t="b">
+      <c r="N102" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12857,7 +12814,7 @@
       <c r="F103" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G103" s="6" t="s">
+      <c r="G103" s="7" t="s">
         <v>349</v>
       </c>
       <c r="H103" s="3" t="n">
@@ -12874,7 +12831,7 @@
       <c r="M103" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N103" s="8" t="b">
+      <c r="N103" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12916,7 +12873,7 @@
       <c r="F104" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G104" s="6" t="s">
+      <c r="G104" s="7" t="s">
         <v>352</v>
       </c>
       <c r="H104" s="3" t="n">
@@ -12933,7 +12890,7 @@
       <c r="M104" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N104" s="8" t="b">
+      <c r="N104" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -12975,7 +12932,7 @@
       <c r="F105" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G105" s="6" t="s">
+      <c r="G105" s="7" t="s">
         <v>355</v>
       </c>
       <c r="H105" s="3" t="n">
@@ -12992,7 +12949,7 @@
       <c r="M105" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N105" s="8" t="b">
+      <c r="N105" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13034,7 +12991,7 @@
       <c r="F106" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G106" s="7" t="s">
+      <c r="G106" s="8" t="s">
         <v>359</v>
       </c>
       <c r="H106" s="3" t="n">
@@ -13051,7 +13008,7 @@
       <c r="M106" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N106" s="8" t="b">
+      <c r="N106" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13093,7 +13050,7 @@
       <c r="F107" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G107" s="7" t="s">
+      <c r="G107" s="8" t="s">
         <v>362</v>
       </c>
       <c r="H107" s="3" t="n">
@@ -13110,7 +13067,7 @@
       <c r="M107" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N107" s="8" t="b">
+      <c r="N107" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13152,7 +13109,7 @@
       <c r="F108" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G108" s="7" t="s">
+      <c r="G108" s="8" t="s">
         <v>366</v>
       </c>
       <c r="H108" s="3" t="n">
@@ -13169,7 +13126,7 @@
       <c r="M108" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N108" s="8" t="b">
+      <c r="N108" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13211,7 +13168,7 @@
       <c r="F109" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G109" s="7" t="s">
+      <c r="G109" s="8" t="s">
         <v>369</v>
       </c>
       <c r="H109" s="3" t="n">
@@ -13228,7 +13185,7 @@
       <c r="M109" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N109" s="8" t="b">
+      <c r="N109" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13270,7 +13227,7 @@
       <c r="F110" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G110" s="6" t="s">
+      <c r="G110" s="7" t="s">
         <v>372</v>
       </c>
       <c r="H110" s="3" t="n">
@@ -13287,7 +13244,7 @@
       <c r="M110" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N110" s="8" t="b">
+      <c r="N110" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13329,7 +13286,7 @@
       <c r="F111" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G111" s="6" t="s">
+      <c r="G111" s="7" t="s">
         <v>375</v>
       </c>
       <c r="H111" s="3" t="n">
@@ -13346,7 +13303,7 @@
       <c r="M111" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N111" s="8" t="b">
+      <c r="N111" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13388,7 +13345,7 @@
       <c r="F112" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G112" s="6" t="s">
+      <c r="G112" s="7" t="s">
         <v>379</v>
       </c>
       <c r="H112" s="3" t="n">
@@ -13405,7 +13362,7 @@
       <c r="M112" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N112" s="8" t="b">
+      <c r="N112" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13447,7 +13404,7 @@
       <c r="F113" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G113" s="6" t="s">
+      <c r="G113" s="7" t="s">
         <v>382</v>
       </c>
       <c r="H113" s="3" t="n">
@@ -13464,7 +13421,7 @@
       <c r="M113" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N113" s="8" t="b">
+      <c r="N113" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13506,7 +13463,7 @@
       <c r="F114" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G114" s="6" t="s">
+      <c r="G114" s="7" t="s">
         <v>385</v>
       </c>
       <c r="H114" s="3" t="n">
@@ -13523,7 +13480,7 @@
       <c r="M114" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N114" s="8" t="b">
+      <c r="N114" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13565,7 +13522,7 @@
       <c r="F115" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G115" s="6" t="s">
+      <c r="G115" s="7" t="s">
         <v>388</v>
       </c>
       <c r="H115" s="3" t="n">
@@ -13582,7 +13539,7 @@
       <c r="M115" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N115" s="8" t="b">
+      <c r="N115" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13624,7 +13581,7 @@
       <c r="F116" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G116" s="6" t="s">
+      <c r="G116" s="7" t="s">
         <v>391</v>
       </c>
       <c r="H116" s="3" t="n">
@@ -13641,7 +13598,7 @@
       <c r="M116" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N116" s="8" t="b">
+      <c r="N116" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13683,7 +13640,7 @@
       <c r="F117" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G117" s="7" t="s">
+      <c r="G117" s="8" t="s">
         <v>394</v>
       </c>
       <c r="H117" s="3" t="n">
@@ -13700,7 +13657,7 @@
       <c r="M117" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N117" s="8" t="b">
+      <c r="N117" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13742,7 +13699,7 @@
       <c r="F118" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G118" s="7" t="s">
+      <c r="G118" s="8" t="s">
         <v>397</v>
       </c>
       <c r="H118" s="3" t="n">
@@ -13759,7 +13716,7 @@
       <c r="M118" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N118" s="8" t="b">
+      <c r="N118" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13801,7 +13758,7 @@
       <c r="F119" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G119" s="7" t="s">
+      <c r="G119" s="8" t="s">
         <v>400</v>
       </c>
       <c r="H119" s="3" t="n">
@@ -13818,7 +13775,7 @@
       <c r="M119" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N119" s="8" t="b">
+      <c r="N119" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13860,7 +13817,7 @@
       <c r="F120" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G120" s="6" t="s">
+      <c r="G120" s="7" t="s">
         <v>403</v>
       </c>
       <c r="H120" s="3" t="n">
@@ -13877,7 +13834,7 @@
       <c r="M120" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N120" s="8" t="b">
+      <c r="N120" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13919,7 +13876,7 @@
       <c r="F121" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G121" s="6" t="s">
+      <c r="G121" s="7" t="s">
         <v>406</v>
       </c>
       <c r="H121" s="3" t="n">
@@ -13936,7 +13893,7 @@
       <c r="M121" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N121" s="8" t="b">
+      <c r="N121" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -13978,7 +13935,7 @@
       <c r="F122" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G122" s="6" t="s">
+      <c r="G122" s="7" t="s">
         <v>409</v>
       </c>
       <c r="H122" s="3" t="n">
@@ -13995,7 +13952,7 @@
       <c r="M122" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N122" s="8" t="b">
+      <c r="N122" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14037,7 +13994,7 @@
       <c r="F123" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G123" s="6" t="s">
+      <c r="G123" s="7" t="s">
         <v>412</v>
       </c>
       <c r="H123" s="3" t="n">
@@ -14054,7 +14011,7 @@
       <c r="M123" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N123" s="8" t="b">
+      <c r="N123" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14096,7 +14053,7 @@
       <c r="F124" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G124" s="6" t="s">
+      <c r="G124" s="7" t="s">
         <v>415</v>
       </c>
       <c r="H124" s="3" t="n">
@@ -14113,7 +14070,7 @@
       <c r="M124" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N124" s="8" t="b">
+      <c r="N124" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14155,7 +14112,7 @@
       <c r="F125" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G125" s="6" t="s">
+      <c r="G125" s="7" t="s">
         <v>418</v>
       </c>
       <c r="H125" s="3" t="n">
@@ -14172,7 +14129,7 @@
       <c r="M125" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N125" s="8" t="b">
+      <c r="N125" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14214,7 +14171,7 @@
       <c r="F126" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G126" s="6" t="s">
+      <c r="G126" s="7" t="s">
         <v>421</v>
       </c>
       <c r="H126" s="3" t="n">
@@ -14231,7 +14188,7 @@
       <c r="M126" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N126" s="8" t="b">
+      <c r="N126" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14273,7 +14230,7 @@
       <c r="F127" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G127" s="6" t="s">
+      <c r="G127" s="7" t="s">
         <v>424</v>
       </c>
       <c r="H127" s="3" t="n">
@@ -14290,7 +14247,7 @@
       <c r="M127" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N127" s="8" t="b">
+      <c r="N127" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14332,7 +14289,7 @@
       <c r="F128" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G128" s="6" t="s">
+      <c r="G128" s="7" t="s">
         <v>427</v>
       </c>
       <c r="H128" s="3" t="n">
@@ -14349,7 +14306,7 @@
       <c r="M128" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N128" s="8" t="b">
+      <c r="N128" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14391,7 +14348,7 @@
       <c r="F129" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G129" s="6" t="s">
+      <c r="G129" s="7" t="s">
         <v>430</v>
       </c>
       <c r="H129" s="3" t="n">
@@ -14408,7 +14365,7 @@
       <c r="M129" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N129" s="8" t="b">
+      <c r="N129" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14450,7 +14407,7 @@
       <c r="F130" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G130" s="6" t="s">
+      <c r="G130" s="7" t="s">
         <v>433</v>
       </c>
       <c r="H130" s="3" t="n">
@@ -14467,7 +14424,7 @@
       <c r="M130" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N130" s="8" t="b">
+      <c r="N130" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14509,7 +14466,7 @@
       <c r="F131" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G131" s="6" t="s">
+      <c r="G131" s="7" t="s">
         <v>436</v>
       </c>
       <c r="H131" s="3" t="n">
@@ -14526,7 +14483,7 @@
       <c r="M131" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N131" s="8" t="b">
+      <c r="N131" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14568,7 +14525,7 @@
       <c r="F132" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G132" s="7" t="s">
+      <c r="G132" s="8" t="s">
         <v>439</v>
       </c>
       <c r="H132" s="3" t="n">
@@ -14585,7 +14542,7 @@
       <c r="M132" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N132" s="8" t="b">
+      <c r="N132" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14627,7 +14584,7 @@
       <c r="F133" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G133" s="7" t="s">
+      <c r="G133" s="8" t="s">
         <v>442</v>
       </c>
       <c r="H133" s="3" t="n">
@@ -14644,7 +14601,7 @@
       <c r="M133" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N133" s="8" t="b">
+      <c r="N133" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14686,7 +14643,7 @@
       <c r="F134" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G134" s="7" t="s">
+      <c r="G134" s="8" t="s">
         <v>445</v>
       </c>
       <c r="H134" s="3" t="n">
@@ -14703,7 +14660,7 @@
       <c r="M134" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N134" s="8" t="b">
+      <c r="N134" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14745,7 +14702,7 @@
       <c r="F135" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G135" s="6" t="s">
+      <c r="G135" s="7" t="s">
         <v>448</v>
       </c>
       <c r="H135" s="3" t="n">
@@ -14762,7 +14719,7 @@
       <c r="M135" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N135" s="8" t="b">
+      <c r="N135" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14804,7 +14761,7 @@
       <c r="F136" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G136" s="6" t="s">
+      <c r="G136" s="7" t="s">
         <v>451</v>
       </c>
       <c r="H136" s="3" t="n">
@@ -14821,7 +14778,7 @@
       <c r="M136" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N136" s="8" t="b">
+      <c r="N136" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14863,7 +14820,7 @@
       <c r="F137" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G137" s="6" t="s">
+      <c r="G137" s="7" t="s">
         <v>454</v>
       </c>
       <c r="H137" s="3" t="n">
@@ -14880,7 +14837,7 @@
       <c r="M137" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N137" s="8" t="b">
+      <c r="N137" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14922,7 +14879,7 @@
       <c r="F138" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G138" s="6" t="s">
+      <c r="G138" s="7" t="s">
         <v>457</v>
       </c>
       <c r="H138" s="3" t="n">
@@ -14939,7 +14896,7 @@
       <c r="M138" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N138" s="8" t="b">
+      <c r="N138" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -14981,7 +14938,7 @@
       <c r="F139" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G139" s="6" t="s">
+      <c r="G139" s="7" t="s">
         <v>460</v>
       </c>
       <c r="H139" s="3" t="n">
@@ -14998,7 +14955,7 @@
       <c r="M139" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N139" s="8" t="b">
+      <c r="N139" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15040,7 +14997,7 @@
       <c r="F140" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G140" s="6" t="s">
+      <c r="G140" s="7" t="s">
         <v>463</v>
       </c>
       <c r="H140" s="3" t="n">
@@ -15057,7 +15014,7 @@
       <c r="M140" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N140" s="8" t="b">
+      <c r="N140" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15099,7 +15056,7 @@
       <c r="F141" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G141" s="6" t="s">
+      <c r="G141" s="7" t="s">
         <v>466</v>
       </c>
       <c r="H141" s="3" t="n">
@@ -15116,7 +15073,7 @@
       <c r="M141" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N141" s="8" t="b">
+      <c r="N141" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15158,7 +15115,7 @@
       <c r="F142" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G142" s="6"/>
+      <c r="G142" s="7"/>
       <c r="H142" s="3"/>
       <c r="I142" s="3" t="s">
         <v>471</v>
@@ -15232,7 +15189,7 @@
         <v>22</v>
       </c>
       <c r="M143" s="3"/>
-      <c r="N143" s="8" t="b">
+      <c r="N143" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17442,7 +17399,7 @@
       <c r="F182" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G182" s="6" t="s">
+      <c r="G182" s="7" t="s">
         <v>605</v>
       </c>
       <c r="H182" s="3" t="n">
@@ -17499,7 +17456,7 @@
       <c r="F183" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G183" s="6" t="s">
+      <c r="G183" s="7" t="s">
         <v>608</v>
       </c>
       <c r="H183" s="3" t="n">
@@ -17556,7 +17513,7 @@
       <c r="F184" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G184" s="6" t="s">
+      <c r="G184" s="7" t="s">
         <v>612</v>
       </c>
       <c r="H184" s="3" t="n">
@@ -17613,7 +17570,7 @@
       <c r="F185" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G185" s="6" t="s">
+      <c r="G185" s="7" t="s">
         <v>615</v>
       </c>
       <c r="H185" s="3" t="n">
@@ -17670,7 +17627,7 @@
       <c r="F186" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G186" s="6" t="s">
+      <c r="G186" s="7" t="s">
         <v>618</v>
       </c>
       <c r="H186" s="3" t="n">
@@ -17727,7 +17684,7 @@
       <c r="F187" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G187" s="6" t="s">
+      <c r="G187" s="7" t="s">
         <v>621</v>
       </c>
       <c r="H187" s="3" t="n">
@@ -17784,7 +17741,7 @@
       <c r="F188" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G188" s="6" t="s">
+      <c r="G188" s="7" t="s">
         <v>624</v>
       </c>
       <c r="H188" s="3" t="n">
@@ -17898,7 +17855,7 @@
       <c r="F190" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G190" s="6" t="s">
+      <c r="G190" s="7" t="s">
         <v>631</v>
       </c>
       <c r="H190" s="3" t="n">
@@ -17955,7 +17912,7 @@
       <c r="F191" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G191" s="6" t="s">
+      <c r="G191" s="7" t="s">
         <v>634</v>
       </c>
       <c r="H191" s="3" t="n">
@@ -18012,7 +17969,7 @@
       <c r="F192" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G192" s="6" t="s">
+      <c r="G192" s="7" t="s">
         <v>637</v>
       </c>
       <c r="H192" s="3" t="n">
@@ -18069,7 +18026,7 @@
       <c r="F193" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G193" s="6" t="s">
+      <c r="G193" s="7" t="s">
         <v>640</v>
       </c>
       <c r="H193" s="3" t="n">
@@ -18126,7 +18083,7 @@
       <c r="F194" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G194" s="6" t="s">
+      <c r="G194" s="7" t="s">
         <v>644</v>
       </c>
       <c r="H194" s="3" t="n">
@@ -18183,7 +18140,7 @@
       <c r="F195" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G195" s="6" t="s">
+      <c r="G195" s="7" t="s">
         <v>647</v>
       </c>
       <c r="H195" s="3" t="n">
@@ -18240,7 +18197,7 @@
       <c r="F196" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G196" s="6" t="s">
+      <c r="G196" s="7" t="s">
         <v>650</v>
       </c>
       <c r="H196" s="3" t="n">
@@ -18297,7 +18254,7 @@
       <c r="F197" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G197" s="6" t="s">
+      <c r="G197" s="7" t="s">
         <v>653</v>
       </c>
       <c r="H197" s="3" t="n">
@@ -18468,7 +18425,7 @@
       <c r="F200" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G200" s="6" t="s">
+      <c r="G200" s="7" t="s">
         <v>663</v>
       </c>
       <c r="H200" s="3" t="n">
@@ -18525,7 +18482,7 @@
       <c r="F201" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G201" s="6" t="s">
+      <c r="G201" s="7" t="s">
         <v>667</v>
       </c>
       <c r="H201" s="3" t="s">
@@ -18582,7 +18539,7 @@
       <c r="F202" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G202" s="6" t="s">
+      <c r="G202" s="7" t="s">
         <v>671</v>
       </c>
       <c r="H202" s="3" t="n">
@@ -18639,7 +18596,7 @@
       <c r="F203" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G203" s="6" t="s">
+      <c r="G203" s="7" t="s">
         <v>674</v>
       </c>
       <c r="H203" s="3" t="n">
@@ -18696,7 +18653,7 @@
       <c r="F204" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G204" s="6" t="s">
+      <c r="G204" s="7" t="s">
         <v>677</v>
       </c>
       <c r="H204" s="3" t="n">
@@ -18753,7 +18710,7 @@
       <c r="F205" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G205" s="6" t="s">
+      <c r="G205" s="7" t="s">
         <v>681</v>
       </c>
       <c r="H205" s="3" t="n">
@@ -18867,7 +18824,7 @@
       <c r="F207" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G207" s="6" t="s">
+      <c r="G207" s="7" t="s">
         <v>688</v>
       </c>
       <c r="H207" s="3" t="n">
@@ -18924,7 +18881,7 @@
       <c r="F208" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G208" s="6" t="s">
+      <c r="G208" s="7" t="s">
         <v>691</v>
       </c>
       <c r="H208" s="3" t="n">
@@ -18981,7 +18938,7 @@
       <c r="F209" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G209" s="6" t="s">
+      <c r="G209" s="7" t="s">
         <v>694</v>
       </c>
       <c r="H209" s="3" t="n">
@@ -19038,7 +18995,7 @@
       <c r="F210" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G210" s="6" t="s">
+      <c r="G210" s="7" t="s">
         <v>697</v>
       </c>
       <c r="H210" s="3" t="n">
@@ -19154,7 +19111,7 @@
       <c r="F212" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G212" s="6" t="s">
+      <c r="G212" s="7" t="s">
         <v>706</v>
       </c>
       <c r="H212" s="3" t="n">
@@ -19211,7 +19168,7 @@
       <c r="F213" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G213" s="6" t="s">
+      <c r="G213" s="7" t="s">
         <v>709</v>
       </c>
       <c r="H213" s="3" t="n">
@@ -19268,7 +19225,7 @@
       <c r="F214" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G214" s="6" t="s">
+      <c r="G214" s="7" t="s">
         <v>712</v>
       </c>
       <c r="H214" s="3" t="n">
@@ -19325,7 +19282,7 @@
       <c r="F215" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G215" s="6" t="s">
+      <c r="G215" s="7" t="s">
         <v>715</v>
       </c>
       <c r="H215" s="3" t="n">
@@ -19382,7 +19339,7 @@
       <c r="F216" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G216" s="6" t="s">
+      <c r="G216" s="7" t="s">
         <v>718</v>
       </c>
       <c r="H216" s="3" t="n">
@@ -19439,7 +19396,7 @@
       <c r="F217" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G217" s="6" t="s">
+      <c r="G217" s="7" t="s">
         <v>721</v>
       </c>
       <c r="H217" s="3" t="n">
@@ -19496,7 +19453,7 @@
       <c r="F218" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G218" s="6" t="s">
+      <c r="G218" s="7" t="s">
         <v>724</v>
       </c>
       <c r="H218" s="3" t="n">
@@ -19553,7 +19510,7 @@
       <c r="F219" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G219" s="6" t="s">
+      <c r="G219" s="7" t="s">
         <v>727</v>
       </c>
       <c r="H219" s="3" t="n">
@@ -19610,7 +19567,7 @@
       <c r="F220" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G220" s="6" t="s">
+      <c r="G220" s="7" t="s">
         <v>730</v>
       </c>
       <c r="H220" s="3" t="n">
@@ -19667,7 +19624,7 @@
       <c r="F221" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G221" s="6" t="s">
+      <c r="G221" s="7" t="s">
         <v>733</v>
       </c>
       <c r="H221" s="3" t="n">
@@ -19724,7 +19681,7 @@
       <c r="F222" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G222" s="6" t="s">
+      <c r="G222" s="7" t="s">
         <v>736</v>
       </c>
       <c r="H222" s="3" t="n">
@@ -19781,7 +19738,7 @@
       <c r="F223" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G223" s="6" t="s">
+      <c r="G223" s="7" t="s">
         <v>739</v>
       </c>
       <c r="H223" s="3" t="n">
@@ -19838,7 +19795,7 @@
       <c r="F224" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G224" s="6" t="s">
+      <c r="G224" s="7" t="s">
         <v>742</v>
       </c>
       <c r="H224" s="3" t="n">
@@ -19895,7 +19852,7 @@
       <c r="F225" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G225" s="6" t="s">
+      <c r="G225" s="7" t="s">
         <v>745</v>
       </c>
       <c r="H225" s="3" t="n">
@@ -20009,7 +19966,7 @@
       <c r="F227" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G227" s="6" t="s">
+      <c r="G227" s="7" t="s">
         <v>752</v>
       </c>
       <c r="H227" s="3" t="n">
@@ -20066,7 +20023,7 @@
       <c r="F228" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G228" s="6" t="s">
+      <c r="G228" s="7" t="s">
         <v>755</v>
       </c>
       <c r="H228" s="3" t="n">
@@ -20123,7 +20080,7 @@
       <c r="F229" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G229" s="6" t="s">
+      <c r="G229" s="7" t="s">
         <v>758</v>
       </c>
       <c r="H229" s="3" t="n">
@@ -20180,7 +20137,7 @@
       <c r="F230" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G230" s="6" t="s">
+      <c r="G230" s="7" t="s">
         <v>762</v>
       </c>
       <c r="H230" s="3" t="n">
@@ -20237,7 +20194,7 @@
       <c r="F231" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G231" s="6"/>
+      <c r="G231" s="7"/>
       <c r="H231" s="3"/>
       <c r="I231" s="3" t="s">
         <v>766</v>
@@ -20294,7 +20251,7 @@
       <c r="F232" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G232" s="6" t="s">
+      <c r="G232" s="7" t="s">
         <v>770</v>
       </c>
       <c r="H232" s="3" t="n">
@@ -20351,7 +20308,7 @@
       <c r="F233" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G233" s="6" t="s">
+      <c r="G233" s="7" t="s">
         <v>773</v>
       </c>
       <c r="H233" s="3" t="n">
@@ -20408,7 +20365,7 @@
       <c r="F234" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G234" s="6" t="s">
+      <c r="G234" s="7" t="s">
         <v>777</v>
       </c>
       <c r="H234" s="3" t="n">
@@ -20465,7 +20422,7 @@
       <c r="F235" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G235" s="6" t="s">
+      <c r="G235" s="7" t="s">
         <v>781</v>
       </c>
       <c r="H235" s="3" t="n">
@@ -20522,7 +20479,7 @@
       <c r="F236" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G236" s="6" t="s">
+      <c r="G236" s="7" t="s">
         <v>784</v>
       </c>
       <c r="H236" s="3" t="n">
@@ -20579,7 +20536,7 @@
       <c r="F237" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G237" s="6" t="s">
+      <c r="G237" s="7" t="s">
         <v>787</v>
       </c>
       <c r="H237" s="3" t="n">
@@ -20636,7 +20593,7 @@
       <c r="F238" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G238" s="6" t="s">
+      <c r="G238" s="7" t="s">
         <v>790</v>
       </c>
       <c r="H238" s="3" t="n">
@@ -20693,7 +20650,7 @@
       <c r="F239" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G239" s="6" t="s">
+      <c r="G239" s="7" t="s">
         <v>793</v>
       </c>
       <c r="H239" s="3" t="n">
@@ -20750,7 +20707,7 @@
       <c r="F240" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G240" s="6" t="s">
+      <c r="G240" s="7" t="s">
         <v>796</v>
       </c>
       <c r="H240" s="3" t="n">
@@ -20807,7 +20764,7 @@
       <c r="F241" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G241" s="6" t="s">
+      <c r="G241" s="7" t="s">
         <v>799</v>
       </c>
       <c r="H241" s="3" t="n">
@@ -20864,7 +20821,7 @@
       <c r="F242" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G242" s="6" t="s">
+      <c r="G242" s="7" t="s">
         <v>802</v>
       </c>
       <c r="H242" s="3" t="n">
@@ -20921,7 +20878,7 @@
       <c r="F243" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G243" s="6" t="s">
+      <c r="G243" s="7" t="s">
         <v>805</v>
       </c>
       <c r="H243" s="3" t="n">
@@ -20978,7 +20935,7 @@
       <c r="F244" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G244" s="7" t="s">
+      <c r="G244" s="8" t="s">
         <v>808</v>
       </c>
       <c r="H244" s="3" t="n">
@@ -21035,7 +20992,7 @@
       <c r="F245" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G245" s="7" t="s">
+      <c r="G245" s="8" t="s">
         <v>811</v>
       </c>
       <c r="H245" s="3" t="n">
@@ -21092,7 +21049,7 @@
       <c r="F246" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G246" s="7" t="s">
+      <c r="G246" s="8" t="s">
         <v>814</v>
       </c>
       <c r="H246" s="3" t="n">
@@ -21149,7 +21106,7 @@
       <c r="F247" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G247" s="6" t="s">
+      <c r="G247" s="7" t="s">
         <v>817</v>
       </c>
       <c r="H247" s="3" t="n">
@@ -21206,7 +21163,7 @@
       <c r="F248" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G248" s="6" t="s">
+      <c r="G248" s="7" t="s">
         <v>820</v>
       </c>
       <c r="H248" s="3" t="n">
@@ -21263,7 +21220,7 @@
       <c r="F249" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G249" s="6" t="s">
+      <c r="G249" s="7" t="s">
         <v>823</v>
       </c>
       <c r="H249" s="3" t="n">
@@ -21320,7 +21277,7 @@
       <c r="F250" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G250" s="6" t="s">
+      <c r="G250" s="7" t="s">
         <v>826</v>
       </c>
       <c r="H250" s="3" t="n">
@@ -21377,7 +21334,7 @@
       <c r="F251" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G251" s="6" t="s">
+      <c r="G251" s="7" t="s">
         <v>829</v>
       </c>
       <c r="H251" s="3" t="n">
@@ -21434,7 +21391,7 @@
       <c r="F252" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G252" s="6" t="s">
+      <c r="G252" s="7" t="s">
         <v>832</v>
       </c>
       <c r="H252" s="3" t="n">
@@ -21491,7 +21448,7 @@
       <c r="F253" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G253" s="6" t="s">
+      <c r="G253" s="7" t="s">
         <v>835</v>
       </c>
       <c r="H253" s="3" t="n">
@@ -21548,7 +21505,7 @@
       <c r="F254" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G254" s="6" t="s">
+      <c r="G254" s="7" t="s">
         <v>839</v>
       </c>
       <c r="H254" s="3" t="n">
@@ -21605,7 +21562,7 @@
       <c r="F255" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G255" s="6" t="s">
+      <c r="G255" s="7" t="s">
         <v>842</v>
       </c>
       <c r="H255" s="3" t="n">
@@ -21662,7 +21619,7 @@
       <c r="F256" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G256" s="6" t="s">
+      <c r="G256" s="7" t="s">
         <v>845</v>
       </c>
       <c r="H256" s="3" t="n">
@@ -21719,7 +21676,7 @@
       <c r="F257" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G257" s="6" t="s">
+      <c r="G257" s="7" t="s">
         <v>848</v>
       </c>
       <c r="H257" s="3" t="n">
@@ -21776,7 +21733,7 @@
       <c r="F258" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G258" s="6" t="s">
+      <c r="G258" s="7" t="s">
         <v>851</v>
       </c>
       <c r="H258" s="3" t="n">
@@ -21833,7 +21790,7 @@
       <c r="F259" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G259" s="7" t="s">
+      <c r="G259" s="8" t="s">
         <v>854</v>
       </c>
       <c r="H259" s="3" t="n">
@@ -21890,7 +21847,7 @@
       <c r="F260" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G260" s="7" t="s">
+      <c r="G260" s="8" t="s">
         <v>857</v>
       </c>
       <c r="H260" s="3" t="n">
@@ -21947,7 +21904,7 @@
       <c r="F261" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G261" s="7" t="s">
+      <c r="G261" s="8" t="s">
         <v>860</v>
       </c>
       <c r="H261" s="3" t="n">
@@ -22063,7 +22020,7 @@
       <c r="F263" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G263" s="6" t="s">
+      <c r="G263" s="7" t="s">
         <v>869</v>
       </c>
       <c r="H263" s="3" t="n">
@@ -22120,7 +22077,7 @@
       <c r="F264" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G264" s="6" t="s">
+      <c r="G264" s="7" t="s">
         <v>872</v>
       </c>
       <c r="H264" s="3" t="n">
@@ -22177,7 +22134,7 @@
       <c r="F265" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G265" s="6" t="s">
+      <c r="G265" s="7" t="s">
         <v>869</v>
       </c>
       <c r="H265" s="3" t="n">
@@ -22234,7 +22191,7 @@
       <c r="F266" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G266" s="6" t="s">
+      <c r="G266" s="7" t="s">
         <v>877</v>
       </c>
       <c r="H266" s="3" t="n">
@@ -22291,7 +22248,7 @@
       <c r="F267" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G267" s="6" t="s">
+      <c r="G267" s="7" t="s">
         <v>880</v>
       </c>
       <c r="H267" s="3" t="n">
@@ -22348,7 +22305,7 @@
       <c r="F268" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G268" s="6"/>
+      <c r="G268" s="7"/>
       <c r="H268" s="3"/>
       <c r="I268" s="3" t="s">
         <v>884</v>
@@ -22405,7 +22362,7 @@
       <c r="F269" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G269" s="6" t="s">
+      <c r="G269" s="7" t="s">
         <v>889</v>
       </c>
       <c r="H269" s="3" t="n">
@@ -22462,7 +22419,7 @@
       <c r="F270" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G270" s="6" t="s">
+      <c r="G270" s="7" t="s">
         <v>892</v>
       </c>
       <c r="H270" s="3" t="n">
@@ -22519,7 +22476,7 @@
       <c r="F271" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G271" s="6" t="s">
+      <c r="G271" s="7" t="s">
         <v>895</v>
       </c>
       <c r="H271" s="3" t="n">
@@ -22576,7 +22533,7 @@
       <c r="F272" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G272" s="6" t="s">
+      <c r="G272" s="7" t="s">
         <v>898</v>
       </c>
       <c r="H272" s="3" t="n">
@@ -22633,7 +22590,7 @@
       <c r="F273" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G273" s="6" t="s">
+      <c r="G273" s="7" t="s">
         <v>901</v>
       </c>
       <c r="H273" s="3" t="n">
@@ -22690,7 +22647,7 @@
       <c r="F274" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G274" s="7" t="s">
+      <c r="G274" s="8" t="s">
         <v>904</v>
       </c>
       <c r="H274" s="3" t="n">
@@ -22747,7 +22704,7 @@
       <c r="F275" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G275" s="7" t="s">
+      <c r="G275" s="8" t="s">
         <v>907</v>
       </c>
       <c r="H275" s="3" t="n">
@@ -22804,7 +22761,7 @@
       <c r="F276" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G276" s="7" t="s">
+      <c r="G276" s="8" t="s">
         <v>910</v>
       </c>
       <c r="H276" s="3" t="n">
@@ -22861,7 +22818,7 @@
       <c r="F277" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G277" s="6" t="s">
+      <c r="G277" s="7" t="s">
         <v>913</v>
       </c>
       <c r="H277" s="3" t="n">
@@ -22918,7 +22875,7 @@
       <c r="F278" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G278" s="6" t="s">
+      <c r="G278" s="7" t="s">
         <v>916</v>
       </c>
       <c r="H278" s="3" t="n">
@@ -22975,7 +22932,7 @@
       <c r="F279" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G279" s="6" t="s">
+      <c r="G279" s="7" t="s">
         <v>919</v>
       </c>
       <c r="H279" s="3" t="n">
@@ -23032,7 +22989,7 @@
       <c r="F280" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G280" s="6" t="s">
+      <c r="G280" s="7" t="s">
         <v>922</v>
       </c>
       <c r="H280" s="3" t="n">
@@ -23089,7 +23046,7 @@
       <c r="F281" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G281" s="6" t="s">
+      <c r="G281" s="7" t="s">
         <v>926</v>
       </c>
       <c r="H281" s="3" t="n">
@@ -23146,7 +23103,7 @@
       <c r="F282" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G282" s="6" t="s">
+      <c r="G282" s="7" t="s">
         <v>929</v>
       </c>
       <c r="H282" s="3" t="n">
@@ -23203,7 +23160,7 @@
       <c r="F283" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G283" s="6" t="s">
+      <c r="G283" s="7" t="s">
         <v>932</v>
       </c>
       <c r="H283" s="3" t="n">
@@ -23260,7 +23217,7 @@
       <c r="F284" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G284" s="6" t="s">
+      <c r="G284" s="7" t="s">
         <v>935</v>
       </c>
       <c r="H284" s="3" t="n">
@@ -23317,7 +23274,7 @@
       <c r="F285" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G285" s="6" t="s">
+      <c r="G285" s="7" t="s">
         <v>938</v>
       </c>
       <c r="H285" s="3" t="n">
@@ -23374,7 +23331,7 @@
       <c r="F286" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G286" s="7" t="s">
+      <c r="G286" s="8" t="s">
         <v>941</v>
       </c>
       <c r="H286" s="3" t="n">
@@ -23431,7 +23388,7 @@
       <c r="F287" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G287" s="6"/>
+      <c r="G287" s="7"/>
       <c r="H287" s="3"/>
       <c r="I287" s="3" t="s">
         <v>945</v>
@@ -23490,7 +23447,7 @@
       <c r="F288" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G288" s="7" t="s">
+      <c r="G288" s="8" t="s">
         <v>950</v>
       </c>
       <c r="H288" s="3" t="n">
@@ -23504,9 +23461,7 @@
       <c r="L288" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M288" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M288" s="3"/>
       <c r="N288" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23549,7 +23504,7 @@
       <c r="F289" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G289" s="6" t="s">
+      <c r="G289" s="7" t="s">
         <v>953</v>
       </c>
       <c r="H289" s="3" t="n">
@@ -23563,9 +23518,7 @@
       <c r="L289" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M289" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M289" s="3"/>
       <c r="N289" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23608,7 +23561,7 @@
       <c r="F290" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G290" s="6" t="s">
+      <c r="G290" s="7" t="s">
         <v>956</v>
       </c>
       <c r="H290" s="3" t="n">
@@ -23622,9 +23575,7 @@
       <c r="L290" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M290" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M290" s="3"/>
       <c r="N290" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23681,9 +23632,7 @@
       <c r="L291" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M291" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M291" s="3"/>
       <c r="N291" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23726,7 +23675,7 @@
       <c r="F292" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G292" s="6" t="s">
+      <c r="G292" s="7" t="s">
         <v>962</v>
       </c>
       <c r="H292" s="3" t="n">
@@ -23740,9 +23689,7 @@
       <c r="L292" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M292" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M292" s="3"/>
       <c r="N292" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23785,7 +23732,7 @@
       <c r="F293" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G293" s="6" t="s">
+      <c r="G293" s="7" t="s">
         <v>965</v>
       </c>
       <c r="H293" s="3" t="n">
@@ -23799,10 +23746,8 @@
       <c r="L293" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M293" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="N293" s="8" t="b">
+      <c r="M293" s="3"/>
+      <c r="N293" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23844,7 +23789,7 @@
       <c r="F294" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G294" s="6" t="s">
+      <c r="G294" s="7" t="s">
         <v>968</v>
       </c>
       <c r="H294" s="3" t="n">
@@ -23858,9 +23803,7 @@
       <c r="L294" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M294" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M294" s="3"/>
       <c r="N294" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23903,7 +23846,7 @@
       <c r="F295" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G295" s="6" t="s">
+      <c r="G295" s="7" t="s">
         <v>971</v>
       </c>
       <c r="H295" s="3" t="n">
@@ -23917,9 +23860,7 @@
       <c r="L295" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M295" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M295" s="3"/>
       <c r="N295" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23962,7 +23903,7 @@
       <c r="F296" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G296" s="6" t="s">
+      <c r="G296" s="7" t="s">
         <v>974</v>
       </c>
       <c r="H296" s="3" t="n">
@@ -23976,9 +23917,7 @@
       <c r="L296" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M296" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M296" s="3"/>
       <c r="N296" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24021,7 +23960,7 @@
       <c r="F297" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G297" s="6" t="s">
+      <c r="G297" s="7" t="s">
         <v>977</v>
       </c>
       <c r="H297" s="3" t="n">
@@ -24035,9 +23974,7 @@
       <c r="L297" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M297" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M297" s="3"/>
       <c r="N297" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24080,7 +24017,7 @@
       <c r="F298" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G298" s="6" t="s">
+      <c r="G298" s="7" t="s">
         <v>980</v>
       </c>
       <c r="H298" s="3" t="n">
@@ -24094,9 +24031,7 @@
       <c r="L298" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M298" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M298" s="3"/>
       <c r="N298" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24139,7 +24074,7 @@
       <c r="F299" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G299" s="6" t="s">
+      <c r="G299" s="7" t="s">
         <v>983</v>
       </c>
       <c r="H299" s="3" t="n">
@@ -24153,9 +24088,7 @@
       <c r="L299" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M299" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M299" s="3"/>
       <c r="N299" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24198,7 +24131,7 @@
       <c r="F300" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G300" s="6" t="s">
+      <c r="G300" s="7" t="s">
         <v>986</v>
       </c>
       <c r="H300" s="3" t="n">
@@ -24212,9 +24145,7 @@
       <c r="L300" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M300" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M300" s="3"/>
       <c r="N300" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24257,7 +24188,7 @@
       <c r="F301" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G301" s="6"/>
+      <c r="G301" s="7"/>
       <c r="H301" s="3"/>
       <c r="I301" s="3" t="s">
         <v>990</v>
@@ -24314,7 +24245,7 @@
       <c r="F302" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G302" s="6"/>
+      <c r="G302" s="7"/>
       <c r="H302" s="3"/>
       <c r="I302" s="3" t="s">
         <v>994</v>
@@ -24371,7 +24302,7 @@
       <c r="F303" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G303" s="7" t="s">
+      <c r="G303" s="8" t="s">
         <v>999</v>
       </c>
       <c r="H303" s="3" t="n">
@@ -24483,7 +24414,7 @@
       <c r="F305" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G305" s="6"/>
+      <c r="G305" s="7"/>
       <c r="H305" s="3"/>
       <c r="I305" s="3" t="s">
         <v>1007</v>
@@ -24540,7 +24471,7 @@
       <c r="F306" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G306" s="6" t="s">
+      <c r="G306" s="7" t="s">
         <v>1011</v>
       </c>
       <c r="H306" s="3" t="n">
@@ -24597,7 +24528,7 @@
       <c r="F307" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G307" s="6"/>
+      <c r="G307" s="7"/>
       <c r="H307" s="3"/>
       <c r="I307" s="3" t="s">
         <v>1015</v>
@@ -24656,7 +24587,7 @@
       <c r="F308" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G308" s="7" t="s">
+      <c r="G308" s="8" t="s">
         <v>1020</v>
       </c>
       <c r="H308" s="3" t="n">
@@ -24712,7 +24643,7 @@
       <c r="F309" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G309" s="6"/>
+      <c r="G309" s="7"/>
       <c r="H309" s="3"/>
       <c r="I309" s="3" t="s">
         <v>1024</v>
@@ -24727,7 +24658,7 @@
         <v>22</v>
       </c>
       <c r="M309" s="3"/>
-      <c r="N309" s="8" t="b">
+      <c r="N309" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24769,7 +24700,7 @@
       <c r="F310" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G310" s="6" t="s">
+      <c r="G310" s="7" t="s">
         <v>1028</v>
       </c>
       <c r="H310" s="3" t="n">
@@ -24784,7 +24715,7 @@
         <v>22</v>
       </c>
       <c r="M310" s="3"/>
-      <c r="N310" s="8" t="b">
+      <c r="N310" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24826,7 +24757,7 @@
       <c r="F311" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G311" s="6"/>
+      <c r="G311" s="7"/>
       <c r="H311" s="3"/>
       <c r="I311" s="3" t="s">
         <v>1031</v>
@@ -24841,7 +24772,7 @@
         <v>22</v>
       </c>
       <c r="M311" s="3"/>
-      <c r="N311" s="8" t="b">
+      <c r="N311" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24883,7 +24814,7 @@
       <c r="F312" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G312" s="6"/>
+      <c r="G312" s="7"/>
       <c r="H312" s="3"/>
       <c r="I312" s="3" t="s">
         <v>1036</v>
@@ -24898,7 +24829,7 @@
         <v>22</v>
       </c>
       <c r="M312" s="3"/>
-      <c r="N312" s="8" t="b">
+      <c r="N312" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24940,7 +24871,7 @@
       <c r="F313" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G313" s="6"/>
+      <c r="G313" s="7"/>
       <c r="H313" s="3"/>
       <c r="I313" s="3" t="s">
         <v>1040</v>
@@ -24955,7 +24886,7 @@
         <v>565</v>
       </c>
       <c r="M313" s="3"/>
-      <c r="N313" s="8" t="b">
+      <c r="N313" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24997,7 +24928,7 @@
       <c r="F314" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G314" s="6" t="s">
+      <c r="G314" s="7" t="s">
         <v>1045</v>
       </c>
       <c r="H314" s="3" t="n">
@@ -25012,7 +24943,7 @@
         <v>22</v>
       </c>
       <c r="M314" s="3"/>
-      <c r="N314" s="8" t="b">
+      <c r="N314" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25054,7 +24985,7 @@
       <c r="F315" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G315" s="6" t="s">
+      <c r="G315" s="7" t="s">
         <v>1048</v>
       </c>
       <c r="H315" s="3" t="n">
@@ -25069,7 +25000,7 @@
         <v>22</v>
       </c>
       <c r="M315" s="3"/>
-      <c r="N315" s="8" t="b">
+      <c r="N315" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25111,7 +25042,7 @@
       <c r="F316" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G316" s="6" t="s">
+      <c r="G316" s="7" t="s">
         <v>1051</v>
       </c>
       <c r="H316" s="3" t="n">
@@ -25126,7 +25057,7 @@
         <v>22</v>
       </c>
       <c r="M316" s="3"/>
-      <c r="N316" s="8" t="b">
+      <c r="N316" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25168,7 +25099,7 @@
       <c r="F317" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G317" s="7" t="s">
+      <c r="G317" s="8" t="s">
         <v>1054</v>
       </c>
       <c r="H317" s="3" t="n">
@@ -25183,7 +25114,7 @@
         <v>22</v>
       </c>
       <c r="M317" s="3"/>
-      <c r="N317" s="8" t="b">
+      <c r="N317" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25225,7 +25156,7 @@
       <c r="F318" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G318" s="7" t="s">
+      <c r="G318" s="8" t="s">
         <v>1057</v>
       </c>
       <c r="H318" s="3" t="n">
@@ -25240,7 +25171,7 @@
         <v>22</v>
       </c>
       <c r="M318" s="3"/>
-      <c r="N318" s="8" t="b">
+      <c r="N318" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25282,7 +25213,7 @@
       <c r="F319" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G319" s="7" t="s">
+      <c r="G319" s="8" t="s">
         <v>1060</v>
       </c>
       <c r="H319" s="3" t="n">
@@ -25297,7 +25228,7 @@
         <v>22</v>
       </c>
       <c r="M319" s="3"/>
-      <c r="N319" s="8" t="b">
+      <c r="N319" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25339,7 +25270,7 @@
       <c r="F320" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G320" s="6" t="s">
+      <c r="G320" s="7" t="s">
         <v>1063</v>
       </c>
       <c r="H320" s="3" t="n">
@@ -25354,7 +25285,7 @@
         <v>22</v>
       </c>
       <c r="M320" s="3"/>
-      <c r="N320" s="8" t="b">
+      <c r="N320" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25396,7 +25327,7 @@
       <c r="F321" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G321" s="6" t="s">
+      <c r="G321" s="7" t="s">
         <v>1066</v>
       </c>
       <c r="H321" s="3" t="n">
@@ -25411,7 +25342,7 @@
         <v>22</v>
       </c>
       <c r="M321" s="3"/>
-      <c r="N321" s="8" t="b">
+      <c r="N321" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25453,7 +25384,7 @@
       <c r="F322" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G322" s="6" t="s">
+      <c r="G322" s="7" t="s">
         <v>1069</v>
       </c>
       <c r="H322" s="3" t="n">
@@ -25468,7 +25399,7 @@
         <v>22</v>
       </c>
       <c r="M322" s="3"/>
-      <c r="N322" s="8" t="b">
+      <c r="N322" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25510,7 +25441,7 @@
       <c r="F323" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G323" s="6" t="s">
+      <c r="G323" s="7" t="s">
         <v>1072</v>
       </c>
       <c r="H323" s="3" t="n">
@@ -25525,7 +25456,7 @@
         <v>22</v>
       </c>
       <c r="M323" s="3"/>
-      <c r="N323" s="8" t="b">
+      <c r="N323" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25567,7 +25498,7 @@
       <c r="F324" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G324" s="6" t="s">
+      <c r="G324" s="7" t="s">
         <v>1075</v>
       </c>
       <c r="H324" s="3" t="n">
@@ -25582,7 +25513,7 @@
         <v>22</v>
       </c>
       <c r="M324" s="3"/>
-      <c r="N324" s="8" t="b">
+      <c r="N324" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25624,7 +25555,7 @@
       <c r="F325" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G325" s="6"/>
+      <c r="G325" s="7"/>
       <c r="H325" s="3"/>
       <c r="I325" s="3" t="s">
         <v>1079</v>
@@ -25639,7 +25570,7 @@
         <v>292</v>
       </c>
       <c r="M325" s="3"/>
-      <c r="N325" s="8" t="b">
+      <c r="N325" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25681,7 +25612,7 @@
       <c r="F326" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G326" s="6" t="s">
+      <c r="G326" s="7" t="s">
         <v>1083</v>
       </c>
       <c r="H326" s="3" t="n">
@@ -25738,7 +25669,7 @@
       <c r="F327" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G327" s="6" t="s">
+      <c r="G327" s="7" t="s">
         <v>1087</v>
       </c>
       <c r="H327" s="3" t="n">
@@ -25795,7 +25726,7 @@
       <c r="F328" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G328" s="6"/>
+      <c r="G328" s="7"/>
       <c r="H328" s="3"/>
       <c r="I328" s="3" t="s">
         <v>1090</v>
@@ -25852,7 +25783,7 @@
       <c r="F329" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G329" s="6" t="s">
+      <c r="G329" s="7" t="s">
         <v>1095</v>
       </c>
       <c r="H329" s="3" t="n">
@@ -25867,7 +25798,7 @@
         <v>22</v>
       </c>
       <c r="M329" s="3"/>
-      <c r="N329" s="8" t="b">
+      <c r="N329" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25909,7 +25840,7 @@
       <c r="F330" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G330" s="6" t="s">
+      <c r="G330" s="7" t="s">
         <v>1099</v>
       </c>
       <c r="H330" s="3" t="n">
@@ -25924,7 +25855,7 @@
         <v>565</v>
       </c>
       <c r="M330" s="3"/>
-      <c r="N330" s="8" t="b">
+      <c r="N330" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25966,7 +25897,7 @@
       <c r="F331" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G331" s="6" t="s">
+      <c r="G331" s="7" t="s">
         <v>1102</v>
       </c>
       <c r="H331" s="3" t="n">
@@ -25981,7 +25912,7 @@
         <v>565</v>
       </c>
       <c r="M331" s="3"/>
-      <c r="N331" s="8" t="b">
+      <c r="N331" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26023,7 +25954,7 @@
       <c r="F332" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G332" s="7" t="s">
+      <c r="G332" s="8" t="s">
         <v>1105</v>
       </c>
       <c r="H332" s="3" t="n">
@@ -26038,7 +25969,7 @@
         <v>565</v>
       </c>
       <c r="M332" s="3"/>
-      <c r="N332" s="8" t="b">
+      <c r="N332" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26080,7 +26011,7 @@
       <c r="F333" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G333" s="7" t="s">
+      <c r="G333" s="8" t="s">
         <v>1108</v>
       </c>
       <c r="H333" s="3" t="n">
@@ -26095,7 +26026,7 @@
         <v>565</v>
       </c>
       <c r="M333" s="3"/>
-      <c r="N333" s="8" t="b">
+      <c r="N333" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26137,7 +26068,7 @@
       <c r="F334" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G334" s="7" t="s">
+      <c r="G334" s="8" t="s">
         <v>1111</v>
       </c>
       <c r="H334" s="3" t="n">
@@ -26152,7 +26083,7 @@
         <v>565</v>
       </c>
       <c r="M334" s="3"/>
-      <c r="N334" s="8" t="b">
+      <c r="N334" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26194,7 +26125,7 @@
       <c r="F335" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G335" s="6" t="s">
+      <c r="G335" s="7" t="s">
         <v>1114</v>
       </c>
       <c r="H335" s="3" t="n">
@@ -26209,7 +26140,7 @@
         <v>565</v>
       </c>
       <c r="M335" s="3"/>
-      <c r="N335" s="8" t="b">
+      <c r="N335" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26251,7 +26182,7 @@
       <c r="F336" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G336" s="6" t="s">
+      <c r="G336" s="7" t="s">
         <v>1117</v>
       </c>
       <c r="H336" s="3" t="n">
@@ -26266,7 +26197,7 @@
         <v>565</v>
       </c>
       <c r="M336" s="3"/>
-      <c r="N336" s="8" t="b">
+      <c r="N336" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26308,7 +26239,7 @@
       <c r="F337" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G337" s="6" t="s">
+      <c r="G337" s="7" t="s">
         <v>1120</v>
       </c>
       <c r="H337" s="3" t="n">
@@ -26323,7 +26254,7 @@
         <v>565</v>
       </c>
       <c r="M337" s="3"/>
-      <c r="N337" s="8" t="b">
+      <c r="N337" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26365,7 +26296,7 @@
       <c r="F338" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G338" s="6" t="s">
+      <c r="G338" s="7" t="s">
         <v>1123</v>
       </c>
       <c r="H338" s="3" t="n">
@@ -26380,7 +26311,7 @@
         <v>565</v>
       </c>
       <c r="M338" s="3"/>
-      <c r="N338" s="8" t="b">
+      <c r="N338" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26422,7 +26353,7 @@
       <c r="F339" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G339" s="6" t="s">
+      <c r="G339" s="7" t="s">
         <v>1126</v>
       </c>
       <c r="H339" s="3" t="n">
@@ -26437,7 +26368,7 @@
         <v>565</v>
       </c>
       <c r="M339" s="3"/>
-      <c r="N339" s="8" t="b">
+      <c r="N339" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26479,7 +26410,7 @@
       <c r="F340" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G340" s="6" t="s">
+      <c r="G340" s="7" t="s">
         <v>1129</v>
       </c>
       <c r="H340" s="3" t="n">
@@ -26494,7 +26425,7 @@
         <v>565</v>
       </c>
       <c r="M340" s="3"/>
-      <c r="N340" s="8" t="b">
+      <c r="N340" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26536,7 +26467,7 @@
       <c r="F341" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G341" s="6" t="s">
+      <c r="G341" s="7" t="s">
         <v>1132</v>
       </c>
       <c r="H341" s="3" t="n">
@@ -26551,7 +26482,7 @@
         <v>565</v>
       </c>
       <c r="M341" s="3"/>
-      <c r="N341" s="8" t="b">
+      <c r="N341" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26593,7 +26524,7 @@
       <c r="F342" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G342" s="6"/>
+      <c r="G342" s="7"/>
       <c r="H342" s="3"/>
       <c r="I342" s="3" t="s">
         <v>1136</v>
@@ -26608,7 +26539,7 @@
         <v>22</v>
       </c>
       <c r="M342" s="3"/>
-      <c r="N342" s="8" t="b">
+      <c r="N342" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26652,7 +26583,7 @@
       <c r="F343" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G343" s="6" t="s">
+      <c r="G343" s="7" t="s">
         <v>1141</v>
       </c>
       <c r="H343" s="3" t="n">
@@ -26667,7 +26598,7 @@
         <v>22</v>
       </c>
       <c r="M343" s="3"/>
-      <c r="N343" s="8" t="b">
+      <c r="N343" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26709,7 +26640,7 @@
       <c r="F344" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G344" s="6" t="s">
+      <c r="G344" s="7" t="s">
         <v>1144</v>
       </c>
       <c r="H344" s="3" t="n">
@@ -26724,7 +26655,7 @@
         <v>22</v>
       </c>
       <c r="M344" s="3"/>
-      <c r="N344" s="8" t="b">
+      <c r="N344" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26766,7 +26697,7 @@
       <c r="F345" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G345" s="6" t="s">
+      <c r="G345" s="7" t="s">
         <v>1147</v>
       </c>
       <c r="H345" s="3" t="n">
@@ -26781,7 +26712,7 @@
         <v>22</v>
       </c>
       <c r="M345" s="3"/>
-      <c r="N345" s="8" t="b">
+      <c r="N345" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26823,7 +26754,7 @@
       <c r="F346" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G346" s="6" t="s">
+      <c r="G346" s="7" t="s">
         <v>1150</v>
       </c>
       <c r="H346" s="3" t="n">
@@ -26838,7 +26769,7 @@
         <v>22</v>
       </c>
       <c r="M346" s="3"/>
-      <c r="N346" s="8" t="b">
+      <c r="N346" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26880,7 +26811,7 @@
       <c r="F347" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G347" s="7" t="s">
+      <c r="G347" s="8" t="s">
         <v>1153</v>
       </c>
       <c r="H347" s="3" t="n">
@@ -26895,7 +26826,7 @@
         <v>22</v>
       </c>
       <c r="M347" s="3"/>
-      <c r="N347" s="8" t="b">
+      <c r="N347" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26937,7 +26868,7 @@
       <c r="F348" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G348" s="7" t="s">
+      <c r="G348" s="8" t="s">
         <v>1156</v>
       </c>
       <c r="H348" s="3" t="n">
@@ -26952,7 +26883,7 @@
         <v>22</v>
       </c>
       <c r="M348" s="3"/>
-      <c r="N348" s="8" t="b">
+      <c r="N348" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -26994,7 +26925,7 @@
       <c r="F349" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G349" s="6" t="s">
+      <c r="G349" s="7" t="s">
         <v>1159</v>
       </c>
       <c r="H349" s="3" t="n">
@@ -27009,7 +26940,7 @@
         <v>22</v>
       </c>
       <c r="M349" s="3"/>
-      <c r="N349" s="8" t="b">
+      <c r="N349" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27051,7 +26982,7 @@
       <c r="F350" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G350" s="6" t="s">
+      <c r="G350" s="7" t="s">
         <v>1162</v>
       </c>
       <c r="H350" s="3" t="n">
@@ -27066,7 +26997,7 @@
         <v>22</v>
       </c>
       <c r="M350" s="3"/>
-      <c r="N350" s="8" t="b">
+      <c r="N350" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27108,7 +27039,7 @@
       <c r="F351" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G351" s="6" t="s">
+      <c r="G351" s="7" t="s">
         <v>1165</v>
       </c>
       <c r="H351" s="3" t="n">
@@ -27123,7 +27054,7 @@
         <v>22</v>
       </c>
       <c r="M351" s="3"/>
-      <c r="N351" s="8" t="b">
+      <c r="N351" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27165,7 +27096,7 @@
       <c r="F352" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G352" s="6" t="s">
+      <c r="G352" s="7" t="s">
         <v>1168</v>
       </c>
       <c r="H352" s="3" t="n">
@@ -27180,7 +27111,7 @@
         <v>22</v>
       </c>
       <c r="M352" s="3"/>
-      <c r="N352" s="8" t="b">
+      <c r="N352" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27222,7 +27153,7 @@
       <c r="F353" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G353" s="6" t="s">
+      <c r="G353" s="7" t="s">
         <v>1171</v>
       </c>
       <c r="H353" s="3" t="n">
@@ -27237,7 +27168,7 @@
         <v>22</v>
       </c>
       <c r="M353" s="3"/>
-      <c r="N353" s="8" t="b">
+      <c r="N353" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27279,7 +27210,7 @@
       <c r="F354" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G354" s="6" t="s">
+      <c r="G354" s="7" t="s">
         <v>1174</v>
       </c>
       <c r="H354" s="3" t="n">
@@ -27294,7 +27225,7 @@
         <v>22</v>
       </c>
       <c r="M354" s="3"/>
-      <c r="N354" s="8" t="b">
+      <c r="N354" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27336,7 +27267,7 @@
       <c r="F355" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G355" s="6" t="s">
+      <c r="G355" s="7" t="s">
         <v>1177</v>
       </c>
       <c r="H355" s="3" t="n">
@@ -27351,7 +27282,7 @@
         <v>22</v>
       </c>
       <c r="M355" s="3"/>
-      <c r="N355" s="8" t="b">
+      <c r="N355" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27393,7 +27324,7 @@
       <c r="F356" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G356" s="6" t="s">
+      <c r="G356" s="7" t="s">
         <v>1180</v>
       </c>
       <c r="H356" s="3" t="n">
@@ -27408,7 +27339,7 @@
         <v>22</v>
       </c>
       <c r="M356" s="3"/>
-      <c r="N356" s="8" t="b">
+      <c r="N356" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27450,7 +27381,7 @@
       <c r="F357" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G357" s="6" t="s">
+      <c r="G357" s="7" t="s">
         <v>1183</v>
       </c>
       <c r="H357" s="3" t="n">
@@ -27465,7 +27396,7 @@
         <v>22</v>
       </c>
       <c r="M357" s="3"/>
-      <c r="N357" s="8" t="b">
+      <c r="N357" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27507,7 +27438,7 @@
       <c r="F358" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G358" s="7" t="s">
+      <c r="G358" s="8" t="s">
         <v>1186</v>
       </c>
       <c r="H358" s="3" t="n">
@@ -27522,7 +27453,7 @@
         <v>22</v>
       </c>
       <c r="M358" s="3"/>
-      <c r="N358" s="8" t="b">
+      <c r="N358" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27564,7 +27495,7 @@
       <c r="F359" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G359" s="7" t="s">
+      <c r="G359" s="8" t="s">
         <v>1189</v>
       </c>
       <c r="H359" s="3" t="n">
@@ -27579,7 +27510,7 @@
         <v>22</v>
       </c>
       <c r="M359" s="3"/>
-      <c r="N359" s="8" t="b">
+      <c r="N359" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27621,7 +27552,7 @@
       <c r="F360" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G360" s="7" t="s">
+      <c r="G360" s="8" t="s">
         <v>1192</v>
       </c>
       <c r="H360" s="3" t="n">
@@ -27636,7 +27567,7 @@
         <v>22</v>
       </c>
       <c r="M360" s="3"/>
-      <c r="N360" s="8" t="b">
+      <c r="N360" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27678,7 +27609,7 @@
       <c r="F361" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G361" s="6" t="s">
+      <c r="G361" s="7" t="s">
         <v>1195</v>
       </c>
       <c r="H361" s="3" t="n">
@@ -27693,7 +27624,7 @@
         <v>22</v>
       </c>
       <c r="M361" s="3"/>
-      <c r="N361" s="8" t="b">
+      <c r="N361" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27735,7 +27666,7 @@
       <c r="F362" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G362" s="6" t="s">
+      <c r="G362" s="7" t="s">
         <v>1198</v>
       </c>
       <c r="H362" s="3" t="n">
@@ -27750,7 +27681,7 @@
         <v>22</v>
       </c>
       <c r="M362" s="3"/>
-      <c r="N362" s="8" t="b">
+      <c r="N362" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27792,7 +27723,7 @@
       <c r="F363" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G363" s="6" t="s">
+      <c r="G363" s="7" t="s">
         <v>1201</v>
       </c>
       <c r="H363" s="3" t="n">
@@ -27807,7 +27738,7 @@
         <v>22</v>
       </c>
       <c r="M363" s="3"/>
-      <c r="N363" s="8" t="b">
+      <c r="N363" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27849,7 +27780,7 @@
       <c r="F364" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G364" s="6" t="s">
+      <c r="G364" s="7" t="s">
         <v>1204</v>
       </c>
       <c r="H364" s="12" t="n">
@@ -27864,7 +27795,7 @@
         <v>22</v>
       </c>
       <c r="M364" s="3"/>
-      <c r="N364" s="8" t="b">
+      <c r="N364" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27906,7 +27837,7 @@
       <c r="F365" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G365" s="6" t="s">
+      <c r="G365" s="7" t="s">
         <v>1207</v>
       </c>
       <c r="H365" s="3" t="n">
@@ -27921,7 +27852,7 @@
         <v>22</v>
       </c>
       <c r="M365" s="3"/>
-      <c r="N365" s="8" t="b">
+      <c r="N365" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27963,7 +27894,7 @@
       <c r="F366" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G366" s="6" t="s">
+      <c r="G366" s="7" t="s">
         <v>1210</v>
       </c>
       <c r="H366" s="3" t="n">
@@ -27978,7 +27909,7 @@
         <v>22</v>
       </c>
       <c r="M366" s="3"/>
-      <c r="N366" s="8" t="b">
+      <c r="N366" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28020,7 +27951,7 @@
       <c r="F367" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G367" s="6" t="s">
+      <c r="G367" s="7" t="s">
         <v>1213</v>
       </c>
       <c r="H367" s="3" t="n">
@@ -28035,7 +27966,7 @@
         <v>22</v>
       </c>
       <c r="M367" s="3"/>
-      <c r="N367" s="8" t="b">
+      <c r="N367" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28077,7 +28008,7 @@
       <c r="F368" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G368" s="6" t="s">
+      <c r="G368" s="7" t="s">
         <v>1216</v>
       </c>
       <c r="H368" s="3" t="n">
@@ -28092,7 +28023,7 @@
         <v>22</v>
       </c>
       <c r="M368" s="3"/>
-      <c r="N368" s="8" t="b">
+      <c r="N368" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28134,7 +28065,7 @@
       <c r="F369" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G369" s="6" t="s">
+      <c r="G369" s="7" t="s">
         <v>1219</v>
       </c>
       <c r="H369" s="3" t="n">
@@ -28149,7 +28080,7 @@
         <v>22</v>
       </c>
       <c r="M369" s="3"/>
-      <c r="N369" s="8" t="b">
+      <c r="N369" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28191,7 +28122,7 @@
       <c r="F370" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G370" s="7" t="s">
+      <c r="G370" s="8" t="s">
         <v>1222</v>
       </c>
       <c r="H370" s="3" t="n">
@@ -28206,7 +28137,7 @@
         <v>22</v>
       </c>
       <c r="M370" s="3"/>
-      <c r="N370" s="8" t="b">
+      <c r="N370" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28248,7 +28179,7 @@
       <c r="F371" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G371" s="7" t="s">
+      <c r="G371" s="8" t="s">
         <v>1225</v>
       </c>
       <c r="H371" s="3" t="n">
@@ -28263,7 +28194,7 @@
         <v>22</v>
       </c>
       <c r="M371" s="3"/>
-      <c r="N371" s="8" t="b">
+      <c r="N371" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28305,7 +28236,7 @@
       <c r="F372" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G372" s="6" t="s">
+      <c r="G372" s="7" t="s">
         <v>1228</v>
       </c>
       <c r="H372" s="3" t="n">
@@ -28320,7 +28251,7 @@
         <v>22</v>
       </c>
       <c r="M372" s="3"/>
-      <c r="N372" s="8" t="b">
+      <c r="N372" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28362,7 +28293,7 @@
       <c r="F373" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G373" s="6" t="s">
+      <c r="G373" s="7" t="s">
         <v>1231</v>
       </c>
       <c r="H373" s="3" t="n">
@@ -28377,7 +28308,7 @@
         <v>22</v>
       </c>
       <c r="M373" s="3"/>
-      <c r="N373" s="8" t="b">
+      <c r="N373" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28419,7 +28350,7 @@
       <c r="F374" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G374" s="6" t="s">
+      <c r="G374" s="7" t="s">
         <v>1234</v>
       </c>
       <c r="H374" s="3" t="n">
@@ -28434,7 +28365,7 @@
         <v>22</v>
       </c>
       <c r="M374" s="3"/>
-      <c r="N374" s="8" t="b">
+      <c r="N374" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28476,7 +28407,7 @@
       <c r="F375" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G375" s="6" t="s">
+      <c r="G375" s="7" t="s">
         <v>1237</v>
       </c>
       <c r="H375" s="3" t="n">
@@ -28491,7 +28422,7 @@
         <v>22</v>
       </c>
       <c r="M375" s="3"/>
-      <c r="N375" s="8" t="b">
+      <c r="N375" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28533,7 +28464,7 @@
       <c r="F376" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G376" s="6" t="s">
+      <c r="G376" s="7" t="s">
         <v>1240</v>
       </c>
       <c r="H376" s="3" t="n">
@@ -28548,7 +28479,7 @@
         <v>22</v>
       </c>
       <c r="M376" s="3"/>
-      <c r="N376" s="8" t="b">
+      <c r="N376" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28590,7 +28521,7 @@
       <c r="F377" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G377" s="6" t="s">
+      <c r="G377" s="7" t="s">
         <v>1243</v>
       </c>
       <c r="H377" s="3" t="n">
@@ -28605,7 +28536,7 @@
         <v>22</v>
       </c>
       <c r="M377" s="3"/>
-      <c r="N377" s="8" t="b">
+      <c r="N377" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28647,7 +28578,7 @@
       <c r="F378" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G378" s="6" t="s">
+      <c r="G378" s="7" t="s">
         <v>1246</v>
       </c>
       <c r="H378" s="3" t="n">
@@ -28662,7 +28593,7 @@
         <v>22</v>
       </c>
       <c r="M378" s="3"/>
-      <c r="N378" s="8" t="b">
+      <c r="N378" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28704,7 +28635,7 @@
       <c r="F379" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G379" s="6"/>
+      <c r="G379" s="7"/>
       <c r="H379" s="3"/>
       <c r="I379" s="3" t="s">
         <v>1250</v>
@@ -28719,7 +28650,7 @@
         <v>292</v>
       </c>
       <c r="M379" s="3"/>
-      <c r="N379" s="8" t="b">
+      <c r="N379" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28763,7 +28694,7 @@
       <c r="F380" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G380" s="6"/>
+      <c r="G380" s="7"/>
       <c r="H380" s="3"/>
       <c r="I380" s="3" t="s">
         <v>1255</v>
@@ -28778,7 +28709,7 @@
         <v>565</v>
       </c>
       <c r="M380" s="3"/>
-      <c r="N380" s="8" t="b">
+      <c r="N380" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28822,7 +28753,7 @@
       <c r="F381" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G381" s="7" t="s">
+      <c r="G381" s="8" t="s">
         <v>1260</v>
       </c>
       <c r="H381" s="3" t="n">
@@ -28837,7 +28768,7 @@
         <v>22</v>
       </c>
       <c r="M381" s="3"/>
-      <c r="N381" s="8" t="b">
+      <c r="N381" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -28879,7 +28810,7 @@
       <c r="F382" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G382" s="7" t="s">
+      <c r="G382" s="8" t="s">
         <v>1263</v>
       </c>
       <c r="H382" s="3" t="n">
@@ -28894,7 +28825,7 @@
         <v>22</v>
       </c>
       <c r="M382" s="3"/>
-      <c r="N382" s="8" t="b">
+      <c r="N382" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -28951,7 +28882,7 @@
         <v>59</v>
       </c>
       <c r="M383" s="3"/>
-      <c r="N383" s="8" t="b">
+      <c r="N383" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29008,7 +28939,7 @@
         <v>22</v>
       </c>
       <c r="M384" s="3"/>
-      <c r="N384" s="8" t="b">
+      <c r="N384" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29050,7 +28981,7 @@
       <c r="F385" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G385" s="6" t="s">
+      <c r="G385" s="7" t="s">
         <v>1277</v>
       </c>
       <c r="H385" s="3" t="n">
@@ -29065,7 +28996,7 @@
         <v>565</v>
       </c>
       <c r="M385" s="3"/>
-      <c r="N385" s="8" t="b">
+      <c r="N385" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29107,7 +29038,7 @@
       <c r="F386" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G386" s="6" t="s">
+      <c r="G386" s="7" t="s">
         <v>1281</v>
       </c>
       <c r="H386" s="3" t="n">
@@ -29122,7 +29053,7 @@
         <v>565</v>
       </c>
       <c r="M386" s="3"/>
-      <c r="N386" s="8" t="b">
+      <c r="N386" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29164,7 +29095,7 @@
       <c r="F387" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G387" s="6" t="s">
+      <c r="G387" s="7" t="s">
         <v>1284</v>
       </c>
       <c r="H387" s="3" t="n">
@@ -29179,7 +29110,7 @@
         <v>565</v>
       </c>
       <c r="M387" s="3"/>
-      <c r="N387" s="8" t="b">
+      <c r="N387" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29221,7 +29152,7 @@
       <c r="F388" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G388" s="6" t="s">
+      <c r="G388" s="7" t="s">
         <v>1287</v>
       </c>
       <c r="H388" s="3" t="n">
@@ -29236,7 +29167,7 @@
         <v>565</v>
       </c>
       <c r="M388" s="3"/>
-      <c r="N388" s="8" t="b">
+      <c r="N388" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29278,7 +29209,7 @@
       <c r="F389" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G389" s="6" t="s">
+      <c r="G389" s="7" t="s">
         <v>1290</v>
       </c>
       <c r="H389" s="3" t="n">
@@ -29293,7 +29224,7 @@
         <v>565</v>
       </c>
       <c r="M389" s="3"/>
-      <c r="N389" s="8" t="b">
+      <c r="N389" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29335,7 +29266,7 @@
       <c r="F390" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G390" s="6" t="s">
+      <c r="G390" s="7" t="s">
         <v>1293</v>
       </c>
       <c r="H390" s="3" t="n">
@@ -29350,7 +29281,7 @@
         <v>565</v>
       </c>
       <c r="M390" s="3"/>
-      <c r="N390" s="8" t="b">
+      <c r="N390" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29392,7 +29323,7 @@
       <c r="F391" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G391" s="6" t="s">
+      <c r="G391" s="7" t="s">
         <v>1296</v>
       </c>
       <c r="H391" s="3" t="n">
@@ -29407,7 +29338,7 @@
         <v>565</v>
       </c>
       <c r="M391" s="3"/>
-      <c r="N391" s="8" t="b">
+      <c r="N391" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29449,7 +29380,7 @@
       <c r="F392" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G392" s="6" t="s">
+      <c r="G392" s="7" t="s">
         <v>1299</v>
       </c>
       <c r="H392" s="3" t="n">
@@ -29464,7 +29395,7 @@
         <v>565</v>
       </c>
       <c r="M392" s="3"/>
-      <c r="N392" s="8" t="b">
+      <c r="N392" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29506,7 +29437,7 @@
       <c r="F393" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G393" s="6" t="s">
+      <c r="G393" s="7" t="s">
         <v>1302</v>
       </c>
       <c r="H393" s="3" t="n">
@@ -29521,7 +29452,7 @@
         <v>565</v>
       </c>
       <c r="M393" s="3"/>
-      <c r="N393" s="8" t="b">
+      <c r="N393" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29563,7 +29494,7 @@
       <c r="F394" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G394" s="6" t="s">
+      <c r="G394" s="7" t="s">
         <v>1305</v>
       </c>
       <c r="H394" s="3" t="n">
@@ -29578,7 +29509,7 @@
         <v>565</v>
       </c>
       <c r="M394" s="3"/>
-      <c r="N394" s="8" t="b">
+      <c r="N394" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29620,7 +29551,7 @@
       <c r="F395" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G395" s="6" t="s">
+      <c r="G395" s="7" t="s">
         <v>1308</v>
       </c>
       <c r="H395" s="3" t="n">
@@ -29635,7 +29566,7 @@
         <v>565</v>
       </c>
       <c r="M395" s="3"/>
-      <c r="N395" s="8" t="b">
+      <c r="N395" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29677,7 +29608,7 @@
       <c r="F396" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G396" s="6" t="s">
+      <c r="G396" s="7" t="s">
         <v>1308</v>
       </c>
       <c r="H396" s="3" t="n">
@@ -29692,7 +29623,7 @@
         <v>565</v>
       </c>
       <c r="M396" s="3"/>
-      <c r="N396" s="8" t="b">
+      <c r="N396" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29734,7 +29665,7 @@
       <c r="F397" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G397" s="7" t="s">
+      <c r="G397" s="8" t="s">
         <v>1313</v>
       </c>
       <c r="H397" s="3" t="n">
@@ -29749,7 +29680,7 @@
         <v>565</v>
       </c>
       <c r="M397" s="3"/>
-      <c r="N397" s="8" t="b">
+      <c r="N397" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29791,7 +29722,7 @@
       <c r="F398" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G398" s="7" t="s">
+      <c r="G398" s="8" t="s">
         <v>1316</v>
       </c>
       <c r="H398" s="3" t="n">
@@ -29806,7 +29737,7 @@
         <v>565</v>
       </c>
       <c r="M398" s="3"/>
-      <c r="N398" s="8" t="b">
+      <c r="N398" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29848,7 +29779,7 @@
       <c r="F399" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G399" s="7" t="s">
+      <c r="G399" s="8" t="s">
         <v>1319</v>
       </c>
       <c r="H399" s="3" t="n">
@@ -29863,7 +29794,7 @@
         <v>565</v>
       </c>
       <c r="M399" s="3"/>
-      <c r="N399" s="8" t="b">
+      <c r="N399" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29905,7 +29836,7 @@
       <c r="F400" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G400" s="6" t="s">
+      <c r="G400" s="7" t="s">
         <v>1322</v>
       </c>
       <c r="H400" s="3" t="n">
@@ -29920,7 +29851,7 @@
         <v>565</v>
       </c>
       <c r="M400" s="3"/>
-      <c r="N400" s="8" t="b">
+      <c r="N400" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -29962,7 +29893,7 @@
       <c r="F401" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G401" s="6" t="s">
+      <c r="G401" s="7" t="s">
         <v>1325</v>
       </c>
       <c r="H401" s="3" t="n">
@@ -29977,7 +29908,7 @@
         <v>565</v>
       </c>
       <c r="M401" s="3"/>
-      <c r="N401" s="8" t="b">
+      <c r="N401" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30019,7 +29950,7 @@
       <c r="F402" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G402" s="6" t="s">
+      <c r="G402" s="7" t="s">
         <v>1328</v>
       </c>
       <c r="H402" s="3" t="n">
@@ -30034,7 +29965,7 @@
         <v>565</v>
       </c>
       <c r="M402" s="3"/>
-      <c r="N402" s="8" t="b">
+      <c r="N402" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30076,7 +30007,7 @@
       <c r="F403" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G403" s="6" t="s">
+      <c r="G403" s="7" t="s">
         <v>1331</v>
       </c>
       <c r="H403" s="3" t="n">
@@ -30091,7 +30022,7 @@
         <v>565</v>
       </c>
       <c r="M403" s="3"/>
-      <c r="N403" s="8" t="b">
+      <c r="N403" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30133,7 +30064,7 @@
       <c r="F404" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G404" s="6" t="s">
+      <c r="G404" s="7" t="s">
         <v>1334</v>
       </c>
       <c r="H404" s="3" t="n">
@@ -30148,7 +30079,7 @@
         <v>565</v>
       </c>
       <c r="M404" s="3"/>
-      <c r="N404" s="8" t="b">
+      <c r="N404" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30190,7 +30121,7 @@
       <c r="F405" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G405" s="6" t="s">
+      <c r="G405" s="7" t="s">
         <v>1337</v>
       </c>
       <c r="H405" s="3" t="n">
@@ -30205,7 +30136,7 @@
         <v>565</v>
       </c>
       <c r="M405" s="3"/>
-      <c r="N405" s="8" t="b">
+      <c r="N405" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30247,7 +30178,7 @@
       <c r="F406" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G406" s="6"/>
+      <c r="G406" s="7"/>
       <c r="H406" s="3"/>
       <c r="I406" s="3" t="s">
         <v>1341</v>
@@ -30262,7 +30193,7 @@
         <v>22</v>
       </c>
       <c r="M406" s="3"/>
-      <c r="N406" s="8" t="b">
+      <c r="N406" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30304,7 +30235,7 @@
       <c r="F407" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G407" s="6" t="s">
+      <c r="G407" s="7" t="s">
         <v>1346</v>
       </c>
       <c r="H407" s="3" t="n">
@@ -30319,7 +30250,7 @@
         <v>292</v>
       </c>
       <c r="M407" s="3"/>
-      <c r="N407" s="8" t="b">
+      <c r="N407" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30361,7 +30292,7 @@
       <c r="F408" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G408" s="6" t="s">
+      <c r="G408" s="7" t="s">
         <v>1349</v>
       </c>
       <c r="H408" s="3" t="n">
@@ -30376,7 +30307,7 @@
         <v>292</v>
       </c>
       <c r="M408" s="3"/>
-      <c r="N408" s="8" t="b">
+      <c r="N408" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30418,7 +30349,7 @@
       <c r="F409" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G409" s="6" t="s">
+      <c r="G409" s="7" t="s">
         <v>1352</v>
       </c>
       <c r="H409" s="3" t="n">
@@ -30433,7 +30364,7 @@
         <v>292</v>
       </c>
       <c r="M409" s="3"/>
-      <c r="N409" s="8" t="b">
+      <c r="N409" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30475,7 +30406,7 @@
       <c r="F410" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G410" s="6" t="s">
+      <c r="G410" s="7" t="s">
         <v>1355</v>
       </c>
       <c r="H410" s="3" t="n">
@@ -30490,7 +30421,7 @@
         <v>292</v>
       </c>
       <c r="M410" s="3"/>
-      <c r="N410" s="8" t="b">
+      <c r="N410" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30532,7 +30463,7 @@
       <c r="F411" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G411" s="6" t="s">
+      <c r="G411" s="7" t="s">
         <v>1358</v>
       </c>
       <c r="H411" s="3" t="n">
@@ -30547,7 +30478,7 @@
         <v>292</v>
       </c>
       <c r="M411" s="3"/>
-      <c r="N411" s="8" t="b">
+      <c r="N411" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30589,7 +30520,7 @@
       <c r="F412" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G412" s="6" t="s">
+      <c r="G412" s="7" t="s">
         <v>1361</v>
       </c>
       <c r="H412" s="3" t="n">
@@ -30604,7 +30535,7 @@
         <v>292</v>
       </c>
       <c r="M412" s="3"/>
-      <c r="N412" s="8" t="b">
+      <c r="N412" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30646,7 +30577,7 @@
       <c r="F413" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G413" s="7" t="s">
+      <c r="G413" s="8" t="s">
         <v>1364</v>
       </c>
       <c r="H413" s="3" t="n">
@@ -30661,7 +30592,7 @@
         <v>292</v>
       </c>
       <c r="M413" s="3"/>
-      <c r="N413" s="8" t="b">
+      <c r="N413" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30703,7 +30634,7 @@
       <c r="F414" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G414" s="7" t="s">
+      <c r="G414" s="8" t="s">
         <v>1367</v>
       </c>
       <c r="H414" s="3" t="n">
@@ -30718,7 +30649,7 @@
         <v>292</v>
       </c>
       <c r="M414" s="3"/>
-      <c r="N414" s="8" t="b">
+      <c r="N414" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30760,7 +30691,7 @@
       <c r="F415" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G415" s="7" t="s">
+      <c r="G415" s="8" t="s">
         <v>1370</v>
       </c>
       <c r="H415" s="3" t="n">
@@ -30775,7 +30706,7 @@
         <v>292</v>
       </c>
       <c r="M415" s="3"/>
-      <c r="N415" s="8" t="b">
+      <c r="N415" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30817,7 +30748,7 @@
       <c r="F416" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G416" s="6" t="s">
+      <c r="G416" s="7" t="s">
         <v>1373</v>
       </c>
       <c r="H416" s="3" t="n">
@@ -30832,7 +30763,7 @@
         <v>292</v>
       </c>
       <c r="M416" s="3"/>
-      <c r="N416" s="8" t="b">
+      <c r="N416" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30874,7 +30805,7 @@
       <c r="F417" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G417" s="6" t="s">
+      <c r="G417" s="7" t="s">
         <v>1376</v>
       </c>
       <c r="H417" s="3" t="n">
@@ -30889,7 +30820,7 @@
         <v>292</v>
       </c>
       <c r="M417" s="3"/>
-      <c r="N417" s="8" t="b">
+      <c r="N417" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30931,7 +30862,7 @@
       <c r="F418" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G418" s="6" t="s">
+      <c r="G418" s="7" t="s">
         <v>1379</v>
       </c>
       <c r="H418" s="3" t="n">
@@ -30946,7 +30877,7 @@
         <v>292</v>
       </c>
       <c r="M418" s="3"/>
-      <c r="N418" s="8" t="b">
+      <c r="N418" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -30988,7 +30919,7 @@
       <c r="F419" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G419" s="6" t="s">
+      <c r="G419" s="7" t="s">
         <v>1382</v>
       </c>
       <c r="H419" s="3" t="n">
@@ -31003,7 +30934,7 @@
         <v>292</v>
       </c>
       <c r="M419" s="3"/>
-      <c r="N419" s="8" t="b">
+      <c r="N419" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31045,7 +30976,7 @@
       <c r="F420" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G420" s="6" t="s">
+      <c r="G420" s="7" t="s">
         <v>1385</v>
       </c>
       <c r="H420" s="3" t="n">
@@ -31060,7 +30991,7 @@
         <v>292</v>
       </c>
       <c r="M420" s="3"/>
-      <c r="N420" s="8" t="b">
+      <c r="N420" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31102,7 +31033,7 @@
       <c r="F421" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G421" s="6" t="s">
+      <c r="G421" s="7" t="s">
         <v>1388</v>
       </c>
       <c r="H421" s="3" t="n">
@@ -31117,7 +31048,7 @@
         <v>292</v>
       </c>
       <c r="M421" s="3"/>
-      <c r="N421" s="8" t="b">
+      <c r="N421" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31159,7 +31090,7 @@
       <c r="F422" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G422" s="6" t="s">
+      <c r="G422" s="7" t="s">
         <v>1391</v>
       </c>
       <c r="H422" s="3" t="n">
@@ -31174,7 +31105,7 @@
         <v>292</v>
       </c>
       <c r="M422" s="3"/>
-      <c r="N422" s="8" t="b">
+      <c r="N422" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31216,7 +31147,7 @@
       <c r="F423" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G423" s="6" t="s">
+      <c r="G423" s="7" t="s">
         <v>1394</v>
       </c>
       <c r="H423" s="3" t="n">
@@ -31231,7 +31162,7 @@
         <v>292</v>
       </c>
       <c r="M423" s="3"/>
-      <c r="N423" s="8" t="b">
+      <c r="N423" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31273,7 +31204,7 @@
       <c r="F424" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G424" s="6" t="s">
+      <c r="G424" s="7" t="s">
         <v>1397</v>
       </c>
       <c r="H424" s="3" t="n">
@@ -31288,7 +31219,7 @@
         <v>292</v>
       </c>
       <c r="M424" s="3"/>
-      <c r="N424" s="8" t="b">
+      <c r="N424" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31330,7 +31261,7 @@
       <c r="F425" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G425" s="6" t="s">
+      <c r="G425" s="7" t="s">
         <v>1400</v>
       </c>
       <c r="H425" s="3" t="n">
@@ -31345,7 +31276,7 @@
         <v>292</v>
       </c>
       <c r="M425" s="3"/>
-      <c r="N425" s="8" t="b">
+      <c r="N425" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31387,7 +31318,7 @@
       <c r="F426" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G426" s="6" t="s">
+      <c r="G426" s="7" t="s">
         <v>1403</v>
       </c>
       <c r="H426" s="3" t="n">
@@ -31402,7 +31333,7 @@
         <v>292</v>
       </c>
       <c r="M426" s="3"/>
-      <c r="N426" s="8" t="b">
+      <c r="N426" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31444,7 +31375,7 @@
       <c r="F427" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G427" s="6" t="s">
+      <c r="G427" s="7" t="s">
         <v>1406</v>
       </c>
       <c r="H427" s="3" t="n">
@@ -31459,7 +31390,7 @@
         <v>292</v>
       </c>
       <c r="M427" s="3"/>
-      <c r="N427" s="8" t="b">
+      <c r="N427" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31501,7 +31432,7 @@
       <c r="F428" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G428" s="7" t="s">
+      <c r="G428" s="8" t="s">
         <v>1409</v>
       </c>
       <c r="H428" s="3" t="n">
@@ -31516,7 +31447,7 @@
         <v>292</v>
       </c>
       <c r="M428" s="3"/>
-      <c r="N428" s="8" t="b">
+      <c r="N428" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31558,7 +31489,7 @@
       <c r="F429" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G429" s="7" t="s">
+      <c r="G429" s="8" t="s">
         <v>1412</v>
       </c>
       <c r="H429" s="3" t="n">
@@ -31573,7 +31504,7 @@
         <v>292</v>
       </c>
       <c r="M429" s="3"/>
-      <c r="N429" s="8" t="b">
+      <c r="N429" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31615,7 +31546,7 @@
       <c r="F430" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G430" s="7" t="s">
+      <c r="G430" s="8" t="s">
         <v>1416</v>
       </c>
       <c r="H430" s="3" t="n">
@@ -31630,7 +31561,7 @@
         <v>22</v>
       </c>
       <c r="M430" s="3"/>
-      <c r="N430" s="8" t="b">
+      <c r="N430" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31672,7 +31603,7 @@
       <c r="F431" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G431" s="6" t="s">
+      <c r="G431" s="7" t="s">
         <v>1419</v>
       </c>
       <c r="H431" s="3" t="n">
@@ -31687,7 +31618,7 @@
         <v>22</v>
       </c>
       <c r="M431" s="3"/>
-      <c r="N431" s="8" t="b">
+      <c r="N431" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31729,7 +31660,7 @@
       <c r="F432" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G432" s="6" t="s">
+      <c r="G432" s="7" t="s">
         <v>1422</v>
       </c>
       <c r="H432" s="3" t="n">
@@ -31744,7 +31675,7 @@
         <v>22</v>
       </c>
       <c r="M432" s="3"/>
-      <c r="N432" s="8" t="b">
+      <c r="N432" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31786,7 +31717,7 @@
       <c r="F433" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G433" s="6" t="s">
+      <c r="G433" s="7" t="s">
         <v>1425</v>
       </c>
       <c r="H433" s="3" t="n">
@@ -31801,7 +31732,7 @@
         <v>22</v>
       </c>
       <c r="M433" s="3"/>
-      <c r="N433" s="8" t="b">
+      <c r="N433" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31843,7 +31774,7 @@
       <c r="F434" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G434" s="6" t="s">
+      <c r="G434" s="7" t="s">
         <v>1428</v>
       </c>
       <c r="H434" s="3" t="n">
@@ -31858,7 +31789,7 @@
         <v>22</v>
       </c>
       <c r="M434" s="3"/>
-      <c r="N434" s="8" t="b">
+      <c r="N434" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31900,7 +31831,7 @@
       <c r="F435" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G435" s="6" t="s">
+      <c r="G435" s="7" t="s">
         <v>1431</v>
       </c>
       <c r="H435" s="3" t="n">
@@ -31915,7 +31846,7 @@
         <v>22</v>
       </c>
       <c r="M435" s="3"/>
-      <c r="N435" s="8" t="b">
+      <c r="N435" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -31957,7 +31888,7 @@
       <c r="F436" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G436" s="6" t="s">
+      <c r="G436" s="7" t="s">
         <v>1434</v>
       </c>
       <c r="H436" s="3" t="n">
@@ -31972,7 +31903,7 @@
         <v>22</v>
       </c>
       <c r="M436" s="3"/>
-      <c r="N436" s="8" t="b">
+      <c r="N436" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32014,7 +31945,7 @@
       <c r="F437" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G437" s="6" t="s">
+      <c r="G437" s="7" t="s">
         <v>1436</v>
       </c>
       <c r="H437" s="3" t="n">
@@ -32029,7 +31960,7 @@
         <v>22</v>
       </c>
       <c r="M437" s="3"/>
-      <c r="N437" s="8" t="b">
+      <c r="N437" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32071,7 +32002,7 @@
       <c r="F438" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G438" s="6" t="s">
+      <c r="G438" s="7" t="s">
         <v>1439</v>
       </c>
       <c r="H438" s="3" t="n">
@@ -32086,7 +32017,7 @@
         <v>22</v>
       </c>
       <c r="M438" s="3"/>
-      <c r="N438" s="8" t="b">
+      <c r="N438" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32128,7 +32059,7 @@
       <c r="F439" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G439" s="6" t="s">
+      <c r="G439" s="7" t="s">
         <v>1442</v>
       </c>
       <c r="H439" s="3" t="n">
@@ -32143,7 +32074,7 @@
         <v>22</v>
       </c>
       <c r="M439" s="3"/>
-      <c r="N439" s="8" t="b">
+      <c r="N439" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32185,7 +32116,7 @@
       <c r="F440" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G440" s="6" t="s">
+      <c r="G440" s="7" t="s">
         <v>1445</v>
       </c>
       <c r="H440" s="3" t="n">
@@ -32200,7 +32131,7 @@
         <v>22</v>
       </c>
       <c r="M440" s="3"/>
-      <c r="N440" s="8" t="b">
+      <c r="N440" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32242,7 +32173,7 @@
       <c r="F441" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G441" s="6" t="s">
+      <c r="G441" s="7" t="s">
         <v>1448</v>
       </c>
       <c r="H441" s="3" t="n">
@@ -32257,7 +32188,7 @@
         <v>22</v>
       </c>
       <c r="M441" s="3"/>
-      <c r="N441" s="8" t="b">
+      <c r="N441" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32299,7 +32230,7 @@
       <c r="F442" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G442" s="6" t="s">
+      <c r="G442" s="7" t="s">
         <v>1452</v>
       </c>
       <c r="H442" s="3" t="n">
@@ -32314,7 +32245,7 @@
         <v>22</v>
       </c>
       <c r="M442" s="3"/>
-      <c r="N442" s="8" t="b">
+      <c r="N442" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32356,7 +32287,7 @@
       <c r="F443" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G443" s="7" t="s">
+      <c r="G443" s="8" t="s">
         <v>1455</v>
       </c>
       <c r="H443" s="3" t="n">
@@ -32371,7 +32302,7 @@
         <v>22</v>
       </c>
       <c r="M443" s="3"/>
-      <c r="N443" s="8" t="b">
+      <c r="N443" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32413,7 +32344,7 @@
       <c r="F444" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G444" s="7" t="s">
+      <c r="G444" s="8" t="s">
         <v>1458</v>
       </c>
       <c r="H444" s="3" t="n">
@@ -32428,7 +32359,7 @@
         <v>22</v>
       </c>
       <c r="M444" s="3"/>
-      <c r="N444" s="8" t="b">
+      <c r="N444" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32470,7 +32401,7 @@
       <c r="F445" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G445" s="6"/>
+      <c r="G445" s="7"/>
       <c r="H445" s="3"/>
       <c r="I445" s="3" t="s">
         <v>1461</v>
@@ -32485,7 +32416,7 @@
         <v>22</v>
       </c>
       <c r="M445" s="3"/>
-      <c r="N445" s="8" t="b">
+      <c r="N445" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32527,7 +32458,7 @@
       <c r="F446" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G446" s="6" t="s">
+      <c r="G446" s="7" t="s">
         <v>1465</v>
       </c>
       <c r="H446" s="3" t="n">
@@ -32542,7 +32473,7 @@
         <v>22</v>
       </c>
       <c r="M446" s="3"/>
-      <c r="N446" s="8" t="b">
+      <c r="N446" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32584,7 +32515,7 @@
       <c r="F447" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G447" s="6" t="s">
+      <c r="G447" s="7" t="s">
         <v>1468</v>
       </c>
       <c r="H447" s="3" t="n">
@@ -32599,7 +32530,7 @@
         <v>22</v>
       </c>
       <c r="M447" s="3"/>
-      <c r="N447" s="8" t="b">
+      <c r="N447" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32641,7 +32572,7 @@
       <c r="F448" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G448" s="6" t="s">
+      <c r="G448" s="7" t="s">
         <v>1471</v>
       </c>
       <c r="H448" s="3" t="n">
@@ -32656,7 +32587,7 @@
         <v>22</v>
       </c>
       <c r="M448" s="3"/>
-      <c r="N448" s="8" t="b">
+      <c r="N448" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32698,7 +32629,7 @@
       <c r="F449" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G449" s="6"/>
+      <c r="G449" s="7"/>
       <c r="H449" s="3"/>
       <c r="I449" s="3" t="s">
         <v>1475</v>
@@ -32713,7 +32644,7 @@
         <v>565</v>
       </c>
       <c r="M449" s="3"/>
-      <c r="N449" s="8" t="b">
+      <c r="N449" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32757,7 +32688,7 @@
       <c r="F450" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G450" s="6"/>
+      <c r="G450" s="7"/>
       <c r="H450" s="3"/>
       <c r="I450" s="3" t="s">
         <v>1480</v>
@@ -32772,7 +32703,7 @@
         <v>565</v>
       </c>
       <c r="M450" s="3"/>
-      <c r="N450" s="8" t="b">
+      <c r="N450" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32814,7 +32745,7 @@
       <c r="F451" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G451" s="6" t="s">
+      <c r="G451" s="7" t="s">
         <v>1485</v>
       </c>
       <c r="H451" s="3" t="n">
@@ -32829,7 +32760,7 @@
         <v>22</v>
       </c>
       <c r="M451" s="3"/>
-      <c r="N451" s="8" t="b">
+      <c r="N451" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32871,7 +32802,7 @@
       <c r="F452" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G452" s="6"/>
+      <c r="G452" s="7"/>
       <c r="H452" s="3"/>
       <c r="I452" s="3" t="s">
         <v>1488</v>
@@ -32886,7 +32817,7 @@
         <v>22</v>
       </c>
       <c r="M452" s="3"/>
-      <c r="N452" s="8" t="b">
+      <c r="N452" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32928,7 +32859,7 @@
       <c r="F453" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G453" s="6" t="s">
+      <c r="G453" s="7" t="s">
         <v>1493</v>
       </c>
       <c r="H453" s="3" t="n">
@@ -32943,7 +32874,7 @@
         <v>22</v>
       </c>
       <c r="M453" s="3"/>
-      <c r="N453" s="8" t="b">
+      <c r="N453" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -32985,7 +32916,7 @@
       <c r="F454" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G454" s="6" t="s">
+      <c r="G454" s="7" t="s">
         <v>1496</v>
       </c>
       <c r="H454" s="3" t="n">
@@ -33000,7 +32931,7 @@
         <v>22</v>
       </c>
       <c r="M454" s="3"/>
-      <c r="N454" s="8" t="b">
+      <c r="N454" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33042,7 +32973,7 @@
       <c r="F455" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G455" s="6"/>
+      <c r="G455" s="7"/>
       <c r="H455" s="3"/>
       <c r="I455" s="3" t="s">
         <v>1500</v>
@@ -33057,7 +32988,7 @@
         <v>292</v>
       </c>
       <c r="M455" s="3"/>
-      <c r="N455" s="8" t="b">
+      <c r="N455" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33099,7 +33030,7 @@
       <c r="F456" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G456" s="6" t="s">
+      <c r="G456" s="7" t="s">
         <v>1505</v>
       </c>
       <c r="H456" s="3" t="n">
@@ -33114,7 +33045,7 @@
         <v>292</v>
       </c>
       <c r="M456" s="3"/>
-      <c r="N456" s="8" t="b">
+      <c r="N456" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33156,7 +33087,7 @@
       <c r="F457" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G457" s="6" t="s">
+      <c r="G457" s="7" t="s">
         <v>1508</v>
       </c>
       <c r="H457" s="3" t="n">
@@ -33171,7 +33102,7 @@
         <v>292</v>
       </c>
       <c r="M457" s="3"/>
-      <c r="N457" s="8" t="b">
+      <c r="N457" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33213,7 +33144,7 @@
       <c r="F458" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G458" s="6" t="s">
+      <c r="G458" s="7" t="s">
         <v>1511</v>
       </c>
       <c r="H458" s="3" t="n">
@@ -33228,7 +33159,7 @@
         <v>292</v>
       </c>
       <c r="M458" s="3"/>
-      <c r="N458" s="8" t="b">
+      <c r="N458" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33270,7 +33201,7 @@
       <c r="F459" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G459" s="6" t="s">
+      <c r="G459" s="7" t="s">
         <v>1514</v>
       </c>
       <c r="H459" s="12" t="n">
@@ -33285,7 +33216,7 @@
         <v>292</v>
       </c>
       <c r="M459" s="3"/>
-      <c r="N459" s="8" t="b">
+      <c r="N459" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33327,7 +33258,7 @@
       <c r="F460" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G460" s="7" t="s">
+      <c r="G460" s="8" t="s">
         <v>1517</v>
       </c>
       <c r="H460" s="3" t="n">
@@ -33342,7 +33273,7 @@
         <v>292</v>
       </c>
       <c r="M460" s="3"/>
-      <c r="N460" s="8" t="b">
+      <c r="N460" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33384,7 +33315,7 @@
       <c r="F461" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G461" s="7" t="s">
+      <c r="G461" s="8" t="s">
         <v>1520</v>
       </c>
       <c r="H461" s="3" t="n">
@@ -33399,7 +33330,7 @@
         <v>292</v>
       </c>
       <c r="M461" s="3"/>
-      <c r="N461" s="8" t="b">
+      <c r="N461" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33441,7 +33372,7 @@
       <c r="F462" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G462" s="7" t="s">
+      <c r="G462" s="8" t="s">
         <v>1523</v>
       </c>
       <c r="H462" s="3" t="n">
@@ -33456,7 +33387,7 @@
         <v>292</v>
       </c>
       <c r="M462" s="3"/>
-      <c r="N462" s="8" t="b">
+      <c r="N462" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33498,7 +33429,7 @@
       <c r="F463" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G463" s="6" t="s">
+      <c r="G463" s="7" t="s">
         <v>1526</v>
       </c>
       <c r="H463" s="3" t="n">
@@ -33513,7 +33444,7 @@
         <v>292</v>
       </c>
       <c r="M463" s="3"/>
-      <c r="N463" s="8" t="b">
+      <c r="N463" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33555,7 +33486,7 @@
       <c r="F464" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G464" s="6" t="s">
+      <c r="G464" s="7" t="s">
         <v>1529</v>
       </c>
       <c r="H464" s="3" t="n">
@@ -33570,7 +33501,7 @@
         <v>292</v>
       </c>
       <c r="M464" s="3"/>
-      <c r="N464" s="8" t="b">
+      <c r="N464" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33612,7 +33543,7 @@
       <c r="F465" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G465" s="6" t="s">
+      <c r="G465" s="7" t="s">
         <v>1532</v>
       </c>
       <c r="H465" s="12" t="n">
@@ -33627,7 +33558,7 @@
         <v>292</v>
       </c>
       <c r="M465" s="3"/>
-      <c r="N465" s="8" t="b">
+      <c r="N465" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33669,7 +33600,7 @@
       <c r="F466" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G466" s="6" t="s">
+      <c r="G466" s="7" t="s">
         <v>1535</v>
       </c>
       <c r="H466" s="3" t="n">
@@ -33684,7 +33615,7 @@
         <v>292</v>
       </c>
       <c r="M466" s="3"/>
-      <c r="N466" s="8" t="b">
+      <c r="N466" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33726,7 +33657,7 @@
       <c r="F467" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G467" s="6" t="s">
+      <c r="G467" s="7" t="s">
         <v>1538</v>
       </c>
       <c r="H467" s="3" t="n">
@@ -33741,7 +33672,7 @@
         <v>292</v>
       </c>
       <c r="M467" s="3"/>
-      <c r="N467" s="8" t="b">
+      <c r="N467" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33783,7 +33714,7 @@
       <c r="F468" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G468" s="6" t="s">
+      <c r="G468" s="7" t="s">
         <v>1541</v>
       </c>
       <c r="H468" s="3" t="n">
@@ -33798,7 +33729,7 @@
         <v>292</v>
       </c>
       <c r="M468" s="3"/>
-      <c r="N468" s="8" t="b">
+      <c r="N468" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33840,7 +33771,7 @@
       <c r="F469" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G469" s="6" t="s">
+      <c r="G469" s="7" t="s">
         <v>1544</v>
       </c>
       <c r="H469" s="12" t="n">
@@ -33855,7 +33786,7 @@
         <v>292</v>
       </c>
       <c r="M469" s="3"/>
-      <c r="N469" s="8" t="b">
+      <c r="N469" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33897,7 +33828,7 @@
       <c r="F470" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G470" s="6" t="s">
+      <c r="G470" s="7" t="s">
         <v>1547</v>
       </c>
       <c r="H470" s="3" t="n">
@@ -33912,7 +33843,7 @@
         <v>292</v>
       </c>
       <c r="M470" s="3"/>
-      <c r="N470" s="8" t="b">
+      <c r="N470" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -33954,7 +33885,7 @@
       <c r="F471" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G471" s="6" t="s">
+      <c r="G471" s="7" t="s">
         <v>1550</v>
       </c>
       <c r="H471" s="3" t="n">
@@ -33969,7 +33900,7 @@
         <v>292</v>
       </c>
       <c r="M471" s="3"/>
-      <c r="N471" s="8" t="b">
+      <c r="N471" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34011,7 +33942,7 @@
       <c r="F472" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G472" s="6" t="s">
+      <c r="G472" s="7" t="s">
         <v>1553</v>
       </c>
       <c r="H472" s="3" t="n">
@@ -34026,7 +33957,7 @@
         <v>292</v>
       </c>
       <c r="M472" s="3"/>
-      <c r="N472" s="8" t="b">
+      <c r="N472" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34068,7 +33999,7 @@
       <c r="F473" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G473" s="6" t="s">
+      <c r="G473" s="7" t="s">
         <v>1556</v>
       </c>
       <c r="H473" s="3" t="n">
@@ -34083,7 +34014,7 @@
         <v>292</v>
       </c>
       <c r="M473" s="3"/>
-      <c r="N473" s="8" t="b">
+      <c r="N473" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34125,7 +34056,7 @@
       <c r="F474" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G474" s="6" t="s">
+      <c r="G474" s="7" t="s">
         <v>1559</v>
       </c>
       <c r="H474" s="3" t="n">
@@ -34140,7 +34071,7 @@
         <v>292</v>
       </c>
       <c r="M474" s="3"/>
-      <c r="N474" s="8" t="b">
+      <c r="N474" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34182,7 +34113,7 @@
       <c r="F475" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G475" s="7" t="s">
+      <c r="G475" s="8" t="s">
         <v>1562</v>
       </c>
       <c r="H475" s="3" t="n">
@@ -34197,7 +34128,7 @@
         <v>292</v>
       </c>
       <c r="M475" s="3"/>
-      <c r="N475" s="8" t="b">
+      <c r="N475" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34239,7 +34170,7 @@
       <c r="F476" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G476" s="7" t="s">
+      <c r="G476" s="8" t="s">
         <v>1565</v>
       </c>
       <c r="H476" s="3" t="n">
@@ -34254,7 +34185,7 @@
         <v>292</v>
       </c>
       <c r="M476" s="3"/>
-      <c r="N476" s="8" t="b">
+      <c r="N476" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34296,7 +34227,7 @@
       <c r="F477" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G477" s="7" t="s">
+      <c r="G477" s="8" t="s">
         <v>1568</v>
       </c>
       <c r="H477" s="3" t="n">
@@ -34311,7 +34242,7 @@
         <v>292</v>
       </c>
       <c r="M477" s="3"/>
-      <c r="N477" s="8" t="b">
+      <c r="N477" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34353,7 +34284,7 @@
       <c r="F478" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G478" s="6" t="s">
+      <c r="G478" s="7" t="s">
         <v>1571</v>
       </c>
       <c r="H478" s="3" t="n">
@@ -34368,7 +34299,7 @@
         <v>292</v>
       </c>
       <c r="M478" s="3"/>
-      <c r="N478" s="8" t="b">
+      <c r="N478" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34410,7 +34341,7 @@
       <c r="F479" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G479" s="6" t="s">
+      <c r="G479" s="7" t="s">
         <v>1574</v>
       </c>
       <c r="H479" s="3" t="n">
@@ -34425,7 +34356,7 @@
         <v>292</v>
       </c>
       <c r="M479" s="3"/>
-      <c r="N479" s="8" t="b">
+      <c r="N479" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34467,7 +34398,7 @@
       <c r="F480" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G480" s="6" t="s">
+      <c r="G480" s="7" t="s">
         <v>1577</v>
       </c>
       <c r="H480" s="3" t="n">
@@ -34482,7 +34413,7 @@
         <v>292</v>
       </c>
       <c r="M480" s="3"/>
-      <c r="N480" s="8" t="b">
+      <c r="N480" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34524,7 +34455,7 @@
       <c r="F481" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G481" s="6" t="s">
+      <c r="G481" s="7" t="s">
         <v>1580</v>
       </c>
       <c r="H481" s="3" t="n">
@@ -34539,7 +34470,7 @@
         <v>292</v>
       </c>
       <c r="M481" s="3"/>
-      <c r="N481" s="8" t="b">
+      <c r="N481" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34581,7 +34512,7 @@
       <c r="F482" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G482" s="6" t="s">
+      <c r="G482" s="7" t="s">
         <v>1583</v>
       </c>
       <c r="H482" s="3" t="n">
@@ -34596,7 +34527,7 @@
         <v>292</v>
       </c>
       <c r="M482" s="3"/>
-      <c r="N482" s="8" t="b">
+      <c r="N482" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34638,7 +34569,7 @@
       <c r="F483" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G483" s="6" t="s">
+      <c r="G483" s="7" t="s">
         <v>1586</v>
       </c>
       <c r="H483" s="3" t="n">
@@ -34653,7 +34584,7 @@
         <v>292</v>
       </c>
       <c r="M483" s="3"/>
-      <c r="N483" s="8" t="b">
+      <c r="N483" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34695,7 +34626,7 @@
       <c r="F484" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G484" s="6" t="s">
+      <c r="G484" s="7" t="s">
         <v>1589</v>
       </c>
       <c r="H484" s="3" t="n">
@@ -34710,7 +34641,7 @@
         <v>292</v>
       </c>
       <c r="M484" s="3"/>
-      <c r="N484" s="8" t="b">
+      <c r="N484" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34752,7 +34683,7 @@
       <c r="F485" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G485" s="6" t="s">
+      <c r="G485" s="7" t="s">
         <v>1592</v>
       </c>
       <c r="H485" s="3" t="n">
@@ -34767,7 +34698,7 @@
         <v>292</v>
       </c>
       <c r="M485" s="3"/>
-      <c r="N485" s="8" t="b">
+      <c r="N485" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34809,7 +34740,7 @@
       <c r="F486" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G486" s="6" t="s">
+      <c r="G486" s="7" t="s">
         <v>1595</v>
       </c>
       <c r="H486" s="3" t="n">
@@ -34824,7 +34755,7 @@
         <v>292</v>
       </c>
       <c r="M486" s="3"/>
-      <c r="N486" s="8" t="b">
+      <c r="N486" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34866,7 +34797,7 @@
       <c r="F487" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G487" s="6"/>
+      <c r="G487" s="7"/>
       <c r="H487" s="3"/>
       <c r="I487" s="3" t="s">
         <v>1598</v>
@@ -34881,7 +34812,7 @@
         <v>292</v>
       </c>
       <c r="M487" s="3"/>
-      <c r="N487" s="8" t="b">
+      <c r="N487" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34923,7 +34854,7 @@
       <c r="F488" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G488" s="6" t="s">
+      <c r="G488" s="7" t="s">
         <v>1602</v>
       </c>
       <c r="H488" s="3" t="n">
@@ -34938,7 +34869,7 @@
         <v>292</v>
       </c>
       <c r="M488" s="3"/>
-      <c r="N488" s="8" t="b">
+      <c r="N488" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -34980,7 +34911,7 @@
       <c r="F489" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G489" s="6" t="s">
+      <c r="G489" s="7" t="s">
         <v>1605</v>
       </c>
       <c r="H489" s="3" t="n">
@@ -34995,7 +34926,7 @@
         <v>292</v>
       </c>
       <c r="M489" s="3"/>
-      <c r="N489" s="8" t="b">
+      <c r="N489" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35037,7 +34968,7 @@
       <c r="F490" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G490" s="7" t="s">
+      <c r="G490" s="8" t="s">
         <v>1608</v>
       </c>
       <c r="H490" s="3" t="n">
@@ -35052,7 +34983,7 @@
         <v>292</v>
       </c>
       <c r="M490" s="3"/>
-      <c r="N490" s="8" t="b">
+      <c r="N490" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35094,7 +35025,7 @@
       <c r="F491" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G491" s="7" t="s">
+      <c r="G491" s="8" t="s">
         <v>1611</v>
       </c>
       <c r="H491" s="3" t="n">
@@ -35109,7 +35040,7 @@
         <v>292</v>
       </c>
       <c r="M491" s="3"/>
-      <c r="N491" s="8" t="b">
+      <c r="N491" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35151,7 +35082,7 @@
       <c r="F492" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G492" s="7" t="s">
+      <c r="G492" s="8" t="s">
         <v>1614</v>
       </c>
       <c r="H492" s="3" t="n">
@@ -35166,7 +35097,7 @@
         <v>292</v>
       </c>
       <c r="M492" s="3"/>
-      <c r="N492" s="8" t="b">
+      <c r="N492" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35208,7 +35139,7 @@
       <c r="F493" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G493" s="6" t="s">
+      <c r="G493" s="7" t="s">
         <v>1617</v>
       </c>
       <c r="H493" s="3" t="n">
@@ -35223,7 +35154,7 @@
         <v>292</v>
       </c>
       <c r="M493" s="3"/>
-      <c r="N493" s="8" t="b">
+      <c r="N493" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35265,7 +35196,7 @@
       <c r="F494" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G494" s="6" t="s">
+      <c r="G494" s="7" t="s">
         <v>1620</v>
       </c>
       <c r="H494" s="3" t="n">
@@ -35280,7 +35211,7 @@
         <v>292</v>
       </c>
       <c r="M494" s="3"/>
-      <c r="N494" s="8" t="b">
+      <c r="N494" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35322,7 +35253,7 @@
       <c r="F495" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G495" s="6" t="s">
+      <c r="G495" s="7" t="s">
         <v>1623</v>
       </c>
       <c r="H495" s="3" t="n">
@@ -35337,7 +35268,7 @@
         <v>292</v>
       </c>
       <c r="M495" s="3"/>
-      <c r="N495" s="8" t="b">
+      <c r="N495" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35379,7 +35310,7 @@
       <c r="F496" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G496" s="6" t="s">
+      <c r="G496" s="7" t="s">
         <v>1626</v>
       </c>
       <c r="H496" s="3" t="n">
@@ -35394,7 +35325,7 @@
         <v>292</v>
       </c>
       <c r="M496" s="3"/>
-      <c r="N496" s="8" t="b">
+      <c r="N496" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35436,7 +35367,7 @@
       <c r="F497" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G497" s="6" t="s">
+      <c r="G497" s="7" t="s">
         <v>1629</v>
       </c>
       <c r="H497" s="3" t="n">
@@ -35451,7 +35382,7 @@
         <v>292</v>
       </c>
       <c r="M497" s="3"/>
-      <c r="N497" s="8" t="b">
+      <c r="N497" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35493,7 +35424,7 @@
       <c r="F498" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G498" s="6" t="s">
+      <c r="G498" s="7" t="s">
         <v>1632</v>
       </c>
       <c r="H498" s="3" t="n">
@@ -35508,7 +35439,7 @@
         <v>292</v>
       </c>
       <c r="M498" s="3"/>
-      <c r="N498" s="8" t="b">
+      <c r="N498" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35550,7 +35481,7 @@
       <c r="F499" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G499" s="6" t="s">
+      <c r="G499" s="7" t="s">
         <v>1635</v>
       </c>
       <c r="H499" s="3" t="n">
@@ -35565,7 +35496,7 @@
         <v>292</v>
       </c>
       <c r="M499" s="3"/>
-      <c r="N499" s="8" t="b">
+      <c r="N499" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35607,7 +35538,7 @@
       <c r="F500" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G500" s="6" t="s">
+      <c r="G500" s="7" t="s">
         <v>1638</v>
       </c>
       <c r="H500" s="3" t="n">
@@ -35622,7 +35553,7 @@
         <v>292</v>
       </c>
       <c r="M500" s="3"/>
-      <c r="N500" s="8" t="b">
+      <c r="N500" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35664,7 +35595,7 @@
       <c r="F501" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G501" s="6" t="s">
+      <c r="G501" s="7" t="s">
         <v>1641</v>
       </c>
       <c r="H501" s="3" t="n">
@@ -35679,7 +35610,7 @@
         <v>292</v>
       </c>
       <c r="M501" s="3"/>
-      <c r="N501" s="8" t="b">
+      <c r="N501" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35721,7 +35652,7 @@
       <c r="F502" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G502" s="6" t="s">
+      <c r="G502" s="7" t="s">
         <v>1644</v>
       </c>
       <c r="H502" s="3" t="n">
@@ -35736,7 +35667,7 @@
         <v>292</v>
       </c>
       <c r="M502" s="3"/>
-      <c r="N502" s="8" t="b">
+      <c r="N502" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35778,7 +35709,7 @@
       <c r="F503" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G503" s="6" t="s">
+      <c r="G503" s="7" t="s">
         <v>1647</v>
       </c>
       <c r="H503" s="3" t="n">
@@ -35793,7 +35724,7 @@
         <v>292</v>
       </c>
       <c r="M503" s="3"/>
-      <c r="N503" s="8" t="b">
+      <c r="N503" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35835,7 +35766,7 @@
       <c r="F504" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G504" s="6" t="s">
+      <c r="G504" s="7" t="s">
         <v>1650</v>
       </c>
       <c r="H504" s="3" t="n">
@@ -35850,7 +35781,7 @@
         <v>292</v>
       </c>
       <c r="M504" s="3"/>
-      <c r="N504" s="8" t="b">
+      <c r="N504" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35892,7 +35823,7 @@
       <c r="F505" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G505" s="7" t="s">
+      <c r="G505" s="8" t="s">
         <v>1653</v>
       </c>
       <c r="H505" s="3" t="n">
@@ -35907,7 +35838,7 @@
         <v>292</v>
       </c>
       <c r="M505" s="3"/>
-      <c r="N505" s="8" t="b">
+      <c r="N505" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -35949,7 +35880,7 @@
       <c r="F506" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G506" s="7" t="s">
+      <c r="G506" s="8" t="s">
         <v>1656</v>
       </c>
       <c r="H506" s="3" t="n">
@@ -35964,7 +35895,7 @@
         <v>292</v>
       </c>
       <c r="M506" s="3"/>
-      <c r="N506" s="8" t="b">
+      <c r="N506" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36006,7 +35937,7 @@
       <c r="F507" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G507" s="7" t="s">
+      <c r="G507" s="8" t="s">
         <v>1659</v>
       </c>
       <c r="H507" s="3" t="n">
@@ -36021,7 +35952,7 @@
         <v>292</v>
       </c>
       <c r="M507" s="3"/>
-      <c r="N507" s="8" t="b">
+      <c r="N507" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36063,7 +35994,7 @@
       <c r="F508" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G508" s="6" t="s">
+      <c r="G508" s="7" t="s">
         <v>1662</v>
       </c>
       <c r="H508" s="3" t="n">
@@ -36078,7 +36009,7 @@
         <v>292</v>
       </c>
       <c r="M508" s="3"/>
-      <c r="N508" s="8" t="b">
+      <c r="N508" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36120,7 +36051,7 @@
       <c r="F509" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G509" s="6" t="s">
+      <c r="G509" s="7" t="s">
         <v>1665</v>
       </c>
       <c r="H509" s="3" t="n">
@@ -36135,7 +36066,7 @@
         <v>292</v>
       </c>
       <c r="M509" s="3"/>
-      <c r="N509" s="8" t="b">
+      <c r="N509" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36177,7 +36108,7 @@
       <c r="F510" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G510" s="6" t="s">
+      <c r="G510" s="7" t="s">
         <v>1668</v>
       </c>
       <c r="H510" s="3" t="n">
@@ -36192,7 +36123,7 @@
         <v>292</v>
       </c>
       <c r="M510" s="3"/>
-      <c r="N510" s="8" t="b">
+      <c r="N510" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36234,7 +36165,7 @@
       <c r="F511" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G511" s="6" t="s">
+      <c r="G511" s="7" t="s">
         <v>1671</v>
       </c>
       <c r="H511" s="3" t="n">
@@ -36249,7 +36180,7 @@
         <v>292</v>
       </c>
       <c r="M511" s="3"/>
-      <c r="N511" s="8" t="b">
+      <c r="N511" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36291,7 +36222,7 @@
       <c r="F512" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G512" s="6" t="s">
+      <c r="G512" s="7" t="s">
         <v>1674</v>
       </c>
       <c r="H512" s="3" t="n">
@@ -36306,7 +36237,7 @@
         <v>292</v>
       </c>
       <c r="M512" s="3"/>
-      <c r="N512" s="8" t="b">
+      <c r="N512" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36348,7 +36279,7 @@
       <c r="F513" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G513" s="6" t="s">
+      <c r="G513" s="7" t="s">
         <v>1677</v>
       </c>
       <c r="H513" s="3" t="n">
@@ -36363,7 +36294,7 @@
         <v>292</v>
       </c>
       <c r="M513" s="3"/>
-      <c r="N513" s="8" t="b">
+      <c r="N513" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36405,7 +36336,7 @@
       <c r="F514" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G514" s="6" t="s">
+      <c r="G514" s="7" t="s">
         <v>1680</v>
       </c>
       <c r="H514" s="3" t="n">
@@ -36420,7 +36351,7 @@
         <v>292</v>
       </c>
       <c r="M514" s="3"/>
-      <c r="N514" s="8" t="b">
+      <c r="N514" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36462,7 +36393,7 @@
       <c r="F515" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G515" s="6" t="s">
+      <c r="G515" s="7" t="s">
         <v>1683</v>
       </c>
       <c r="H515" s="3" t="n">
@@ -36477,7 +36408,7 @@
         <v>292</v>
       </c>
       <c r="M515" s="3"/>
-      <c r="N515" s="8" t="b">
+      <c r="N515" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36519,7 +36450,7 @@
       <c r="F516" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G516" s="6" t="s">
+      <c r="G516" s="7" t="s">
         <v>1686</v>
       </c>
       <c r="H516" s="3" t="n">
@@ -36534,7 +36465,7 @@
         <v>292</v>
       </c>
       <c r="M516" s="3"/>
-      <c r="N516" s="8" t="b">
+      <c r="N516" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36576,7 +36507,7 @@
       <c r="F517" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G517" s="6" t="s">
+      <c r="G517" s="7" t="s">
         <v>1689</v>
       </c>
       <c r="H517" s="3" t="n">
@@ -36591,7 +36522,7 @@
         <v>292</v>
       </c>
       <c r="M517" s="3"/>
-      <c r="N517" s="8" t="b">
+      <c r="N517" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36633,7 +36564,7 @@
       <c r="F518" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G518" s="6" t="s">
+      <c r="G518" s="7" t="s">
         <v>1692</v>
       </c>
       <c r="H518" s="3" t="n">
@@ -36648,7 +36579,7 @@
         <v>292</v>
       </c>
       <c r="M518" s="3"/>
-      <c r="N518" s="8" t="b">
+      <c r="N518" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36690,7 +36621,7 @@
       <c r="F519" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G519" s="6" t="s">
+      <c r="G519" s="7" t="s">
         <v>1695</v>
       </c>
       <c r="H519" s="3" t="n">
@@ -36705,7 +36636,7 @@
         <v>292</v>
       </c>
       <c r="M519" s="3"/>
-      <c r="N519" s="8" t="b">
+      <c r="N519" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36747,7 +36678,7 @@
       <c r="F520" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G520" s="7" t="s">
+      <c r="G520" s="8" t="s">
         <v>1698</v>
       </c>
       <c r="H520" s="3" t="n">
@@ -36762,7 +36693,7 @@
         <v>292</v>
       </c>
       <c r="M520" s="3"/>
-      <c r="N520" s="8" t="b">
+      <c r="N520" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36804,7 +36735,7 @@
       <c r="F521" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G521" s="7" t="s">
+      <c r="G521" s="8" t="s">
         <v>1701</v>
       </c>
       <c r="H521" s="3" t="n">
@@ -36819,7 +36750,7 @@
         <v>292</v>
       </c>
       <c r="M521" s="3"/>
-      <c r="N521" s="8" t="b">
+      <c r="N521" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36861,7 +36792,7 @@
       <c r="F522" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G522" s="7" t="s">
+      <c r="G522" s="8" t="s">
         <v>1704</v>
       </c>
       <c r="H522" s="3" t="n">
@@ -36876,7 +36807,7 @@
         <v>292</v>
       </c>
       <c r="M522" s="3"/>
-      <c r="N522" s="8" t="b">
+      <c r="N522" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36918,7 +36849,7 @@
       <c r="F523" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G523" s="6" t="s">
+      <c r="G523" s="7" t="s">
         <v>1707</v>
       </c>
       <c r="H523" s="3" t="n">
@@ -36933,7 +36864,7 @@
         <v>292</v>
       </c>
       <c r="M523" s="3"/>
-      <c r="N523" s="8" t="b">
+      <c r="N523" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -36975,7 +36906,7 @@
       <c r="F524" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G524" s="6" t="s">
+      <c r="G524" s="7" t="s">
         <v>1710</v>
       </c>
       <c r="H524" s="3" t="n">
@@ -36990,7 +36921,7 @@
         <v>292</v>
       </c>
       <c r="M524" s="3"/>
-      <c r="N524" s="8" t="b">
+      <c r="N524" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37032,7 +36963,7 @@
       <c r="F525" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G525" s="6" t="s">
+      <c r="G525" s="7" t="s">
         <v>1714</v>
       </c>
       <c r="H525" s="3" t="n">
@@ -37047,7 +36978,7 @@
         <v>22</v>
       </c>
       <c r="M525" s="3"/>
-      <c r="N525" s="8" t="b">
+      <c r="N525" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37089,7 +37020,7 @@
       <c r="F526" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G526" s="6" t="s">
+      <c r="G526" s="7" t="s">
         <v>1718</v>
       </c>
       <c r="H526" s="3" t="n">
@@ -37104,7 +37035,7 @@
         <v>22</v>
       </c>
       <c r="M526" s="3"/>
-      <c r="N526" s="8" t="b">
+      <c r="N526" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37146,7 +37077,7 @@
       <c r="F527" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G527" s="6"/>
+      <c r="G527" s="7"/>
       <c r="H527" s="3"/>
       <c r="I527" s="3" t="s">
         <v>1722</v>
@@ -37161,7 +37092,7 @@
         <v>565</v>
       </c>
       <c r="M527" s="3"/>
-      <c r="N527" s="8" t="b">
+      <c r="N527" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37203,7 +37134,7 @@
       <c r="F528" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G528" s="6"/>
+      <c r="G528" s="7"/>
       <c r="H528" s="3"/>
       <c r="I528" s="3" t="s">
         <v>1727</v>
@@ -37218,7 +37149,7 @@
         <v>22</v>
       </c>
       <c r="M528" s="3"/>
-      <c r="N528" s="8" t="b">
+      <c r="N528" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -37260,7 +37191,7 @@
       <c r="F529" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G529" s="6" t="s">
+      <c r="G529" s="7" t="s">
         <v>1732</v>
       </c>
       <c r="H529" s="3" t="n">
@@ -37275,7 +37206,7 @@
         <v>22</v>
       </c>
       <c r="M529" s="3"/>
-      <c r="N529" s="8" t="b">
+      <c r="N529" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37317,7 +37248,7 @@
       <c r="F530" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G530" s="6" t="s">
+      <c r="G530" s="7" t="s">
         <v>1735</v>
       </c>
       <c r="H530" s="3" t="s">
@@ -37332,7 +37263,7 @@
         <v>22</v>
       </c>
       <c r="M530" s="3"/>
-      <c r="N530" s="8" t="b">
+      <c r="N530" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37376,7 +37307,7 @@
       <c r="F531" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G531" s="6" t="s">
+      <c r="G531" s="7" t="s">
         <v>1739</v>
       </c>
       <c r="H531" s="3" t="n">
@@ -37391,7 +37322,7 @@
         <v>22</v>
       </c>
       <c r="M531" s="3"/>
-      <c r="N531" s="8" t="b">
+      <c r="N531" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37433,7 +37364,7 @@
       <c r="F532" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G532" s="6" t="s">
+      <c r="G532" s="7" t="s">
         <v>1743</v>
       </c>
       <c r="H532" s="3" t="n">
@@ -37448,7 +37379,7 @@
         <v>22</v>
       </c>
       <c r="M532" s="3"/>
-      <c r="N532" s="8" t="b">
+      <c r="N532" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37490,7 +37421,7 @@
       <c r="F533" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G533" s="6" t="s">
+      <c r="G533" s="7" t="s">
         <v>1746</v>
       </c>
       <c r="H533" s="3" t="n">
@@ -37505,7 +37436,7 @@
         <v>22</v>
       </c>
       <c r="M533" s="3"/>
-      <c r="N533" s="8" t="b">
+      <c r="N533" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37547,7 +37478,7 @@
       <c r="F534" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G534" s="6" t="s">
+      <c r="G534" s="7" t="s">
         <v>1749</v>
       </c>
       <c r="H534" s="3" t="n">
@@ -37562,7 +37493,7 @@
         <v>22</v>
       </c>
       <c r="M534" s="3"/>
-      <c r="N534" s="8" t="b">
+      <c r="N534" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37604,7 +37535,7 @@
       <c r="F535" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G535" s="7" t="s">
+      <c r="G535" s="8" t="s">
         <v>1752</v>
       </c>
       <c r="H535" s="3" t="n">
@@ -37619,7 +37550,7 @@
         <v>22</v>
       </c>
       <c r="M535" s="3"/>
-      <c r="N535" s="8" t="b">
+      <c r="N535" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37661,7 +37592,7 @@
       <c r="F536" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G536" s="6"/>
+      <c r="G536" s="7"/>
       <c r="H536" s="3"/>
       <c r="I536" s="3" t="s">
         <v>1756</v>
@@ -37676,7 +37607,7 @@
         <v>22</v>
       </c>
       <c r="M536" s="3"/>
-      <c r="N536" s="8" t="b">
+      <c r="N536" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37718,7 +37649,7 @@
       <c r="F537" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G537" s="7" t="s">
+      <c r="G537" s="8" t="s">
         <v>1761</v>
       </c>
       <c r="H537" s="3" t="n">
@@ -37733,7 +37664,7 @@
         <v>22</v>
       </c>
       <c r="M537" s="3"/>
-      <c r="N537" s="8" t="b">
+      <c r="N537" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37775,7 +37706,7 @@
       <c r="F538" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G538" s="6" t="s">
+      <c r="G538" s="7" t="s">
         <v>1765</v>
       </c>
       <c r="H538" s="3" t="n">
@@ -37790,7 +37721,7 @@
         <v>22</v>
       </c>
       <c r="M538" s="3"/>
-      <c r="N538" s="8" t="b">
+      <c r="N538" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37832,7 +37763,7 @@
       <c r="F539" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G539" s="6"/>
+      <c r="G539" s="7"/>
       <c r="H539" s="3"/>
       <c r="I539" s="3" t="s">
         <v>1769</v>
@@ -37847,7 +37778,7 @@
         <v>22</v>
       </c>
       <c r="M539" s="3"/>
-      <c r="N539" s="8" t="b">
+      <c r="N539" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37891,7 +37822,7 @@
       <c r="F540" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G540" s="6" t="s">
+      <c r="G540" s="7" t="s">
         <v>1773</v>
       </c>
       <c r="H540" s="3" t="n">
@@ -37906,7 +37837,7 @@
         <v>22</v>
       </c>
       <c r="M540" s="3"/>
-      <c r="N540" s="8" t="b">
+      <c r="N540" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -37948,7 +37879,7 @@
       <c r="F541" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G541" s="6" t="s">
+      <c r="G541" s="7" t="s">
         <v>1776</v>
       </c>
       <c r="H541" s="3" t="n">
@@ -37963,7 +37894,7 @@
         <v>22</v>
       </c>
       <c r="M541" s="3"/>
-      <c r="N541" s="8" t="b">
+      <c r="N541" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -38005,7 +37936,7 @@
       <c r="F542" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G542" s="6" t="s">
+      <c r="G542" s="7" t="s">
         <v>1780</v>
       </c>
       <c r="H542" s="3" t="n">
@@ -38020,7 +37951,7 @@
         <v>292</v>
       </c>
       <c r="M542" s="3"/>
-      <c r="N542" s="8" t="b">
+      <c r="N542" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -38062,7 +37993,7 @@
       <c r="F543" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G543" s="6" t="s">
+      <c r="G543" s="7" t="s">
         <v>1784</v>
       </c>
       <c r="H543" s="3" t="n">
@@ -38077,7 +38008,7 @@
         <v>22</v>
       </c>
       <c r="M543" s="3"/>
-      <c r="N543" s="8" t="b">
+      <c r="N543" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38119,7 +38050,7 @@
       <c r="F544" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G544" s="6" t="s">
+      <c r="G544" s="7" t="s">
         <v>1787</v>
       </c>
       <c r="H544" s="3" t="n">
@@ -38134,7 +38065,7 @@
         <v>22</v>
       </c>
       <c r="M544" s="3"/>
-      <c r="N544" s="8" t="b">
+      <c r="N544" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38176,7 +38107,7 @@
       <c r="F545" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G545" s="6" t="s">
+      <c r="G545" s="7" t="s">
         <v>1790</v>
       </c>
       <c r="H545" s="3" t="n">
@@ -38191,7 +38122,7 @@
         <v>22</v>
       </c>
       <c r="M545" s="3"/>
-      <c r="N545" s="8" t="b">
+      <c r="N545" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38233,7 +38164,7 @@
       <c r="F546" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G546" s="6" t="s">
+      <c r="G546" s="7" t="s">
         <v>1793</v>
       </c>
       <c r="H546" s="3" t="n">
@@ -38248,7 +38179,7 @@
         <v>22</v>
       </c>
       <c r="M546" s="3"/>
-      <c r="N546" s="8" t="b">
+      <c r="N546" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38290,7 +38221,7 @@
       <c r="F547" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G547" s="6" t="s">
+      <c r="G547" s="7" t="s">
         <v>1796</v>
       </c>
       <c r="H547" s="3" t="n">
@@ -38305,7 +38236,7 @@
         <v>22</v>
       </c>
       <c r="M547" s="3"/>
-      <c r="N547" s="8" t="b">
+      <c r="N547" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38347,7 +38278,7 @@
       <c r="F548" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G548" s="6" t="s">
+      <c r="G548" s="7" t="s">
         <v>1799</v>
       </c>
       <c r="H548" s="3" t="n">
@@ -38362,7 +38293,7 @@
         <v>22</v>
       </c>
       <c r="M548" s="3"/>
-      <c r="N548" s="8" t="b">
+      <c r="N548" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38404,7 +38335,7 @@
       <c r="F549" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G549" s="6" t="s">
+      <c r="G549" s="7" t="s">
         <v>1802</v>
       </c>
       <c r="H549" s="3" t="n">
@@ -38419,7 +38350,7 @@
         <v>22</v>
       </c>
       <c r="M549" s="3"/>
-      <c r="N549" s="8" t="b">
+      <c r="N549" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38461,7 +38392,7 @@
       <c r="F550" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G550" s="6" t="s">
+      <c r="G550" s="7" t="s">
         <v>1805</v>
       </c>
       <c r="H550" s="3" t="n">
@@ -38476,7 +38407,7 @@
         <v>22</v>
       </c>
       <c r="M550" s="3"/>
-      <c r="N550" s="8" t="b">
+      <c r="N550" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38518,7 +38449,7 @@
       <c r="F551" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G551" s="7" t="s">
+      <c r="G551" s="8" t="s">
         <v>1808</v>
       </c>
       <c r="H551" s="3" t="n">
@@ -38533,7 +38464,7 @@
         <v>22</v>
       </c>
       <c r="M551" s="3"/>
-      <c r="N551" s="8" t="b">
+      <c r="N551" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38575,7 +38506,7 @@
       <c r="F552" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G552" s="7" t="s">
+      <c r="G552" s="8" t="s">
         <v>1811</v>
       </c>
       <c r="H552" s="3" t="n">
@@ -38590,7 +38521,7 @@
         <v>22</v>
       </c>
       <c r="M552" s="3"/>
-      <c r="N552" s="8" t="b">
+      <c r="N552" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38632,7 +38563,7 @@
       <c r="F553" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G553" s="7" t="s">
+      <c r="G553" s="8" t="s">
         <v>1814</v>
       </c>
       <c r="H553" s="3" t="n">
@@ -38647,7 +38578,7 @@
         <v>22</v>
       </c>
       <c r="M553" s="3"/>
-      <c r="N553" s="8" t="b">
+      <c r="N553" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38689,7 +38620,7 @@
       <c r="F554" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G554" s="6" t="s">
+      <c r="G554" s="7" t="s">
         <v>1817</v>
       </c>
       <c r="H554" s="3" t="n">
@@ -38704,7 +38635,7 @@
         <v>22</v>
       </c>
       <c r="M554" s="3"/>
-      <c r="N554" s="8" t="b">
+      <c r="N554" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38746,7 +38677,7 @@
       <c r="F555" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G555" s="6" t="s">
+      <c r="G555" s="7" t="s">
         <v>1820</v>
       </c>
       <c r="H555" s="3" t="n">
@@ -38761,7 +38692,7 @@
         <v>22</v>
       </c>
       <c r="M555" s="3"/>
-      <c r="N555" s="8" t="b">
+      <c r="N555" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38803,7 +38734,7 @@
       <c r="F556" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G556" s="6" t="s">
+      <c r="G556" s="7" t="s">
         <v>1823</v>
       </c>
       <c r="H556" s="3" t="n">
@@ -38818,7 +38749,7 @@
         <v>22</v>
       </c>
       <c r="M556" s="3"/>
-      <c r="N556" s="8" t="b">
+      <c r="N556" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -38860,7 +38791,7 @@
       <c r="F557" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G557" s="6" t="s">
+      <c r="G557" s="7" t="s">
         <v>1827</v>
       </c>
       <c r="H557" s="3" t="n">
@@ -38875,7 +38806,7 @@
         <v>22</v>
       </c>
       <c r="M557" s="3"/>
-      <c r="N557" s="8" t="b">
+      <c r="N557" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -38917,7 +38848,7 @@
       <c r="F558" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G558" s="6"/>
+      <c r="G558" s="7"/>
       <c r="H558" s="3"/>
       <c r="I558" s="3" t="s">
         <v>1831</v>
@@ -38932,7 +38863,7 @@
         <v>22</v>
       </c>
       <c r="M558" s="3"/>
-      <c r="N558" s="8" t="b">
+      <c r="N558" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -38976,7 +38907,7 @@
       <c r="F559" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G559" s="6"/>
+      <c r="G559" s="7"/>
       <c r="H559" s="3"/>
       <c r="I559" s="3" t="s">
         <v>1836</v>
@@ -38991,7 +38922,7 @@
         <v>565</v>
       </c>
       <c r="M559" s="3"/>
-      <c r="N559" s="8" t="b">
+      <c r="N559" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -39033,7 +38964,7 @@
       <c r="F560" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G560" s="6"/>
+      <c r="G560" s="7"/>
       <c r="H560" s="3"/>
       <c r="I560" s="3" t="s">
         <v>1841</v>
@@ -39048,7 +38979,7 @@
         <v>22</v>
       </c>
       <c r="M560" s="3"/>
-      <c r="N560" s="8" t="b">
+      <c r="N560" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -39090,7 +39021,7 @@
       <c r="F561" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G561" s="7" t="s">
+      <c r="G561" s="8" t="s">
         <v>1846</v>
       </c>
       <c r="H561" s="3" t="n">
@@ -39105,7 +39036,7 @@
         <v>565</v>
       </c>
       <c r="M561" s="3"/>
-      <c r="N561" s="8" t="b">
+      <c r="N561" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39147,7 +39078,7 @@
       <c r="F562" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G562" s="7" t="s">
+      <c r="G562" s="8" t="s">
         <v>1849</v>
       </c>
       <c r="H562" s="3" t="n">
@@ -39162,7 +39093,7 @@
         <v>565</v>
       </c>
       <c r="M562" s="3"/>
-      <c r="N562" s="8" t="b">
+      <c r="N562" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -39204,7 +39135,7 @@
       <c r="F563" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G563" s="6" t="s">
+      <c r="G563" s="7" t="s">
         <v>1852</v>
       </c>
       <c r="H563" s="3" t="n">
@@ -39219,7 +39150,7 @@
         <v>565</v>
       </c>
       <c r="M563" s="3"/>
-      <c r="N563" s="8" t="b">
+      <c r="N563" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -39261,7 +39192,7 @@
       <c r="F564" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G564" s="6" t="s">
+      <c r="G564" s="7" t="s">
         <v>1856</v>
       </c>
       <c r="H564" s="3" t="n">
@@ -39276,7 +39207,7 @@
         <v>22</v>
       </c>
       <c r="M564" s="3"/>
-      <c r="N564" s="8" t="b">
+      <c r="N564" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39318,7 +39249,7 @@
       <c r="F565" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G565" s="6" t="s">
+      <c r="G565" s="7" t="s">
         <v>1859</v>
       </c>
       <c r="H565" s="3" t="n">
@@ -39333,7 +39264,7 @@
         <v>22</v>
       </c>
       <c r="M565" s="3"/>
-      <c r="N565" s="8" t="b">
+      <c r="N565" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39375,7 +39306,7 @@
       <c r="F566" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G566" s="6" t="s">
+      <c r="G566" s="7" t="s">
         <v>1862</v>
       </c>
       <c r="H566" s="3" t="n">
@@ -39390,7 +39321,7 @@
         <v>22</v>
       </c>
       <c r="M566" s="3"/>
-      <c r="N566" s="8" t="b">
+      <c r="N566" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39432,7 +39363,7 @@
       <c r="F567" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G567" s="6" t="s">
+      <c r="G567" s="7" t="s">
         <v>1859</v>
       </c>
       <c r="H567" s="3" t="n">
@@ -39447,7 +39378,7 @@
         <v>22</v>
       </c>
       <c r="M567" s="3"/>
-      <c r="N567" s="8" t="b">
+      <c r="N567" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39489,7 +39420,7 @@
       <c r="F568" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G568" s="6" t="s">
+      <c r="G568" s="7" t="s">
         <v>1866</v>
       </c>
       <c r="H568" s="3" t="n">
@@ -39504,7 +39435,7 @@
         <v>22</v>
       </c>
       <c r="M568" s="3"/>
-      <c r="N568" s="8" t="b">
+      <c r="N568" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39546,7 +39477,7 @@
       <c r="F569" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G569" s="6"/>
+      <c r="G569" s="7"/>
       <c r="H569" s="3"/>
       <c r="I569" s="3" t="s">
         <v>1870</v>
@@ -39561,7 +39492,7 @@
         <v>22</v>
       </c>
       <c r="M569" s="3"/>
-      <c r="N569" s="8" t="b">
+      <c r="N569" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -39603,7 +39534,7 @@
       <c r="F570" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G570" s="6" t="s">
+      <c r="G570" s="7" t="s">
         <v>1874</v>
       </c>
       <c r="H570" s="3" t="n">
@@ -39618,7 +39549,7 @@
         <v>22</v>
       </c>
       <c r="M570" s="3"/>
-      <c r="N570" s="8" t="b">
+      <c r="N570" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -39660,7 +39591,7 @@
       <c r="F571" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G571" s="6"/>
+      <c r="G571" s="7"/>
       <c r="H571" s="3"/>
       <c r="I571" s="3" t="s">
         <v>1878</v>
@@ -39675,7 +39606,7 @@
         <v>22</v>
       </c>
       <c r="M571" s="3"/>
-      <c r="N571" s="8" t="b">
+      <c r="N571" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -39719,7 +39650,7 @@
       <c r="F572" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G572" s="6"/>
+      <c r="G572" s="7"/>
       <c r="H572" s="3"/>
       <c r="I572" s="3" t="s">
         <v>1883</v>
@@ -39734,7 +39665,7 @@
         <v>292</v>
       </c>
       <c r="M572" s="3"/>
-      <c r="N572" s="8" t="b">
+      <c r="N572" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -39793,7 +39724,7 @@
         <v>292</v>
       </c>
       <c r="M573" s="3"/>
-      <c r="N573" s="8" t="b">
+      <c r="N573" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39835,7 +39766,7 @@
       <c r="F574" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G574" s="6" t="s">
+      <c r="G574" s="7" t="s">
         <v>1891</v>
       </c>
       <c r="H574" s="3" t="n">
@@ -39850,7 +39781,7 @@
         <v>292</v>
       </c>
       <c r="M574" s="3"/>
-      <c r="N574" s="8" t="b">
+      <c r="N574" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39892,7 +39823,7 @@
       <c r="F575" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G575" s="6"/>
+      <c r="G575" s="7"/>
       <c r="H575" s="3"/>
       <c r="I575" s="3" t="s">
         <v>1895</v>
@@ -39907,7 +39838,7 @@
         <v>565</v>
       </c>
       <c r="M575" s="3"/>
-      <c r="N575" s="8" t="b">
+      <c r="N575" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -39964,7 +39895,7 @@
         <v>22</v>
       </c>
       <c r="M576" s="3"/>
-      <c r="N576" s="8" t="b">
+      <c r="N576" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40008,7 +39939,7 @@
       <c r="F577" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G577" s="6" t="s">
+      <c r="G577" s="7" t="s">
         <v>1905</v>
       </c>
       <c r="H577" s="3" t="n">
@@ -40023,7 +39954,7 @@
         <v>22</v>
       </c>
       <c r="M577" s="3"/>
-      <c r="N577" s="8" t="b">
+      <c r="N577" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40065,7 +39996,7 @@
       <c r="F578" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G578" s="6" t="s">
+      <c r="G578" s="7" t="s">
         <v>1909</v>
       </c>
       <c r="H578" s="3" t="n">
@@ -40080,7 +40011,7 @@
         <v>22</v>
       </c>
       <c r="M578" s="3"/>
-      <c r="N578" s="8" t="b">
+      <c r="N578" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40122,7 +40053,7 @@
       <c r="F579" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G579" s="6" t="s">
+      <c r="G579" s="7" t="s">
         <v>1913</v>
       </c>
       <c r="H579" s="3" t="n">
@@ -40137,7 +40068,7 @@
         <v>22</v>
       </c>
       <c r="M579" s="3"/>
-      <c r="N579" s="8" t="b">
+      <c r="N579" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40179,7 +40110,7 @@
       <c r="F580" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G580" s="6" t="s">
+      <c r="G580" s="7" t="s">
         <v>1917</v>
       </c>
       <c r="H580" s="3" t="n">
@@ -40194,7 +40125,7 @@
         <v>22</v>
       </c>
       <c r="M580" s="3"/>
-      <c r="N580" s="8" t="b">
+      <c r="N580" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40236,7 +40167,7 @@
       <c r="F581" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G581" s="6" t="s">
+      <c r="G581" s="7" t="s">
         <v>1921</v>
       </c>
       <c r="H581" s="3" t="n">
@@ -40251,7 +40182,7 @@
         <v>22</v>
       </c>
       <c r="M581" s="3"/>
-      <c r="N581" s="8" t="b">
+      <c r="N581" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40293,7 +40224,7 @@
       <c r="F582" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G582" s="7" t="s">
+      <c r="G582" s="8" t="s">
         <v>1925</v>
       </c>
       <c r="H582" s="3" t="n">
@@ -40308,7 +40239,7 @@
         <v>22</v>
       </c>
       <c r="M582" s="3"/>
-      <c r="N582" s="8" t="b">
+      <c r="N582" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -40350,7 +40281,7 @@
       <c r="F583" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G583" s="7" t="s">
+      <c r="G583" s="8" t="s">
         <v>1928</v>
       </c>
       <c r="H583" s="3" t="n">
@@ -40365,7 +40296,7 @@
         <v>22</v>
       </c>
       <c r="M583" s="3"/>
-      <c r="N583" s="8" t="b">
+      <c r="N583" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -40407,7 +40338,7 @@
       <c r="F584" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G584" s="7" t="s">
+      <c r="G584" s="8" t="s">
         <v>1931</v>
       </c>
       <c r="H584" s="3" t="n">
@@ -40422,7 +40353,7 @@
         <v>22</v>
       </c>
       <c r="M584" s="3"/>
-      <c r="N584" s="8" t="b">
+      <c r="N584" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -40464,7 +40395,7 @@
       <c r="F585" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G585" s="6" t="s">
+      <c r="G585" s="7" t="s">
         <v>1934</v>
       </c>
       <c r="H585" s="3" t="n">
@@ -40479,7 +40410,7 @@
         <v>22</v>
       </c>
       <c r="M585" s="3"/>
-      <c r="N585" s="8" t="b">
+      <c r="N585" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -40521,7 +40452,7 @@
       <c r="F586" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G586" s="6" t="s">
+      <c r="G586" s="7" t="s">
         <v>1937</v>
       </c>
       <c r="H586" s="3" t="n">
@@ -40536,7 +40467,7 @@
         <v>22</v>
       </c>
       <c r="M586" s="3"/>
-      <c r="N586" s="8" t="b">
+      <c r="N586" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -40578,7 +40509,7 @@
       <c r="F587" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G587" s="6" t="s">
+      <c r="G587" s="7" t="s">
         <v>1941</v>
       </c>
       <c r="H587" s="3" t="n">
@@ -40593,7 +40524,7 @@
         <v>22</v>
       </c>
       <c r="M587" s="3"/>
-      <c r="N587" s="8" t="b">
+      <c r="N587" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40635,7 +40566,7 @@
       <c r="F588" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G588" s="6"/>
+      <c r="G588" s="7"/>
       <c r="H588" s="3"/>
       <c r="I588" s="3" t="s">
         <v>1944</v>
@@ -40650,7 +40581,7 @@
         <v>22</v>
       </c>
       <c r="M588" s="3"/>
-      <c r="N588" s="8" t="b">
+      <c r="N588" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40694,7 +40625,7 @@
       <c r="F589" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G589" s="6" t="s">
+      <c r="G589" s="7" t="s">
         <v>1949</v>
       </c>
       <c r="H589" s="3" t="n">
@@ -40709,7 +40640,7 @@
         <v>22</v>
       </c>
       <c r="M589" s="3"/>
-      <c r="N589" s="8" t="b">
+      <c r="N589" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40766,7 +40697,7 @@
         <v>22</v>
       </c>
       <c r="M590" s="3"/>
-      <c r="N590" s="8" t="b">
+      <c r="N590" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40808,7 +40739,7 @@
       <c r="F591" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G591" s="6" t="s">
+      <c r="G591" s="7" t="s">
         <v>1956</v>
       </c>
       <c r="H591" s="3" t="n">
@@ -40823,7 +40754,7 @@
         <v>22</v>
       </c>
       <c r="M591" s="3"/>
-      <c r="N591" s="8" t="b">
+      <c r="N591" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40865,7 +40796,7 @@
       <c r="F592" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G592" s="6" t="s">
+      <c r="G592" s="7" t="s">
         <v>1959</v>
       </c>
       <c r="H592" s="3" t="n">
@@ -40880,7 +40811,7 @@
         <v>22</v>
       </c>
       <c r="M592" s="3"/>
-      <c r="N592" s="8" t="b">
+      <c r="N592" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40922,7 +40853,7 @@
       <c r="F593" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G593" s="7" t="s">
+      <c r="G593" s="8" t="s">
         <v>1962</v>
       </c>
       <c r="H593" s="3" t="n">
@@ -40937,7 +40868,7 @@
         <v>22</v>
       </c>
       <c r="M593" s="3"/>
-      <c r="N593" s="8" t="b">
+      <c r="N593" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -40979,7 +40910,7 @@
       <c r="F594" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G594" s="7" t="s">
+      <c r="G594" s="8" t="s">
         <v>1965</v>
       </c>
       <c r="H594" s="3" t="n">
@@ -40994,7 +40925,7 @@
         <v>22</v>
       </c>
       <c r="M594" s="3"/>
-      <c r="N594" s="8" t="b">
+      <c r="N594" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41036,7 +40967,7 @@
       <c r="F595" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G595" s="7" t="s">
+      <c r="G595" s="8" t="s">
         <v>1968</v>
       </c>
       <c r="H595" s="3" t="n">
@@ -41051,7 +40982,7 @@
         <v>22</v>
       </c>
       <c r="M595" s="3"/>
-      <c r="N595" s="8" t="b">
+      <c r="N595" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41093,7 +41024,7 @@
       <c r="F596" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G596" s="6" t="s">
+      <c r="G596" s="7" t="s">
         <v>1971</v>
       </c>
       <c r="H596" s="3" t="n">
@@ -41108,7 +41039,7 @@
         <v>22</v>
       </c>
       <c r="M596" s="3"/>
-      <c r="N596" s="8" t="b">
+      <c r="N596" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41150,7 +41081,7 @@
       <c r="F597" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G597" s="6" t="s">
+      <c r="G597" s="7" t="s">
         <v>1974</v>
       </c>
       <c r="H597" s="3" t="s">
@@ -41165,7 +41096,7 @@
         <v>22</v>
       </c>
       <c r="M597" s="3"/>
-      <c r="N597" s="8" t="b">
+      <c r="N597" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41209,7 +41140,7 @@
       <c r="F598" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G598" s="6" t="s">
+      <c r="G598" s="7" t="s">
         <v>1978</v>
       </c>
       <c r="H598" s="3" t="n">
@@ -41224,7 +41155,7 @@
         <v>22</v>
       </c>
       <c r="M598" s="3"/>
-      <c r="N598" s="8" t="b">
+      <c r="N598" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41266,7 +41197,7 @@
       <c r="F599" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G599" s="6" t="s">
+      <c r="G599" s="7" t="s">
         <v>1981</v>
       </c>
       <c r="H599" s="12" t="n">
@@ -41281,7 +41212,7 @@
         <v>22</v>
       </c>
       <c r="M599" s="3"/>
-      <c r="N599" s="8" t="b">
+      <c r="N599" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41323,7 +41254,7 @@
       <c r="F600" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G600" s="6" t="s">
+      <c r="G600" s="7" t="s">
         <v>1984</v>
       </c>
       <c r="H600" s="3" t="n">
@@ -41338,7 +41269,7 @@
         <v>22</v>
       </c>
       <c r="M600" s="3"/>
-      <c r="N600" s="8" t="b">
+      <c r="N600" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41380,7 +41311,7 @@
       <c r="F601" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G601" s="6" t="s">
+      <c r="G601" s="7" t="s">
         <v>1987</v>
       </c>
       <c r="H601" s="3" t="n">
@@ -41395,7 +41326,7 @@
         <v>22</v>
       </c>
       <c r="M601" s="3"/>
-      <c r="N601" s="8" t="b">
+      <c r="N601" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41437,7 +41368,7 @@
       <c r="F602" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G602" s="6" t="s">
+      <c r="G602" s="7" t="s">
         <v>1990</v>
       </c>
       <c r="H602" s="3" t="n">
@@ -41452,7 +41383,7 @@
         <v>22</v>
       </c>
       <c r="M602" s="3"/>
-      <c r="N602" s="8" t="b">
+      <c r="N602" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41494,7 +41425,7 @@
       <c r="F603" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G603" s="6" t="s">
+      <c r="G603" s="7" t="s">
         <v>1993</v>
       </c>
       <c r="H603" s="3" t="n">
@@ -41509,7 +41440,7 @@
         <v>22</v>
       </c>
       <c r="M603" s="3"/>
-      <c r="N603" s="8" t="b">
+      <c r="N603" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41551,7 +41482,7 @@
       <c r="F604" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G604" s="6" t="s">
+      <c r="G604" s="7" t="s">
         <v>1996</v>
       </c>
       <c r="H604" s="3" t="n">
@@ -41566,7 +41497,7 @@
         <v>22</v>
       </c>
       <c r="M604" s="3"/>
-      <c r="N604" s="8" t="b">
+      <c r="N604" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41608,7 +41539,7 @@
       <c r="F605" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G605" s="6" t="s">
+      <c r="G605" s="7" t="s">
         <v>1999</v>
       </c>
       <c r="H605" s="3" t="n">
@@ -41623,7 +41554,7 @@
         <v>22</v>
       </c>
       <c r="M605" s="3"/>
-      <c r="N605" s="8" t="b">
+      <c r="N605" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41665,7 +41596,7 @@
       <c r="F606" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G606" s="6" t="s">
+      <c r="G606" s="7" t="s">
         <v>2002</v>
       </c>
       <c r="H606" s="3" t="n">
@@ -41680,7 +41611,7 @@
         <v>22</v>
       </c>
       <c r="M606" s="3"/>
-      <c r="N606" s="8" t="b">
+      <c r="N606" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41722,7 +41653,7 @@
       <c r="F607" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G607" s="6" t="s">
+      <c r="G607" s="7" t="s">
         <v>2005</v>
       </c>
       <c r="H607" s="3" t="n">
@@ -41737,7 +41668,7 @@
         <v>22</v>
       </c>
       <c r="M607" s="3"/>
-      <c r="N607" s="8" t="b">
+      <c r="N607" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41779,7 +41710,7 @@
       <c r="F608" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G608" s="7" t="s">
+      <c r="G608" s="8" t="s">
         <v>2008</v>
       </c>
       <c r="H608" s="3" t="n">
@@ -41794,7 +41725,7 @@
         <v>22</v>
       </c>
       <c r="M608" s="3"/>
-      <c r="N608" s="8" t="b">
+      <c r="N608" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41836,7 +41767,7 @@
       <c r="F609" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G609" s="7" t="s">
+      <c r="G609" s="8" t="s">
         <v>2011</v>
       </c>
       <c r="H609" s="3" t="n">
@@ -41851,7 +41782,7 @@
         <v>22</v>
       </c>
       <c r="M609" s="3"/>
-      <c r="N609" s="8" t="b">
+      <c r="N609" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41893,7 +41824,7 @@
       <c r="F610" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G610" s="7" t="s">
+      <c r="G610" s="8" t="s">
         <v>2014</v>
       </c>
       <c r="H610" s="3" t="n">
@@ -41908,7 +41839,7 @@
         <v>22</v>
       </c>
       <c r="M610" s="3"/>
-      <c r="N610" s="8" t="b">
+      <c r="N610" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -41950,7 +41881,7 @@
       <c r="F611" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G611" s="6" t="s">
+      <c r="G611" s="7" t="s">
         <v>2018</v>
       </c>
       <c r="H611" s="3" t="n">
@@ -41965,7 +41896,7 @@
         <v>22</v>
       </c>
       <c r="M611" s="3"/>
-      <c r="N611" s="8" t="b">
+      <c r="N611" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42007,7 +41938,7 @@
       <c r="F612" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G612" s="6" t="s">
+      <c r="G612" s="7" t="s">
         <v>2021</v>
       </c>
       <c r="H612" s="3" t="n">
@@ -42022,7 +41953,7 @@
         <v>22</v>
       </c>
       <c r="M612" s="3"/>
-      <c r="N612" s="8" t="b">
+      <c r="N612" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42064,7 +41995,7 @@
       <c r="F613" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G613" s="6" t="s">
+      <c r="G613" s="7" t="s">
         <v>2024</v>
       </c>
       <c r="H613" s="12" t="n">
@@ -42079,7 +42010,7 @@
         <v>22</v>
       </c>
       <c r="M613" s="3"/>
-      <c r="N613" s="8" t="b">
+      <c r="N613" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42121,7 +42052,7 @@
       <c r="F614" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G614" s="6" t="s">
+      <c r="G614" s="7" t="s">
         <v>2027</v>
       </c>
       <c r="H614" s="3" t="n">
@@ -42136,7 +42067,7 @@
         <v>22</v>
       </c>
       <c r="M614" s="3"/>
-      <c r="N614" s="8" t="b">
+      <c r="N614" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42178,7 +42109,7 @@
       <c r="F615" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G615" s="6" t="s">
+      <c r="G615" s="7" t="s">
         <v>2030</v>
       </c>
       <c r="H615" s="3" t="n">
@@ -42193,7 +42124,7 @@
         <v>22</v>
       </c>
       <c r="M615" s="3"/>
-      <c r="N615" s="8" t="b">
+      <c r="N615" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42235,7 +42166,7 @@
       <c r="F616" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G616" s="6" t="s">
+      <c r="G616" s="7" t="s">
         <v>2033</v>
       </c>
       <c r="H616" s="3" t="n">
@@ -42250,7 +42181,7 @@
         <v>22</v>
       </c>
       <c r="M616" s="3"/>
-      <c r="N616" s="8" t="b">
+      <c r="N616" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42292,7 +42223,7 @@
       <c r="F617" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G617" s="6" t="s">
+      <c r="G617" s="7" t="s">
         <v>2036</v>
       </c>
       <c r="H617" s="3" t="n">
@@ -42307,7 +42238,7 @@
         <v>22</v>
       </c>
       <c r="M617" s="3"/>
-      <c r="N617" s="8" t="b">
+      <c r="N617" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42349,7 +42280,7 @@
       <c r="F618" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G618" s="6" t="s">
+      <c r="G618" s="7" t="s">
         <v>2039</v>
       </c>
       <c r="H618" s="3" t="n">
@@ -42364,7 +42295,7 @@
         <v>22</v>
       </c>
       <c r="M618" s="3"/>
-      <c r="N618" s="8" t="b">
+      <c r="N618" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42406,7 +42337,7 @@
       <c r="F619" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G619" s="6" t="s">
+      <c r="G619" s="7" t="s">
         <v>2042</v>
       </c>
       <c r="H619" s="3" t="n">
@@ -42421,7 +42352,7 @@
         <v>22</v>
       </c>
       <c r="M619" s="3"/>
-      <c r="N619" s="8" t="b">
+      <c r="N619" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42463,7 +42394,7 @@
       <c r="F620" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G620" s="6" t="s">
+      <c r="G620" s="7" t="s">
         <v>2045</v>
       </c>
       <c r="H620" s="3" t="n">
@@ -42478,7 +42409,7 @@
         <v>22</v>
       </c>
       <c r="M620" s="3"/>
-      <c r="N620" s="8" t="b">
+      <c r="N620" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42520,7 +42451,7 @@
       <c r="F621" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G621" s="6" t="s">
+      <c r="G621" s="7" t="s">
         <v>2048</v>
       </c>
       <c r="H621" s="12" t="n">
@@ -42535,7 +42466,7 @@
         <v>22</v>
       </c>
       <c r="M621" s="3"/>
-      <c r="N621" s="8" t="b">
+      <c r="N621" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42577,7 +42508,7 @@
       <c r="F622" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G622" s="6" t="s">
+      <c r="G622" s="7" t="s">
         <v>2051</v>
       </c>
       <c r="H622" s="12" t="n">
@@ -42592,7 +42523,7 @@
         <v>22</v>
       </c>
       <c r="M622" s="3"/>
-      <c r="N622" s="8" t="b">
+      <c r="N622" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42634,7 +42565,7 @@
       <c r="F623" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G623" s="7" t="s">
+      <c r="G623" s="8" t="s">
         <v>2054</v>
       </c>
       <c r="H623" s="3" t="n">
@@ -42649,7 +42580,7 @@
         <v>22</v>
       </c>
       <c r="M623" s="3"/>
-      <c r="N623" s="8" t="b">
+      <c r="N623" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42691,7 +42622,7 @@
       <c r="F624" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G624" s="7" t="s">
+      <c r="G624" s="8" t="s">
         <v>2057</v>
       </c>
       <c r="H624" s="12" t="n">
@@ -42706,7 +42637,7 @@
         <v>22</v>
       </c>
       <c r="M624" s="3"/>
-      <c r="N624" s="8" t="b">
+      <c r="N624" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42748,7 +42679,7 @@
       <c r="F625" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G625" s="7" t="s">
+      <c r="G625" s="8" t="s">
         <v>2060</v>
       </c>
       <c r="H625" s="3" t="n">
@@ -42763,7 +42694,7 @@
         <v>22</v>
       </c>
       <c r="M625" s="3"/>
-      <c r="N625" s="8" t="b">
+      <c r="N625" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42805,7 +42736,7 @@
       <c r="F626" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G626" s="6" t="s">
+      <c r="G626" s="7" t="s">
         <v>2063</v>
       </c>
       <c r="H626" s="3" t="n">
@@ -42820,7 +42751,7 @@
         <v>22</v>
       </c>
       <c r="M626" s="3"/>
-      <c r="N626" s="8" t="b">
+      <c r="N626" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42862,7 +42793,7 @@
       <c r="F627" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G627" s="6" t="s">
+      <c r="G627" s="7" t="s">
         <v>2066</v>
       </c>
       <c r="H627" s="3" t="n">
@@ -42877,7 +42808,7 @@
         <v>22</v>
       </c>
       <c r="M627" s="3"/>
-      <c r="N627" s="8" t="b">
+      <c r="N627" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42919,7 +42850,7 @@
       <c r="F628" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G628" s="6" t="s">
+      <c r="G628" s="7" t="s">
         <v>2069</v>
       </c>
       <c r="H628" s="12" t="n">
@@ -42934,7 +42865,7 @@
         <v>22</v>
       </c>
       <c r="M628" s="3"/>
-      <c r="N628" s="8" t="b">
+      <c r="N628" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -42976,7 +42907,7 @@
       <c r="F629" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G629" s="6" t="s">
+      <c r="G629" s="7" t="s">
         <v>2072</v>
       </c>
       <c r="H629" s="3" t="n">
@@ -42991,7 +42922,7 @@
         <v>22</v>
       </c>
       <c r="M629" s="3"/>
-      <c r="N629" s="8" t="b">
+      <c r="N629" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43033,7 +42964,7 @@
       <c r="F630" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G630" s="6" t="s">
+      <c r="G630" s="7" t="s">
         <v>2075</v>
       </c>
       <c r="H630" s="3" t="n">
@@ -43048,7 +42979,7 @@
         <v>22</v>
       </c>
       <c r="M630" s="3"/>
-      <c r="N630" s="8" t="b">
+      <c r="N630" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43090,7 +43021,7 @@
       <c r="F631" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G631" s="6" t="s">
+      <c r="G631" s="7" t="s">
         <v>2078</v>
       </c>
       <c r="H631" s="3" t="n">
@@ -43105,7 +43036,7 @@
         <v>22</v>
       </c>
       <c r="M631" s="3"/>
-      <c r="N631" s="8" t="b">
+      <c r="N631" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43147,7 +43078,7 @@
       <c r="F632" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G632" s="6" t="s">
+      <c r="G632" s="7" t="s">
         <v>2081</v>
       </c>
       <c r="H632" s="3" t="n">
@@ -43162,7 +43093,7 @@
         <v>22</v>
       </c>
       <c r="M632" s="3"/>
-      <c r="N632" s="8" t="b">
+      <c r="N632" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43204,7 +43135,7 @@
       <c r="F633" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G633" s="7" t="s">
+      <c r="G633" s="8" t="s">
         <v>2084</v>
       </c>
       <c r="H633" s="12" t="n">
@@ -43219,7 +43150,7 @@
         <v>22</v>
       </c>
       <c r="M633" s="3"/>
-      <c r="N633" s="8" t="b">
+      <c r="N633" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43261,7 +43192,7 @@
       <c r="F634" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G634" s="7" t="s">
+      <c r="G634" s="8" t="s">
         <v>2087</v>
       </c>
       <c r="H634" s="12" t="n">
@@ -43276,7 +43207,7 @@
         <v>22</v>
       </c>
       <c r="M634" s="3"/>
-      <c r="N634" s="8" t="b">
+      <c r="N634" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43318,7 +43249,7 @@
       <c r="F635" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G635" s="7" t="s">
+      <c r="G635" s="8" t="s">
         <v>2090</v>
       </c>
       <c r="H635" s="3" t="n">
@@ -43333,7 +43264,7 @@
         <v>22</v>
       </c>
       <c r="M635" s="3"/>
-      <c r="N635" s="8" t="b">
+      <c r="N635" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43375,7 +43306,7 @@
       <c r="F636" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G636" s="6" t="s">
+      <c r="G636" s="7" t="s">
         <v>2093</v>
       </c>
       <c r="H636" s="3" t="n">
@@ -43390,7 +43321,7 @@
         <v>22</v>
       </c>
       <c r="M636" s="3"/>
-      <c r="N636" s="8" t="b">
+      <c r="N636" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43432,7 +43363,7 @@
       <c r="F637" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G637" s="6" t="s">
+      <c r="G637" s="7" t="s">
         <v>2096</v>
       </c>
       <c r="H637" s="3" t="n">
@@ -43447,7 +43378,7 @@
         <v>22</v>
       </c>
       <c r="M637" s="3"/>
-      <c r="N637" s="8" t="b">
+      <c r="N637" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43489,7 +43420,7 @@
       <c r="F638" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G638" s="6" t="s">
+      <c r="G638" s="7" t="s">
         <v>2099</v>
       </c>
       <c r="H638" s="14" t="n">
@@ -43504,7 +43435,7 @@
         <v>22</v>
       </c>
       <c r="M638" s="3"/>
-      <c r="N638" s="8" t="b">
+      <c r="N638" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43546,7 +43477,7 @@
       <c r="F639" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G639" s="6" t="s">
+      <c r="G639" s="7" t="s">
         <v>2102</v>
       </c>
       <c r="H639" s="12" t="n">
@@ -43561,7 +43492,7 @@
         <v>22</v>
       </c>
       <c r="M639" s="3"/>
-      <c r="N639" s="8" t="b">
+      <c r="N639" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43603,7 +43534,7 @@
       <c r="F640" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G640" s="6" t="s">
+      <c r="G640" s="7" t="s">
         <v>2105</v>
       </c>
       <c r="H640" s="3" t="n">
@@ -43618,7 +43549,7 @@
         <v>22</v>
       </c>
       <c r="M640" s="3"/>
-      <c r="N640" s="8" t="b">
+      <c r="N640" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43660,7 +43591,7 @@
       <c r="F641" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G641" s="6" t="s">
+      <c r="G641" s="7" t="s">
         <v>2108</v>
       </c>
       <c r="H641" s="12" t="n">
@@ -43675,7 +43606,7 @@
         <v>22</v>
       </c>
       <c r="M641" s="3"/>
-      <c r="N641" s="8" t="b">
+      <c r="N641" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43717,7 +43648,7 @@
       <c r="F642" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G642" s="6" t="s">
+      <c r="G642" s="7" t="s">
         <v>2111</v>
       </c>
       <c r="H642" s="3" t="n">
@@ -43732,7 +43663,7 @@
         <v>22</v>
       </c>
       <c r="M642" s="3"/>
-      <c r="N642" s="8" t="b">
+      <c r="N642" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43774,7 +43705,7 @@
       <c r="F643" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G643" s="6" t="s">
+      <c r="G643" s="7" t="s">
         <v>2114</v>
       </c>
       <c r="H643" s="3" t="n">
@@ -43789,7 +43720,7 @@
         <v>22</v>
       </c>
       <c r="M643" s="3"/>
-      <c r="N643" s="8" t="b">
+      <c r="N643" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43831,7 +43762,7 @@
       <c r="F644" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G644" s="6" t="s">
+      <c r="G644" s="7" t="s">
         <v>2117</v>
       </c>
       <c r="H644" s="3" t="n">
@@ -43846,7 +43777,7 @@
         <v>22</v>
       </c>
       <c r="M644" s="3"/>
-      <c r="N644" s="8" t="b">
+      <c r="N644" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43888,7 +43819,7 @@
       <c r="F645" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G645" s="6" t="s">
+      <c r="G645" s="7" t="s">
         <v>2120</v>
       </c>
       <c r="H645" s="12" t="n">
@@ -43903,7 +43834,7 @@
         <v>22</v>
       </c>
       <c r="M645" s="3"/>
-      <c r="N645" s="8" t="b">
+      <c r="N645" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -43945,7 +43876,7 @@
       <c r="F646" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G646" s="6" t="s">
+      <c r="G646" s="7" t="s">
         <v>2123</v>
       </c>
       <c r="H646" s="3" t="n">
@@ -43960,7 +43891,7 @@
         <v>22</v>
       </c>
       <c r="M646" s="3"/>
-      <c r="N646" s="8" t="b">
+      <c r="N646" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -44002,7 +43933,7 @@
       <c r="F647" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G647" s="6" t="s">
+      <c r="G647" s="7" t="s">
         <v>2126</v>
       </c>
       <c r="H647" s="3" t="n">
@@ -44017,7 +43948,7 @@
         <v>22</v>
       </c>
       <c r="M647" s="3"/>
-      <c r="N647" s="8" t="b">
+      <c r="N647" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -44059,7 +43990,7 @@
       <c r="F648" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G648" s="6"/>
+      <c r="G648" s="7"/>
       <c r="H648" s="3"/>
       <c r="I648" s="3" t="s">
         <v>2130</v>
@@ -44074,7 +44005,7 @@
         <v>22</v>
       </c>
       <c r="M648" s="3"/>
-      <c r="N648" s="8" t="b">
+      <c r="N648" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -44116,7 +44047,7 @@
       <c r="F649" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G649" s="7" t="s">
+      <c r="G649" s="8" t="s">
         <v>2134</v>
       </c>
       <c r="H649" s="3" t="n">
@@ -44131,7 +44062,7 @@
         <v>22</v>
       </c>
       <c r="M649" s="3"/>
-      <c r="N649" s="8" t="b">
+      <c r="N649" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -44173,7 +44104,7 @@
       <c r="F650" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G650" s="7" t="s">
+      <c r="G650" s="8" t="s">
         <v>2137</v>
       </c>
       <c r="H650" s="12" t="n">
@@ -44188,7 +44119,7 @@
         <v>22</v>
       </c>
       <c r="M650" s="3"/>
-      <c r="N650" s="8" t="b">
+      <c r="N650" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -44230,7 +44161,7 @@
       <c r="F651" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G651" s="6" t="s">
+      <c r="G651" s="7" t="s">
         <v>2140</v>
       </c>
       <c r="H651" s="3" t="n">
@@ -44245,7 +44176,7 @@
         <v>22</v>
       </c>
       <c r="M651" s="3"/>
-      <c r="N651" s="8" t="b">
+      <c r="N651" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -44287,7 +44218,7 @@
       <c r="F652" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G652" s="6" t="s">
+      <c r="G652" s="7" t="s">
         <v>2143</v>
       </c>
       <c r="H652" s="3" t="n">
@@ -44302,7 +44233,7 @@
         <v>22</v>
       </c>
       <c r="M652" s="3"/>
-      <c r="N652" s="8" t="b">
+      <c r="N652" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -44344,7 +44275,7 @@
       <c r="F653" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="G653" s="6" t="s">
+      <c r="G653" s="7" t="s">
         <v>2146</v>
       </c>
       <c r="H653" s="3" t="n">
@@ -44359,7 +44290,7 @@
         <v>22</v>
       </c>
       <c r="M653" s="3"/>
-      <c r="N653" s="8" t="b">
+      <c r="N653" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -51218,7 +51149,7 @@
     </row>
   </sheetData>
   <conditionalFormatting sqref="B1:B854">
-    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="6">
+    <cfRule type="expression" priority="2" aboveAverage="0" equalAverage="0" bottom="0" percent="0" rank="0" text="" dxfId="0">
       <formula>"countif(A:B,A1)&gt;1"</formula>
     </cfRule>
   </conditionalFormatting>

--- a/corpus_metadata.xlsx
+++ b/corpus_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5424" uniqueCount="2147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5438" uniqueCount="2147">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -6602,7 +6602,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -6649,6 +6649,10 @@
     </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="0" xfId="20" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
@@ -6763,7 +6767,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="M303" activeCellId="0" sqref="M303"/>
+      <selection pane="bottomLeft" activeCell="O300" activeCellId="0" sqref="O300"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -9763,7 +9767,7 @@
       <c r="M51" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N51" s="3" t="b">
+      <c r="N51" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9822,7 +9826,7 @@
       <c r="M52" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N52" s="3" t="b">
+      <c r="N52" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9881,7 +9885,7 @@
       <c r="M53" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N53" s="3" t="b">
+      <c r="N53" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9940,7 +9944,7 @@
       <c r="M54" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N54" s="3" t="b">
+      <c r="N54" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -9999,7 +10003,7 @@
       <c r="M55" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N55" s="3" t="b">
+      <c r="N55" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10058,7 +10062,7 @@
       <c r="M56" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N56" s="3" t="b">
+      <c r="N56" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10117,7 +10121,7 @@
       <c r="M57" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N57" s="3" t="b">
+      <c r="N57" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -10176,7 +10180,7 @@
       <c r="M58" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="N58" s="3" t="b">
+      <c r="N58" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15132,7 +15136,7 @@
       <c r="M142" s="3" t="s">
         <v>473</v>
       </c>
-      <c r="N142" s="3" t="b">
+      <c r="N142" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -15246,7 +15250,7 @@
         <v>22</v>
       </c>
       <c r="M144" s="3"/>
-      <c r="N144" s="3" t="b">
+      <c r="N144" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15303,7 +15307,7 @@
         <v>22</v>
       </c>
       <c r="M145" s="3"/>
-      <c r="N145" s="3" t="b">
+      <c r="N145" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15360,7 +15364,7 @@
         <v>22</v>
       </c>
       <c r="M146" s="3"/>
-      <c r="N146" s="3" t="b">
+      <c r="N146" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15417,7 +15421,7 @@
         <v>22</v>
       </c>
       <c r="M147" s="3"/>
-      <c r="N147" s="3" t="b">
+      <c r="N147" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15474,7 +15478,7 @@
         <v>22</v>
       </c>
       <c r="M148" s="3"/>
-      <c r="N148" s="3" t="b">
+      <c r="N148" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15531,7 +15535,7 @@
         <v>22</v>
       </c>
       <c r="M149" s="3"/>
-      <c r="N149" s="3" t="b">
+      <c r="N149" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15588,7 +15592,7 @@
         <v>22</v>
       </c>
       <c r="M150" s="3"/>
-      <c r="N150" s="3" t="b">
+      <c r="N150" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15645,7 +15649,7 @@
         <v>22</v>
       </c>
       <c r="M151" s="3"/>
-      <c r="N151" s="3" t="b">
+      <c r="N151" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15702,7 +15706,7 @@
         <v>22</v>
       </c>
       <c r="M152" s="3"/>
-      <c r="N152" s="3" t="b">
+      <c r="N152" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15759,7 +15763,7 @@
         <v>22</v>
       </c>
       <c r="M153" s="3"/>
-      <c r="N153" s="3" t="b">
+      <c r="N153" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15816,7 +15820,7 @@
         <v>22</v>
       </c>
       <c r="M154" s="3"/>
-      <c r="N154" s="3" t="b">
+      <c r="N154" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15875,7 +15879,7 @@
         <v>22</v>
       </c>
       <c r="M155" s="3"/>
-      <c r="N155" s="3" t="b">
+      <c r="N155" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15932,7 +15936,7 @@
         <v>22</v>
       </c>
       <c r="M156" s="3"/>
-      <c r="N156" s="3" t="b">
+      <c r="N156" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -15989,7 +15993,7 @@
         <v>22</v>
       </c>
       <c r="M157" s="3"/>
-      <c r="N157" s="3" t="b">
+      <c r="N157" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16046,7 +16050,7 @@
         <v>22</v>
       </c>
       <c r="M158" s="3"/>
-      <c r="N158" s="3" t="b">
+      <c r="N158" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16103,7 +16107,7 @@
         <v>22</v>
       </c>
       <c r="M159" s="3"/>
-      <c r="N159" s="3" t="b">
+      <c r="N159" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16160,7 +16164,7 @@
         <v>22</v>
       </c>
       <c r="M160" s="3"/>
-      <c r="N160" s="3" t="b">
+      <c r="N160" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16217,7 +16221,7 @@
         <v>22</v>
       </c>
       <c r="M161" s="3"/>
-      <c r="N161" s="3" t="b">
+      <c r="N161" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16274,7 +16278,7 @@
         <v>22</v>
       </c>
       <c r="M162" s="3"/>
-      <c r="N162" s="3" t="b">
+      <c r="N162" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16331,7 +16335,7 @@
         <v>22</v>
       </c>
       <c r="M163" s="3"/>
-      <c r="N163" s="3" t="b">
+      <c r="N163" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16388,7 +16392,7 @@
         <v>22</v>
       </c>
       <c r="M164" s="3"/>
-      <c r="N164" s="3" t="b">
+      <c r="N164" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16445,7 +16449,7 @@
         <v>22</v>
       </c>
       <c r="M165" s="3"/>
-      <c r="N165" s="3" t="b">
+      <c r="N165" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16502,7 +16506,7 @@
         <v>22</v>
       </c>
       <c r="M166" s="3"/>
-      <c r="N166" s="3" t="b">
+      <c r="N166" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16559,7 +16563,7 @@
         <v>22</v>
       </c>
       <c r="M167" s="3"/>
-      <c r="N167" s="3" t="b">
+      <c r="N167" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16616,7 +16620,7 @@
         <v>22</v>
       </c>
       <c r="M168" s="3"/>
-      <c r="N168" s="3" t="b">
+      <c r="N168" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16673,7 +16677,7 @@
         <v>22</v>
       </c>
       <c r="M169" s="3"/>
-      <c r="N169" s="3" t="b">
+      <c r="N169" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16730,7 +16734,7 @@
         <v>565</v>
       </c>
       <c r="M170" s="3"/>
-      <c r="N170" s="3" t="b">
+      <c r="N170" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16787,7 +16791,7 @@
         <v>22</v>
       </c>
       <c r="M171" s="3"/>
-      <c r="N171" s="3" t="b">
+      <c r="N171" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16844,7 +16848,7 @@
         <v>22</v>
       </c>
       <c r="M172" s="3"/>
-      <c r="N172" s="3" t="b">
+      <c r="N172" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16901,7 +16905,7 @@
         <v>22</v>
       </c>
       <c r="M173" s="3"/>
-      <c r="N173" s="3" t="b">
+      <c r="N173" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -16958,7 +16962,7 @@
         <v>22</v>
       </c>
       <c r="M174" s="3"/>
-      <c r="N174" s="3" t="b">
+      <c r="N174" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17015,7 +17019,7 @@
         <v>22</v>
       </c>
       <c r="M175" s="3"/>
-      <c r="N175" s="3" t="b">
+      <c r="N175" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17072,7 +17076,7 @@
         <v>22</v>
       </c>
       <c r="M176" s="3"/>
-      <c r="N176" s="3" t="b">
+      <c r="N176" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17129,7 +17133,7 @@
         <v>22</v>
       </c>
       <c r="M177" s="3"/>
-      <c r="N177" s="3" t="b">
+      <c r="N177" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17186,7 +17190,7 @@
         <v>22</v>
       </c>
       <c r="M178" s="3"/>
-      <c r="N178" s="3" t="b">
+      <c r="N178" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17243,7 +17247,7 @@
         <v>22</v>
       </c>
       <c r="M179" s="3"/>
-      <c r="N179" s="3" t="b">
+      <c r="N179" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17300,7 +17304,7 @@
         <v>22</v>
       </c>
       <c r="M180" s="3"/>
-      <c r="N180" s="3" t="b">
+      <c r="N180" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17357,7 +17361,7 @@
         <v>22</v>
       </c>
       <c r="M181" s="3"/>
-      <c r="N181" s="3" t="b">
+      <c r="N181" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17414,7 +17418,7 @@
         <v>22</v>
       </c>
       <c r="M182" s="3"/>
-      <c r="N182" s="3" t="b">
+      <c r="N182" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17471,7 +17475,7 @@
         <v>22</v>
       </c>
       <c r="M183" s="3"/>
-      <c r="N183" s="3" t="b">
+      <c r="N183" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -17528,7 +17532,7 @@
         <v>22</v>
       </c>
       <c r="M184" s="3"/>
-      <c r="N184" s="3" t="b">
+      <c r="N184" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17585,7 +17589,7 @@
         <v>22</v>
       </c>
       <c r="M185" s="3"/>
-      <c r="N185" s="3" t="b">
+      <c r="N185" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17642,7 +17646,7 @@
         <v>22</v>
       </c>
       <c r="M186" s="3"/>
-      <c r="N186" s="3" t="b">
+      <c r="N186" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17699,7 +17703,7 @@
         <v>22</v>
       </c>
       <c r="M187" s="3"/>
-      <c r="N187" s="3" t="b">
+      <c r="N187" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17756,7 +17760,7 @@
         <v>22</v>
       </c>
       <c r="M188" s="3"/>
-      <c r="N188" s="3" t="b">
+      <c r="N188" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17813,7 +17817,7 @@
         <v>22</v>
       </c>
       <c r="M189" s="3"/>
-      <c r="N189" s="3" t="b">
+      <c r="N189" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17870,7 +17874,7 @@
         <v>22</v>
       </c>
       <c r="M190" s="3"/>
-      <c r="N190" s="3" t="b">
+      <c r="N190" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17927,7 +17931,7 @@
         <v>22</v>
       </c>
       <c r="M191" s="3"/>
-      <c r="N191" s="3" t="b">
+      <c r="N191" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -17984,7 +17988,7 @@
         <v>22</v>
       </c>
       <c r="M192" s="3"/>
-      <c r="N192" s="3" t="b">
+      <c r="N192" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18041,7 +18045,7 @@
         <v>22</v>
       </c>
       <c r="M193" s="3"/>
-      <c r="N193" s="3" t="b">
+      <c r="N193" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -18098,7 +18102,7 @@
         <v>292</v>
       </c>
       <c r="M194" s="3"/>
-      <c r="N194" s="3" t="b">
+      <c r="N194" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18155,7 +18159,7 @@
         <v>292</v>
       </c>
       <c r="M195" s="3"/>
-      <c r="N195" s="3" t="b">
+      <c r="N195" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18212,7 +18216,7 @@
         <v>292</v>
       </c>
       <c r="M196" s="3"/>
-      <c r="N196" s="3" t="b">
+      <c r="N196" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18269,7 +18273,7 @@
         <v>292</v>
       </c>
       <c r="M197" s="3"/>
-      <c r="N197" s="3" t="b">
+      <c r="N197" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18326,7 +18330,7 @@
         <v>292</v>
       </c>
       <c r="M198" s="3"/>
-      <c r="N198" s="3" t="b">
+      <c r="N198" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18383,7 +18387,7 @@
         <v>292</v>
       </c>
       <c r="M199" s="3"/>
-      <c r="N199" s="3" t="b">
+      <c r="N199" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18440,7 +18444,7 @@
         <v>292</v>
       </c>
       <c r="M200" s="3"/>
-      <c r="N200" s="3" t="b">
+      <c r="N200" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18497,7 +18501,7 @@
         <v>292</v>
       </c>
       <c r="M201" s="3"/>
-      <c r="N201" s="3" t="b">
+      <c r="N201" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18554,7 +18558,7 @@
         <v>292</v>
       </c>
       <c r="M202" s="3"/>
-      <c r="N202" s="3" t="b">
+      <c r="N202" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18611,7 +18615,7 @@
         <v>292</v>
       </c>
       <c r="M203" s="3"/>
-      <c r="N203" s="3" t="b">
+      <c r="N203" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18668,7 +18672,7 @@
         <v>292</v>
       </c>
       <c r="M204" s="3"/>
-      <c r="N204" s="3" t="b">
+      <c r="N204" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18725,7 +18729,7 @@
         <v>22</v>
       </c>
       <c r="M205" s="3"/>
-      <c r="N205" s="3" t="b">
+      <c r="N205" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18782,7 +18786,7 @@
         <v>22</v>
       </c>
       <c r="M206" s="3"/>
-      <c r="N206" s="3" t="b">
+      <c r="N206" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18839,7 +18843,7 @@
         <v>22</v>
       </c>
       <c r="M207" s="3"/>
-      <c r="N207" s="3" t="b">
+      <c r="N207" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18896,7 +18900,7 @@
         <v>22</v>
       </c>
       <c r="M208" s="3"/>
-      <c r="N208" s="3" t="b">
+      <c r="N208" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -18953,7 +18957,7 @@
         <v>22</v>
       </c>
       <c r="M209" s="3"/>
-      <c r="N209" s="3" t="b">
+      <c r="N209" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19010,7 +19014,7 @@
         <v>22</v>
       </c>
       <c r="M210" s="3"/>
-      <c r="N210" s="3" t="b">
+      <c r="N210" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19067,7 +19071,7 @@
         <v>565</v>
       </c>
       <c r="M211" s="3"/>
-      <c r="N211" s="3" t="b">
+      <c r="N211" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -19126,7 +19130,7 @@
         <v>22</v>
       </c>
       <c r="M212" s="3"/>
-      <c r="N212" s="3" t="b">
+      <c r="N212" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19183,7 +19187,7 @@
         <v>22</v>
       </c>
       <c r="M213" s="3"/>
-      <c r="N213" s="3" t="b">
+      <c r="N213" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19240,7 +19244,7 @@
         <v>22</v>
       </c>
       <c r="M214" s="3"/>
-      <c r="N214" s="3" t="b">
+      <c r="N214" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19297,7 +19301,7 @@
         <v>22</v>
       </c>
       <c r="M215" s="3"/>
-      <c r="N215" s="3" t="b">
+      <c r="N215" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19354,7 +19358,7 @@
         <v>22</v>
       </c>
       <c r="M216" s="3"/>
-      <c r="N216" s="3" t="b">
+      <c r="N216" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19411,7 +19415,7 @@
         <v>22</v>
       </c>
       <c r="M217" s="3"/>
-      <c r="N217" s="3" t="b">
+      <c r="N217" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19468,7 +19472,7 @@
         <v>22</v>
       </c>
       <c r="M218" s="3"/>
-      <c r="N218" s="3" t="b">
+      <c r="N218" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19525,7 +19529,7 @@
         <v>22</v>
       </c>
       <c r="M219" s="3"/>
-      <c r="N219" s="3" t="b">
+      <c r="N219" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19582,7 +19586,7 @@
         <v>22</v>
       </c>
       <c r="M220" s="3"/>
-      <c r="N220" s="3" t="b">
+      <c r="N220" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19639,7 +19643,7 @@
         <v>22</v>
       </c>
       <c r="M221" s="3"/>
-      <c r="N221" s="3" t="b">
+      <c r="N221" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19696,7 +19700,7 @@
         <v>22</v>
       </c>
       <c r="M222" s="3"/>
-      <c r="N222" s="3" t="b">
+      <c r="N222" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19753,7 +19757,7 @@
         <v>22</v>
       </c>
       <c r="M223" s="3"/>
-      <c r="N223" s="3" t="b">
+      <c r="N223" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19810,7 +19814,7 @@
         <v>22</v>
       </c>
       <c r="M224" s="3"/>
-      <c r="N224" s="3" t="b">
+      <c r="N224" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19867,7 +19871,7 @@
         <v>22</v>
       </c>
       <c r="M225" s="3"/>
-      <c r="N225" s="3" t="b">
+      <c r="N225" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19924,7 +19928,7 @@
         <v>22</v>
       </c>
       <c r="M226" s="3"/>
-      <c r="N226" s="3" t="b">
+      <c r="N226" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -19981,7 +19985,7 @@
         <v>22</v>
       </c>
       <c r="M227" s="3"/>
-      <c r="N227" s="3" t="b">
+      <c r="N227" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20038,7 +20042,7 @@
         <v>22</v>
       </c>
       <c r="M228" s="3"/>
-      <c r="N228" s="3" t="b">
+      <c r="N228" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20095,7 +20099,7 @@
         <v>22</v>
       </c>
       <c r="M229" s="3"/>
-      <c r="N229" s="3" t="b">
+      <c r="N229" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20152,7 +20156,7 @@
         <v>763</v>
       </c>
       <c r="M230" s="3"/>
-      <c r="N230" s="3" t="b">
+      <c r="N230" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20209,7 +20213,7 @@
         <v>763</v>
       </c>
       <c r="M231" s="3"/>
-      <c r="N231" s="3" t="b">
+      <c r="N231" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20266,7 +20270,7 @@
         <v>763</v>
       </c>
       <c r="M232" s="3"/>
-      <c r="N232" s="3" t="b">
+      <c r="N232" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20323,7 +20327,7 @@
         <v>763</v>
       </c>
       <c r="M233" s="3"/>
-      <c r="N233" s="3" t="b">
+      <c r="N233" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20380,7 +20384,7 @@
         <v>292</v>
       </c>
       <c r="M234" s="3"/>
-      <c r="N234" s="3" t="b">
+      <c r="N234" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -20437,7 +20441,7 @@
         <v>22</v>
       </c>
       <c r="M235" s="3"/>
-      <c r="N235" s="3" t="b">
+      <c r="N235" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20494,7 +20498,7 @@
         <v>22</v>
       </c>
       <c r="M236" s="3"/>
-      <c r="N236" s="3" t="b">
+      <c r="N236" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20551,7 +20555,7 @@
         <v>22</v>
       </c>
       <c r="M237" s="3"/>
-      <c r="N237" s="3" t="b">
+      <c r="N237" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20608,7 +20612,7 @@
         <v>22</v>
       </c>
       <c r="M238" s="3"/>
-      <c r="N238" s="3" t="b">
+      <c r="N238" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20665,7 +20669,7 @@
         <v>22</v>
       </c>
       <c r="M239" s="3"/>
-      <c r="N239" s="3" t="b">
+      <c r="N239" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20722,7 +20726,7 @@
         <v>22</v>
       </c>
       <c r="M240" s="3"/>
-      <c r="N240" s="3" t="b">
+      <c r="N240" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20779,7 +20783,7 @@
         <v>22</v>
       </c>
       <c r="M241" s="3"/>
-      <c r="N241" s="3" t="b">
+      <c r="N241" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20836,7 +20840,7 @@
         <v>22</v>
       </c>
       <c r="M242" s="3"/>
-      <c r="N242" s="3" t="b">
+      <c r="N242" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20893,7 +20897,7 @@
         <v>22</v>
       </c>
       <c r="M243" s="3"/>
-      <c r="N243" s="3" t="b">
+      <c r="N243" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -20950,7 +20954,7 @@
         <v>22</v>
       </c>
       <c r="M244" s="3"/>
-      <c r="N244" s="3" t="b">
+      <c r="N244" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21007,7 +21011,7 @@
         <v>22</v>
       </c>
       <c r="M245" s="3"/>
-      <c r="N245" s="3" t="b">
+      <c r="N245" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21064,7 +21068,7 @@
         <v>22</v>
       </c>
       <c r="M246" s="3"/>
-      <c r="N246" s="3" t="b">
+      <c r="N246" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21121,7 +21125,7 @@
         <v>22</v>
       </c>
       <c r="M247" s="3"/>
-      <c r="N247" s="3" t="b">
+      <c r="N247" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21178,7 +21182,7 @@
         <v>22</v>
       </c>
       <c r="M248" s="3"/>
-      <c r="N248" s="3" t="b">
+      <c r="N248" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21235,7 +21239,7 @@
         <v>22</v>
       </c>
       <c r="M249" s="3"/>
-      <c r="N249" s="3" t="b">
+      <c r="N249" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21292,7 +21296,7 @@
         <v>22</v>
       </c>
       <c r="M250" s="3"/>
-      <c r="N250" s="3" t="b">
+      <c r="N250" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21349,7 +21353,7 @@
         <v>22</v>
       </c>
       <c r="M251" s="3"/>
-      <c r="N251" s="3" t="b">
+      <c r="N251" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21406,7 +21410,7 @@
         <v>22</v>
       </c>
       <c r="M252" s="3"/>
-      <c r="N252" s="3" t="b">
+      <c r="N252" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21463,7 +21467,7 @@
         <v>22</v>
       </c>
       <c r="M253" s="3"/>
-      <c r="N253" s="3" t="b">
+      <c r="N253" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -21520,7 +21524,7 @@
         <v>22</v>
       </c>
       <c r="M254" s="3"/>
-      <c r="N254" s="3" t="b">
+      <c r="N254" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21577,7 +21581,7 @@
         <v>22</v>
       </c>
       <c r="M255" s="3"/>
-      <c r="N255" s="3" t="b">
+      <c r="N255" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21634,7 +21638,7 @@
         <v>22</v>
       </c>
       <c r="M256" s="3"/>
-      <c r="N256" s="3" t="b">
+      <c r="N256" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21691,7 +21695,7 @@
         <v>22</v>
       </c>
       <c r="M257" s="3"/>
-      <c r="N257" s="3" t="b">
+      <c r="N257" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21748,7 +21752,7 @@
         <v>22</v>
       </c>
       <c r="M258" s="3"/>
-      <c r="N258" s="3" t="b">
+      <c r="N258" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21805,7 +21809,7 @@
         <v>22</v>
       </c>
       <c r="M259" s="3"/>
-      <c r="N259" s="3" t="b">
+      <c r="N259" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21862,7 +21866,7 @@
         <v>22</v>
       </c>
       <c r="M260" s="3"/>
-      <c r="N260" s="3" t="b">
+      <c r="N260" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21919,7 +21923,7 @@
         <v>22</v>
       </c>
       <c r="M261" s="3"/>
-      <c r="N261" s="3" t="b">
+      <c r="N261" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -21976,7 +21980,7 @@
         <v>22</v>
       </c>
       <c r="M262" s="3"/>
-      <c r="N262" s="3" t="b">
+      <c r="N262" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22035,7 +22039,7 @@
         <v>22</v>
       </c>
       <c r="M263" s="3"/>
-      <c r="N263" s="3" t="b">
+      <c r="N263" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22092,7 +22096,7 @@
         <v>22</v>
       </c>
       <c r="M264" s="3"/>
-      <c r="N264" s="3" t="b">
+      <c r="N264" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22149,7 +22153,7 @@
         <v>22</v>
       </c>
       <c r="M265" s="3"/>
-      <c r="N265" s="3" t="b">
+      <c r="N265" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22206,7 +22210,7 @@
         <v>22</v>
       </c>
       <c r="M266" s="3"/>
-      <c r="N266" s="3" t="b">
+      <c r="N266" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22263,7 +22267,7 @@
         <v>22</v>
       </c>
       <c r="M267" s="3"/>
-      <c r="N267" s="3" t="b">
+      <c r="N267" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -22320,7 +22324,7 @@
         <v>22</v>
       </c>
       <c r="M268" s="3"/>
-      <c r="N268" s="3" t="b">
+      <c r="N268" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22377,7 +22381,7 @@
         <v>22</v>
       </c>
       <c r="M269" s="3"/>
-      <c r="N269" s="3" t="b">
+      <c r="N269" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22434,7 +22438,7 @@
         <v>22</v>
       </c>
       <c r="M270" s="3"/>
-      <c r="N270" s="3" t="b">
+      <c r="N270" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22491,7 +22495,7 @@
         <v>22</v>
       </c>
       <c r="M271" s="3"/>
-      <c r="N271" s="3" t="b">
+      <c r="N271" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22548,7 +22552,7 @@
         <v>22</v>
       </c>
       <c r="M272" s="3"/>
-      <c r="N272" s="3" t="b">
+      <c r="N272" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22605,7 +22609,7 @@
         <v>22</v>
       </c>
       <c r="M273" s="3"/>
-      <c r="N273" s="3" t="b">
+      <c r="N273" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22662,7 +22666,7 @@
         <v>22</v>
       </c>
       <c r="M274" s="3"/>
-      <c r="N274" s="3" t="b">
+      <c r="N274" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22719,7 +22723,7 @@
         <v>22</v>
       </c>
       <c r="M275" s="3"/>
-      <c r="N275" s="3" t="b">
+      <c r="N275" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22776,7 +22780,7 @@
         <v>22</v>
       </c>
       <c r="M276" s="3"/>
-      <c r="N276" s="3" t="b">
+      <c r="N276" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22833,7 +22837,7 @@
         <v>22</v>
       </c>
       <c r="M277" s="3"/>
-      <c r="N277" s="3" t="b">
+      <c r="N277" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22890,7 +22894,7 @@
         <v>22</v>
       </c>
       <c r="M278" s="3"/>
-      <c r="N278" s="3" t="b">
+      <c r="N278" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -22947,7 +22951,7 @@
         <v>22</v>
       </c>
       <c r="M279" s="3"/>
-      <c r="N279" s="3" t="b">
+      <c r="N279" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23004,7 +23008,7 @@
         <v>22</v>
       </c>
       <c r="M280" s="3"/>
-      <c r="N280" s="3" t="b">
+      <c r="N280" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23402,7 +23406,9 @@
       <c r="L287" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M287" s="3"/>
+      <c r="M287" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N287" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -23461,7 +23467,9 @@
       <c r="L288" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M288" s="3"/>
+      <c r="M288" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N288" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23518,7 +23526,9 @@
       <c r="L289" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M289" s="3"/>
+      <c r="M289" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N289" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23575,7 +23585,9 @@
       <c r="L290" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M290" s="3"/>
+      <c r="M290" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N290" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23632,7 +23644,9 @@
       <c r="L291" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M291" s="3"/>
+      <c r="M291" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N291" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23689,7 +23703,9 @@
       <c r="L292" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M292" s="3"/>
+      <c r="M292" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N292" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23746,8 +23762,10 @@
       <c r="L293" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M293" s="3"/>
-      <c r="N293" s="6" t="b">
+      <c r="M293" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="N293" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -23803,7 +23821,9 @@
       <c r="L294" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M294" s="3"/>
+      <c r="M294" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N294" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23860,7 +23880,9 @@
       <c r="L295" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M295" s="3"/>
+      <c r="M295" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N295" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23917,7 +23939,9 @@
       <c r="L296" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M296" s="3"/>
+      <c r="M296" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N296" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23974,7 +23998,9 @@
       <c r="L297" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M297" s="3"/>
+      <c r="M297" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N297" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24031,7 +24057,9 @@
       <c r="L298" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M298" s="3"/>
+      <c r="M298" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N298" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24088,7 +24116,9 @@
       <c r="L299" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M299" s="3"/>
+      <c r="M299" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N299" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24145,7 +24175,9 @@
       <c r="L300" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M300" s="3"/>
+      <c r="M300" s="3" t="s">
+        <v>23</v>
+      </c>
       <c r="N300" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24658,7 +24690,7 @@
         <v>22</v>
       </c>
       <c r="M309" s="3"/>
-      <c r="N309" s="6" t="b">
+      <c r="N309" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24715,7 +24747,7 @@
         <v>22</v>
       </c>
       <c r="M310" s="3"/>
-      <c r="N310" s="6" t="b">
+      <c r="N310" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24772,7 +24804,7 @@
         <v>22</v>
       </c>
       <c r="M311" s="3"/>
-      <c r="N311" s="6" t="b">
+      <c r="N311" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24829,7 +24861,7 @@
         <v>22</v>
       </c>
       <c r="M312" s="3"/>
-      <c r="N312" s="6" t="b">
+      <c r="N312" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24886,7 +24918,7 @@
         <v>565</v>
       </c>
       <c r="M313" s="3"/>
-      <c r="N313" s="6" t="b">
+      <c r="N313" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -24943,7 +24975,7 @@
         <v>22</v>
       </c>
       <c r="M314" s="3"/>
-      <c r="N314" s="6" t="b">
+      <c r="N314" s="12" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25627,7 +25659,7 @@
         <v>22</v>
       </c>
       <c r="M326" s="3"/>
-      <c r="N326" s="3" t="b">
+      <c r="N326" s="6" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
       </c>
@@ -25684,7 +25716,7 @@
         <v>22</v>
       </c>
       <c r="M327" s="3"/>
-      <c r="N327" s="3" t="b">
+      <c r="N327" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -25741,7 +25773,7 @@
         <v>22</v>
       </c>
       <c r="M328" s="3"/>
-      <c r="N328" s="3" t="b">
+      <c r="N328" s="6" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
       </c>
@@ -27783,7 +27815,7 @@
       <c r="G364" s="7" t="s">
         <v>1204</v>
       </c>
-      <c r="H364" s="12" t="n">
+      <c r="H364" s="13" t="n">
         <v>50964</v>
       </c>
       <c r="I364" s="3"/>
@@ -33204,7 +33236,7 @@
       <c r="G459" s="7" t="s">
         <v>1514</v>
       </c>
-      <c r="H459" s="12" t="n">
+      <c r="H459" s="13" t="n">
         <v>61482</v>
       </c>
       <c r="I459" s="3"/>
@@ -33546,7 +33578,7 @@
       <c r="G465" s="7" t="s">
         <v>1532</v>
       </c>
-      <c r="H465" s="12" t="n">
+      <c r="H465" s="13" t="n">
         <v>52575</v>
       </c>
       <c r="I465" s="3"/>
@@ -33774,7 +33806,7 @@
       <c r="G469" s="7" t="s">
         <v>1544</v>
       </c>
-      <c r="H469" s="12" t="n">
+      <c r="H469" s="13" t="n">
         <v>61916</v>
       </c>
       <c r="I469" s="3"/>
@@ -39880,7 +39912,7 @@
       <c r="F576" s="3" t="s">
         <v>63</v>
       </c>
-      <c r="G576" s="13"/>
+      <c r="G576" s="14"/>
       <c r="H576" s="3"/>
       <c r="I576" s="3" t="s">
         <v>1900</v>
@@ -41200,7 +41232,7 @@
       <c r="G599" s="7" t="s">
         <v>1981</v>
       </c>
-      <c r="H599" s="12" t="n">
+      <c r="H599" s="13" t="n">
         <v>59144</v>
       </c>
       <c r="I599" s="3"/>
@@ -41998,7 +42030,7 @@
       <c r="G613" s="7" t="s">
         <v>2024</v>
       </c>
-      <c r="H613" s="12" t="n">
+      <c r="H613" s="13" t="n">
         <v>12485</v>
       </c>
       <c r="I613" s="3"/>
@@ -42454,7 +42486,7 @@
       <c r="G621" s="7" t="s">
         <v>2048</v>
       </c>
-      <c r="H621" s="12" t="n">
+      <c r="H621" s="13" t="n">
         <v>3048</v>
       </c>
       <c r="I621" s="3"/>
@@ -42511,7 +42543,7 @@
       <c r="G622" s="7" t="s">
         <v>2051</v>
       </c>
-      <c r="H622" s="12" t="n">
+      <c r="H622" s="13" t="n">
         <v>4235</v>
       </c>
       <c r="I622" s="3"/>
@@ -42625,7 +42657,7 @@
       <c r="G624" s="8" t="s">
         <v>2057</v>
       </c>
-      <c r="H624" s="12" t="n">
+      <c r="H624" s="13" t="n">
         <v>7387</v>
       </c>
       <c r="I624" s="3"/>
@@ -42853,7 +42885,7 @@
       <c r="G628" s="7" t="s">
         <v>2069</v>
       </c>
-      <c r="H628" s="12" t="n">
+      <c r="H628" s="13" t="n">
         <v>5313</v>
       </c>
       <c r="I628" s="3"/>
@@ -43138,7 +43170,7 @@
       <c r="G633" s="8" t="s">
         <v>2084</v>
       </c>
-      <c r="H633" s="12" t="n">
+      <c r="H633" s="13" t="n">
         <v>4364</v>
       </c>
       <c r="I633" s="3"/>
@@ -43195,7 +43227,7 @@
       <c r="G634" s="8" t="s">
         <v>2087</v>
       </c>
-      <c r="H634" s="12" t="n">
+      <c r="H634" s="13" t="n">
         <v>5080</v>
       </c>
       <c r="I634" s="3"/>
@@ -43423,7 +43455,7 @@
       <c r="G638" s="7" t="s">
         <v>2099</v>
       </c>
-      <c r="H638" s="14" t="n">
+      <c r="H638" s="15" t="n">
         <v>6331</v>
       </c>
       <c r="I638" s="3"/>
@@ -43480,7 +43512,7 @@
       <c r="G639" s="7" t="s">
         <v>2102</v>
       </c>
-      <c r="H639" s="12" t="n">
+      <c r="H639" s="13" t="n">
         <v>4296</v>
       </c>
       <c r="I639" s="3"/>
@@ -43594,7 +43626,7 @@
       <c r="G641" s="7" t="s">
         <v>2108</v>
       </c>
-      <c r="H641" s="12" t="n">
+      <c r="H641" s="13" t="n">
         <v>3696</v>
       </c>
       <c r="I641" s="3"/>
@@ -43822,7 +43854,7 @@
       <c r="G645" s="7" t="s">
         <v>2120</v>
       </c>
-      <c r="H645" s="12" t="n">
+      <c r="H645" s="13" t="n">
         <v>5843</v>
       </c>
       <c r="I645" s="3"/>
@@ -44107,7 +44139,7 @@
       <c r="G650" s="8" t="s">
         <v>2137</v>
       </c>
-      <c r="H650" s="12" t="n">
+      <c r="H650" s="13" t="n">
         <v>3744</v>
       </c>
       <c r="I650" s="3"/>
@@ -44320,7 +44352,7 @@
       <c r="D654" s="3"/>
       <c r="E654" s="3"/>
       <c r="F654" s="3"/>
-      <c r="G654" s="15"/>
+      <c r="G654" s="16"/>
       <c r="H654" s="3"/>
       <c r="I654" s="3"/>
       <c r="J654" s="5"/>
@@ -44354,7 +44386,7 @@
       <c r="D655" s="3"/>
       <c r="E655" s="3"/>
       <c r="F655" s="3"/>
-      <c r="G655" s="15"/>
+      <c r="G655" s="16"/>
       <c r="H655" s="3"/>
       <c r="I655" s="3"/>
       <c r="J655" s="5"/>
@@ -44388,7 +44420,7 @@
       <c r="D656" s="3"/>
       <c r="E656" s="3"/>
       <c r="F656" s="3"/>
-      <c r="G656" s="15"/>
+      <c r="G656" s="16"/>
       <c r="H656" s="3"/>
       <c r="I656" s="3"/>
       <c r="J656" s="5"/>
@@ -44422,7 +44454,7 @@
       <c r="D657" s="3"/>
       <c r="E657" s="3"/>
       <c r="F657" s="3"/>
-      <c r="G657" s="15"/>
+      <c r="G657" s="16"/>
       <c r="H657" s="3"/>
       <c r="I657" s="3"/>
       <c r="J657" s="5"/>
@@ -44456,7 +44488,7 @@
       <c r="D658" s="3"/>
       <c r="E658" s="3"/>
       <c r="F658" s="3"/>
-      <c r="G658" s="15"/>
+      <c r="G658" s="16"/>
       <c r="H658" s="3"/>
       <c r="I658" s="3"/>
       <c r="J658" s="5"/>
@@ -44490,7 +44522,7 @@
       <c r="D659" s="3"/>
       <c r="E659" s="3"/>
       <c r="F659" s="3"/>
-      <c r="G659" s="15"/>
+      <c r="G659" s="16"/>
       <c r="H659" s="3"/>
       <c r="I659" s="3"/>
       <c r="J659" s="5"/>
@@ -44524,7 +44556,7 @@
       <c r="D660" s="3"/>
       <c r="E660" s="3"/>
       <c r="F660" s="3"/>
-      <c r="G660" s="15"/>
+      <c r="G660" s="16"/>
       <c r="H660" s="3"/>
       <c r="I660" s="3"/>
       <c r="J660" s="5"/>
@@ -44558,7 +44590,7 @@
       <c r="D661" s="3"/>
       <c r="E661" s="3"/>
       <c r="F661" s="3"/>
-      <c r="G661" s="15"/>
+      <c r="G661" s="16"/>
       <c r="H661" s="3"/>
       <c r="I661" s="3"/>
       <c r="J661" s="5"/>
@@ -44592,7 +44624,7 @@
       <c r="D662" s="3"/>
       <c r="E662" s="3"/>
       <c r="F662" s="3"/>
-      <c r="G662" s="15"/>
+      <c r="G662" s="16"/>
       <c r="H662" s="3"/>
       <c r="I662" s="3"/>
       <c r="J662" s="5"/>
@@ -44626,7 +44658,7 @@
       <c r="D663" s="3"/>
       <c r="E663" s="3"/>
       <c r="F663" s="3"/>
-      <c r="G663" s="16"/>
+      <c r="G663" s="17"/>
       <c r="H663" s="3"/>
       <c r="I663" s="3"/>
       <c r="J663" s="5"/>
@@ -44660,7 +44692,7 @@
       <c r="D664" s="3"/>
       <c r="E664" s="3"/>
       <c r="F664" s="3"/>
-      <c r="G664" s="16"/>
+      <c r="G664" s="17"/>
       <c r="H664" s="3"/>
       <c r="I664" s="3"/>
       <c r="J664" s="5"/>
@@ -44694,7 +44726,7 @@
       <c r="D665" s="3"/>
       <c r="E665" s="3"/>
       <c r="F665" s="3"/>
-      <c r="G665" s="16"/>
+      <c r="G665" s="17"/>
       <c r="H665" s="3"/>
       <c r="I665" s="3"/>
       <c r="J665" s="3"/>

--- a/corpus_metadata.xlsx
+++ b/corpus_metadata.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5438" uniqueCount="2147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5424" uniqueCount="2147">
   <si>
     <t xml:space="preserve">filename</t>
   </si>
@@ -6767,7 +6767,7 @@
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <pane xSplit="0" ySplit="1" topLeftCell="A281" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="O300" activeCellId="0" sqref="O300"/>
+      <selection pane="bottomLeft" activeCell="M286" activeCellId="0" sqref="M286:M302"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.60546875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -23406,9 +23406,7 @@
       <c r="L287" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M287" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M287" s="3"/>
       <c r="N287" s="3" t="b">
         <f aca="false">FALSE()</f>
         <v>0</v>
@@ -23467,9 +23465,7 @@
       <c r="L288" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M288" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M288" s="3"/>
       <c r="N288" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23526,9 +23522,7 @@
       <c r="L289" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M289" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M289" s="3"/>
       <c r="N289" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23585,9 +23579,7 @@
       <c r="L290" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M290" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M290" s="3"/>
       <c r="N290" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23644,9 +23636,7 @@
       <c r="L291" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M291" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M291" s="3"/>
       <c r="N291" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23703,9 +23693,7 @@
       <c r="L292" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M292" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M292" s="3"/>
       <c r="N292" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23762,9 +23750,7 @@
       <c r="L293" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M293" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M293" s="3"/>
       <c r="N293" s="12" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23821,9 +23807,7 @@
       <c r="L294" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M294" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M294" s="3"/>
       <c r="N294" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23880,9 +23864,7 @@
       <c r="L295" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M295" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M295" s="3"/>
       <c r="N295" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23939,9 +23921,7 @@
       <c r="L296" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M296" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M296" s="3"/>
       <c r="N296" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -23998,9 +23978,7 @@
       <c r="L297" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M297" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M297" s="3"/>
       <c r="N297" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24057,9 +24035,7 @@
       <c r="L298" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M298" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M298" s="3"/>
       <c r="N298" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24116,9 +24092,7 @@
       <c r="L299" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M299" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M299" s="3"/>
       <c r="N299" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
@@ -24175,9 +24149,7 @@
       <c r="L300" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="M300" s="3" t="s">
-        <v>23</v>
-      </c>
+      <c r="M300" s="3"/>
       <c r="N300" s="3" t="b">
         <f aca="false">TRUE()</f>
         <v>1</v>
